--- a/docs/base_de_donnees_materiaux/bdd_materiaux_v3.0 - sans prix -.xlsx
+++ b/docs/base_de_donnees_materiaux/bdd_materiaux_v3.0 - sans prix -.xlsx
@@ -130,7 +130,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Les valeurs en gras ont été trouvé dans le CTDEC, les valeurs en italiques ont été déduite des valeurs en gras. 
+          <t xml:space="preserve">Les valeurs en gras ont été trouvé dans le "critère d'usinabilité" , les valeurs en italiques ont été déduite des valeurs en gras. 
+La référence est le 9S30, numéro 1,0711
 </t>
         </r>
       </text>
@@ -176,7 +177,7 @@
     <author>brigitte</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -204,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -213,32 +214,13 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Les valeurs en gras ont été trouvé dans le CTDEC, les valeurs en italiques ont été déduite des valeurs en gras.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">Les valeurs en gras ont été trouvé dans le "critère d'usinabilité" , les valeurs en italiques ont été déduite des valeurs en gras. 
+La référence est le 9S30, numéro 1,0711
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="M5" authorId="0" shapeId="0">
+    <comment ref="L5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -254,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O5" authorId="0" shapeId="0">
+    <comment ref="N5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -271,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P5" authorId="0" shapeId="0">
+    <comment ref="O5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -291,7 +273,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="244">
   <si>
     <t>Famille</t>
   </si>
@@ -755,12 +737,6 @@
     <t xml:space="preserve">25CrMoS4 </t>
   </si>
   <si>
-    <t>Base de donnée Matériaux de l'IPOC AT-OMC v2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cette base de donnée est composée d'environ 70 aciers classés en 4 grandes familles: les aciers d'usage général, les aciers de décolletage, les acier de cementation et les acier de trempe et revenu. </t>
-  </si>
-  <si>
     <t>% outillage</t>
   </si>
   <si>
@@ -797,9 +773,6 @@
     <t xml:space="preserve">34CrNiMo6 + QT </t>
   </si>
   <si>
-    <t>Les éléments de l'usinabilité en gras sont des valeurs conformes trouvées dans le livre du CTDEC, en revanche les valeurs en italiques sont des valeurs déterminées avec l'aide des valeurs connues d'autre materiaux et de la composition chimique.</t>
-  </si>
-  <si>
     <t>Traitement thermique</t>
   </si>
   <si>
@@ -818,154 +791,280 @@
     <t>20 mm</t>
   </si>
   <si>
-    <t>Pour chaque materiau on y trouve sa composition, ses caractéristiques mécaniques (Rm, Rp0,2, A%), son aptitude au traitement thermique, son usinabilité et son aptitude à la soudure. Plus l'usinabilité est bonne plus le pourcentage est élevé, pour l'aptitude à la soudure, 1 correspond à une bonne aptitude et 3 à une mauvaise.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Acier inoxydable austenitique </t>
   </si>
   <si>
-    <t>AISI ou UNS</t>
-  </si>
-  <si>
-    <t>X10 CrNi 18 8</t>
-  </si>
-  <si>
-    <t>X 5 CrNiN17 8</t>
-  </si>
-  <si>
-    <t>X8 CrNiS 18 9</t>
-  </si>
-  <si>
-    <t>X5 CrNi 18 10</t>
-  </si>
-  <si>
-    <t>X2 CrNi19 11</t>
-  </si>
-  <si>
-    <t>304L</t>
-  </si>
-  <si>
-    <t>X2 CrNi 18 9</t>
-  </si>
-  <si>
-    <t>X5 CrNiMo 17 12 2</t>
-  </si>
-  <si>
-    <t>X2 CrNiMo 17 12 2</t>
-  </si>
-  <si>
-    <t>316L</t>
-  </si>
-  <si>
-    <t>X2 CrNiMo 18 14 3</t>
-  </si>
-  <si>
     <t>plusieur nuance ??</t>
   </si>
   <si>
-    <t>X1 NiCrMoCu 25 20 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">904L </t>
-  </si>
-  <si>
-    <t>X12 CrS 13</t>
-  </si>
-  <si>
-    <t>X20 Cr 13</t>
-  </si>
-  <si>
-    <t>X30 Cr 13</t>
-  </si>
-  <si>
-    <t>X46 Cr 13</t>
-  </si>
-  <si>
-    <t>X45 CrS 13</t>
-  </si>
-  <si>
-    <t>420F</t>
-  </si>
-  <si>
-    <t>X6 Cr 17</t>
-  </si>
-  <si>
-    <t>430F</t>
-  </si>
-  <si>
-    <t>X14 CrMoS 17</t>
-  </si>
-  <si>
-    <t>X17 CrNi 16 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">pas dans la norme </t>
   </si>
   <si>
-    <t>X6 CrNiTi 18 10</t>
-  </si>
-  <si>
     <t xml:space="preserve">A% </t>
   </si>
   <si>
     <t xml:space="preserve">Acier inoxydables martensitique </t>
   </si>
   <si>
-    <t>Acier inoxydables feritique</t>
-  </si>
-  <si>
-    <t>X12Cr13</t>
-  </si>
-  <si>
     <t>resistance à la corrosion</t>
   </si>
   <si>
     <t>trempe+revenu</t>
   </si>
   <si>
-    <t>X4CrNiMo 16 5 1 (QT 760)</t>
-  </si>
-  <si>
-    <t>X39Cr13</t>
-  </si>
-  <si>
-    <t>X29CrS13</t>
-  </si>
-  <si>
-    <t>X39CrMo 17 1</t>
-  </si>
-  <si>
-    <t>X5CrNiCuNb 16 4 (QT930)</t>
-  </si>
-  <si>
-    <t>X3CrNiCu 18  4</t>
-  </si>
-  <si>
-    <t>X3CrNiMo 17 13 3</t>
-  </si>
-  <si>
-    <t>X6 CrNiMoTi 17 12 2</t>
-  </si>
-  <si>
-    <t>X6CrMoS17</t>
-  </si>
-  <si>
-    <t>420 F</t>
-  </si>
-  <si>
-    <t>316Ti</t>
-  </si>
-  <si>
-    <t>316M</t>
-  </si>
-  <si>
-    <t>304Cu</t>
-  </si>
-  <si>
     <t>nuance</t>
   </si>
   <si>
     <t>NF 10088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base de donnée Matériaux de l'IPOC AT-OMC v2.0 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Précisions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Les éléments de l'usinabilité en gras sont des valeurs conformes trouvées dans le livre du CTDEC, en revanche les valeurs en italiques sont des valeurs déterminées avec l'aide des valeurs connues d'autre materiaux et de la composition chimique.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Caractéristique de chaque matériau: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pour chaque materiau on y trouve sa composition, ses caractéristiques mécaniques (Rm, Rp0,2, A%), son aptitude au traitement thermique, son usinabilité et son aptitude à la soudure. Plus l'usinabilité est bonne plus le pourcentage est élevé, pour l'aptitude à la soudure, 1 correspond à une bonne aptitude et 3 à une mauvaise.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Composition de la base de donnée:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cette base de donnée est composée d'environ 70 aciers classés en 4 grandes familles: les aciers d'usage général, les aciers de décolletage, les acier de cementation et les acier de trempe et revenu, et d'une trentaine d'inox classé en 3 familles: les inox martensitiques, les inox austenitiques, les inox ferritiques. </t>
+    </r>
+  </si>
+  <si>
+    <t>Acier inoxydable feritique</t>
+  </si>
+  <si>
+    <t>X4CrNiMo16-5-1 (QT 760)</t>
+  </si>
+  <si>
+    <t>X39CrMo17-1</t>
+  </si>
+  <si>
+    <t>X5CrNiCuNb16-4 (QT930)</t>
+  </si>
+  <si>
+    <t>X10CrNi18-8 (301)</t>
+  </si>
+  <si>
+    <t>X5CrNiN17-8 (302)</t>
+  </si>
+  <si>
+    <t>X8CrNiS18-9 (303)</t>
+  </si>
+  <si>
+    <t>X5CrNi18-10 (304)</t>
+  </si>
+  <si>
+    <t>X2CrNi19-11 (304L)</t>
+  </si>
+  <si>
+    <t>X2CrNi18-9 (304L)</t>
+  </si>
+  <si>
+    <t>X5CrNiMo17-12-2 (316)</t>
+  </si>
+  <si>
+    <t>X2CrNiMo17-12-2 (316L)</t>
+  </si>
+  <si>
+    <t>X2CrNiMo18-14-3 (316L)</t>
+  </si>
+  <si>
+    <t>X6CrNiMoTi17-12-2 (316Ti)</t>
+  </si>
+  <si>
+    <t>X3CrNiMo17-13-3 (316M)</t>
+  </si>
+  <si>
+    <t>X6CrNiTi18-10 (321)</t>
+  </si>
+  <si>
+    <t>X3CrNiCu18-4 (304Cu)</t>
+  </si>
+  <si>
+    <t>X1NiCrMoCu25-20-5 (904L)</t>
+  </si>
+  <si>
+    <t>X12CrS13 (416)</t>
+  </si>
+  <si>
+    <t>X20Cr13 (420)</t>
+  </si>
+  <si>
+    <t>X30Cr13 (420)</t>
+  </si>
+  <si>
+    <t>X29CrS13 (420F)</t>
+  </si>
+  <si>
+    <t>X46Cr13 (420)</t>
+  </si>
+  <si>
+    <t>X45CrS13 (420F)</t>
+  </si>
+  <si>
+    <t>X39Cr13 (420)</t>
+  </si>
+  <si>
+    <t>X17CrNi-16-2 (431)</t>
+  </si>
+  <si>
+    <t>X12Cr13 (410)</t>
+  </si>
+  <si>
+    <t>X6Cr17 (430)</t>
+  </si>
+  <si>
+    <t>X14CrMoS17 (430F)</t>
+  </si>
+  <si>
+    <t>X6CrMoS17 (420F)</t>
+  </si>
+  <si>
+    <t>1.431</t>
+  </si>
+  <si>
+    <t>1.4319</t>
+  </si>
+  <si>
+    <t>1.4305</t>
+  </si>
+  <si>
+    <t>1.4301</t>
+  </si>
+  <si>
+    <t>1.4306</t>
+  </si>
+  <si>
+    <t>1.4307</t>
+  </si>
+  <si>
+    <t>1.4401</t>
+  </si>
+  <si>
+    <t>1.4404</t>
+  </si>
+  <si>
+    <t>1.4435</t>
+  </si>
+  <si>
+    <t>1.4571</t>
+  </si>
+  <si>
+    <t>1.4436</t>
+  </si>
+  <si>
+    <t>1.4541</t>
+  </si>
+  <si>
+    <t>1.4567</t>
+  </si>
+  <si>
+    <t>1.4539</t>
+  </si>
+  <si>
+    <t>1.4005</t>
+  </si>
+  <si>
+    <t>1.4021</t>
+  </si>
+  <si>
+    <t>1.4028</t>
+  </si>
+  <si>
+    <t>1.4029</t>
+  </si>
+  <si>
+    <t>1.4034</t>
+  </si>
+  <si>
+    <t>1.4035</t>
+  </si>
+  <si>
+    <t>1.4418</t>
+  </si>
+  <si>
+    <t>1.4122</t>
+  </si>
+  <si>
+    <t>1.4031</t>
+  </si>
+  <si>
+    <t>1.4057</t>
+  </si>
+  <si>
+    <t>1.4542</t>
+  </si>
+  <si>
+    <t>1.4006</t>
+  </si>
+  <si>
+    <t>1.4016</t>
+  </si>
+  <si>
+    <t>1.4104</t>
+  </si>
+  <si>
+    <t>1.4105</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1527,7 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1581,12 +1680,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1674,9 +1767,6 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1721,9 +1811,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1757,9 +1844,6 @@
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="13" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1827,9 +1911,28 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1857,31 +1960,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Heading 2b" xfId="6"/>
@@ -1895,64 +1977,7 @@
     <cellStyle name="Titre 3 2" xfId="4"/>
     <cellStyle name="Titre 4 2" xfId="7"/>
   </cellStyles>
-  <dxfs count="59">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="58">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2097,7 +2122,55 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2465,14 +2538,14 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Fitness Plan Tables" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="58"/>
-      <tableStyleElement type="headerRow" dxfId="57"/>
-      <tableStyleElement type="secondRowStripe" dxfId="56"/>
+      <tableStyleElement type="wholeTable" dxfId="57"/>
+      <tableStyleElement type="headerRow" dxfId="56"/>
+      <tableStyleElement type="secondRowStripe" dxfId="55"/>
     </tableStyle>
     <tableStyle name="Fitness Plan Tables 2" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="55"/>
-      <tableStyleElement type="headerRow" dxfId="54"/>
-      <tableStyleElement type="secondRowStripe" dxfId="53"/>
+      <tableStyleElement type="wholeTable" dxfId="54"/>
+      <tableStyleElement type="headerRow" dxfId="53"/>
+      <tableStyleElement type="secondRowStripe" dxfId="52"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2486,38 +2559,87 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>424161</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>563511</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2100561" y="971550"/>
+          <a:ext cx="2471439" cy="1382661"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="B5:AA78" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51" tableBorderDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="B5:AA78" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50" tableBorderDxfId="49">
   <autoFilter ref="B5:AA78"/>
   <tableColumns count="26">
-    <tableColumn id="1" name="Famille" dataDxfId="49"/>
-    <tableColumn id="2" name="Nuance" dataDxfId="48"/>
-    <tableColumn id="3" name="Numéro" dataDxfId="47"/>
-    <tableColumn id="4" name="Indice prix tonne" dataDxfId="46"/>
+    <tableColumn id="1" name="Famille" dataDxfId="48"/>
+    <tableColumn id="2" name="Nuance" dataDxfId="47"/>
+    <tableColumn id="3" name="Numéro" dataDxfId="46"/>
+    <tableColumn id="4" name="Indice prix tonne" dataDxfId="45"/>
     <tableColumn id="5" name="Usinabilité"/>
     <tableColumn id="6" name="% outillage"/>
     <tableColumn id="7" name="Dureté en Hb"/>
     <tableColumn id="8" name="Rm en Mpa"/>
     <tableColumn id="9" name="Rp0.2 en Mpa"/>
     <tableColumn id="10" name="A%"/>
-    <tableColumn id="11" name="Aptitude à la soudure" dataDxfId="45">
+    <tableColumn id="11" name="Aptitude à la soudure" dataDxfId="44">
       <calculatedColumnFormula>IF(AA6&lt;0.4,1,IF(AA6&lt;0.7,2,3))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Traitement thermique" dataDxfId="44"/>
-    <tableColumn id="13" name="Aptitude au traitement thermique" dataDxfId="43"/>
-    <tableColumn id="14" name="C" dataDxfId="42"/>
-    <tableColumn id="15" name="Si" dataDxfId="41"/>
-    <tableColumn id="16" name="Mn" dataDxfId="40"/>
-    <tableColumn id="17" name="P" dataDxfId="39"/>
-    <tableColumn id="18" name="S" dataDxfId="38"/>
-    <tableColumn id="19" name="N" dataDxfId="37"/>
-    <tableColumn id="20" name="Cr" dataDxfId="36"/>
-    <tableColumn id="21" name="Mo" dataDxfId="35"/>
-    <tableColumn id="22" name="Ni" dataDxfId="34"/>
-    <tableColumn id="23" name="Pb" dataDxfId="33"/>
-    <tableColumn id="24" name="B" dataDxfId="32"/>
-    <tableColumn id="25" name="V" dataDxfId="31"/>
-    <tableColumn id="26" name="Ceq" dataDxfId="30">
+    <tableColumn id="12" name="Traitement thermique" dataDxfId="43"/>
+    <tableColumn id="13" name="Aptitude au traitement thermique" dataDxfId="42"/>
+    <tableColumn id="14" name="C" dataDxfId="41"/>
+    <tableColumn id="15" name="Si" dataDxfId="40"/>
+    <tableColumn id="16" name="Mn" dataDxfId="39"/>
+    <tableColumn id="17" name="P" dataDxfId="38"/>
+    <tableColumn id="18" name="S" dataDxfId="37"/>
+    <tableColumn id="19" name="N" dataDxfId="36"/>
+    <tableColumn id="20" name="Cr" dataDxfId="35"/>
+    <tableColumn id="21" name="Mo" dataDxfId="34"/>
+    <tableColumn id="22" name="Ni" dataDxfId="33"/>
+    <tableColumn id="23" name="Pb" dataDxfId="32"/>
+    <tableColumn id="24" name="B" dataDxfId="31"/>
+    <tableColumn id="25" name="V" dataDxfId="30"/>
+    <tableColumn id="26" name="Ceq" dataDxfId="29">
       <calculatedColumnFormula>O6+Q6/6+(U6+V6+Z6)/5+W6/15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2526,12 +2648,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B5:AB34" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27">
-  <autoFilter ref="B5:AB34"/>
-  <tableColumns count="27">
-    <tableColumn id="1" name="Famille" dataDxfId="26"/>
-    <tableColumn id="2" name="nuance" dataDxfId="25"/>
-    <tableColumn id="3" name="AISI ou UNS" dataDxfId="24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B5:AA34" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" tableBorderDxfId="26">
+  <autoFilter ref="B5:AA34"/>
+  <tableColumns count="26">
+    <tableColumn id="1" name="Famille" dataDxfId="25"/>
+    <tableColumn id="2" name="nuance" dataDxfId="24"/>
     <tableColumn id="4" name="Numéro" dataDxfId="23"/>
     <tableColumn id="5" name="Indice prix tonne" dataDxfId="22"/>
     <tableColumn id="6" name="Usinabilité" dataDxfId="21"/>
@@ -2540,22 +2661,22 @@
     <tableColumn id="9" name="Rm en Mpa" dataDxfId="18"/>
     <tableColumn id="10" name="Rp0.2 en Mpa" dataDxfId="17"/>
     <tableColumn id="11" name="A% " dataDxfId="16"/>
-    <tableColumn id="12" name="Aptitude à la soudure" dataDxfId="2"/>
-    <tableColumn id="13" name="Traitement thermique" dataDxfId="0"/>
-    <tableColumn id="14" name="Aptitude au traitement thermique" dataDxfId="1"/>
-    <tableColumn id="15" name="resistance à la corrosion" dataDxfId="15"/>
-    <tableColumn id="16" name="C" dataDxfId="14"/>
-    <tableColumn id="17" name="Si" dataDxfId="13"/>
-    <tableColumn id="18" name="Mn" dataDxfId="12"/>
-    <tableColumn id="19" name="P" dataDxfId="11"/>
-    <tableColumn id="20" name="S" dataDxfId="10"/>
-    <tableColumn id="21" name="N" dataDxfId="9"/>
-    <tableColumn id="22" name="Cr" dataDxfId="8"/>
-    <tableColumn id="23" name="Mo" dataDxfId="7"/>
-    <tableColumn id="24" name="Ni" dataDxfId="6"/>
-    <tableColumn id="25" name="Pb" dataDxfId="5"/>
-    <tableColumn id="26" name="B" dataDxfId="4"/>
-    <tableColumn id="27" name="V" dataDxfId="3"/>
+    <tableColumn id="12" name="Aptitude à la soudure" dataDxfId="15"/>
+    <tableColumn id="13" name="Traitement thermique" dataDxfId="14"/>
+    <tableColumn id="14" name="Aptitude au traitement thermique" dataDxfId="13"/>
+    <tableColumn id="15" name="resistance à la corrosion" dataDxfId="12"/>
+    <tableColumn id="16" name="C" dataDxfId="11"/>
+    <tableColumn id="17" name="Si" dataDxfId="10"/>
+    <tableColumn id="18" name="Mn" dataDxfId="9"/>
+    <tableColumn id="19" name="P" dataDxfId="8"/>
+    <tableColumn id="20" name="S" dataDxfId="7"/>
+    <tableColumn id="21" name="N" dataDxfId="6"/>
+    <tableColumn id="22" name="Cr" dataDxfId="5"/>
+    <tableColumn id="23" name="Mo" dataDxfId="4"/>
+    <tableColumn id="24" name="Ni" dataDxfId="3"/>
+    <tableColumn id="25" name="Pb" dataDxfId="2"/>
+    <tableColumn id="26" name="B" dataDxfId="1"/>
+    <tableColumn id="27" name="V" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2862,194 +2983,197 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I8"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="3" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="216" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="216"/>
-      <c r="C1" s="216"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="216"/>
-      <c r="F1" s="216"/>
-      <c r="G1" s="216"/>
-      <c r="H1" s="216"/>
-      <c r="I1" s="216"/>
+      <c r="A1" s="232" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="216"/>
-      <c r="B2" s="216"/>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
+      <c r="A2" s="232"/>
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="216"/>
-      <c r="B3" s="216"/>
-      <c r="C3" s="216"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="216"/>
-      <c r="G3" s="216"/>
-      <c r="H3" s="216"/>
-      <c r="I3" s="216"/>
+      <c r="A3" s="232"/>
+      <c r="B3" s="232"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="232"/>
+      <c r="I3" s="232"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="216"/>
-      <c r="B4" s="216"/>
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="216"/>
-      <c r="G4" s="216"/>
-      <c r="H4" s="216"/>
-      <c r="I4" s="216"/>
+      <c r="A4" s="232"/>
+      <c r="B4" s="232"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="232"/>
+      <c r="E4" s="232"/>
+      <c r="F4" s="232"/>
+      <c r="G4" s="232"/>
+      <c r="H4" s="232"/>
+      <c r="I4" s="232"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="216"/>
-      <c r="B5" s="216"/>
-      <c r="C5" s="216"/>
-      <c r="D5" s="216"/>
-      <c r="E5" s="216"/>
-      <c r="F5" s="216"/>
-      <c r="G5" s="216"/>
-      <c r="H5" s="216"/>
-      <c r="I5" s="216"/>
+      <c r="A5" s="232"/>
+      <c r="B5" s="232"/>
+      <c r="C5" s="232"/>
+      <c r="D5" s="232"/>
+      <c r="E5" s="232"/>
+      <c r="F5" s="232"/>
+      <c r="G5" s="232"/>
+      <c r="H5" s="232"/>
+      <c r="I5" s="232"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="216"/>
-      <c r="B6" s="216"/>
-      <c r="C6" s="216"/>
-      <c r="D6" s="216"/>
-      <c r="E6" s="216"/>
-      <c r="F6" s="216"/>
-      <c r="G6" s="216"/>
-      <c r="H6" s="216"/>
-      <c r="I6" s="216"/>
+      <c r="A6" s="232"/>
+      <c r="B6" s="232"/>
+      <c r="C6" s="232"/>
+      <c r="D6" s="232"/>
+      <c r="E6" s="232"/>
+      <c r="F6" s="232"/>
+      <c r="G6" s="232"/>
+      <c r="H6" s="232"/>
+      <c r="I6" s="232"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="216"/>
-      <c r="B7" s="216"/>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="216"/>
-      <c r="H7" s="216"/>
-      <c r="I7" s="216"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="216"/>
-      <c r="B8" s="216"/>
-      <c r="C8" s="216"/>
-      <c r="D8" s="216"/>
-      <c r="E8" s="216"/>
-      <c r="F8" s="216"/>
-      <c r="G8" s="216"/>
-      <c r="H8" s="216"/>
-      <c r="I8" s="216"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="217" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="217"/>
-      <c r="C9" s="217"/>
-      <c r="D9" s="217"/>
-      <c r="E9" s="217"/>
-      <c r="F9" s="217"/>
-      <c r="G9" s="217"/>
-      <c r="H9" s="217"/>
-      <c r="I9" s="217"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="217"/>
-      <c r="B10" s="217"/>
-      <c r="C10" s="217"/>
-      <c r="D10" s="217"/>
-      <c r="E10" s="217"/>
-      <c r="F10" s="217"/>
-      <c r="G10" s="217"/>
-      <c r="H10" s="217"/>
-      <c r="I10" s="217"/>
+      <c r="A7" s="232"/>
+      <c r="B7" s="232"/>
+      <c r="C7" s="232"/>
+      <c r="D7" s="232"/>
+      <c r="E7" s="232"/>
+      <c r="F7" s="232"/>
+      <c r="G7" s="232"/>
+      <c r="H7" s="232"/>
+      <c r="I7" s="232"/>
+    </row>
+    <row r="8" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="232"/>
+      <c r="B8" s="232"/>
+      <c r="C8" s="232"/>
+      <c r="D8" s="232"/>
+      <c r="E8" s="232"/>
+      <c r="F8" s="232"/>
+      <c r="G8" s="232"/>
+      <c r="H8" s="232"/>
+      <c r="I8" s="232"/>
+    </row>
+    <row r="9" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="223" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="223"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="223"/>
+      <c r="E9" s="223"/>
+      <c r="F9" s="223"/>
+      <c r="G9" s="223"/>
+      <c r="H9" s="223"/>
+      <c r="I9" s="223"/>
+    </row>
+    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="223"/>
+      <c r="B10" s="223"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="223"/>
+      <c r="E10" s="223"/>
+      <c r="F10" s="223"/>
+      <c r="G10" s="223"/>
+      <c r="H10" s="223"/>
+      <c r="I10" s="223"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="218" t="s">
-        <v>175</v>
-      </c>
-      <c r="B11" s="218"/>
-      <c r="C11" s="218"/>
-      <c r="D11" s="218"/>
-      <c r="E11" s="218"/>
-      <c r="F11" s="218"/>
-      <c r="G11" s="218"/>
-      <c r="H11" s="218"/>
-      <c r="I11" s="218"/>
+      <c r="A11" s="224" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" s="224"/>
+      <c r="C11" s="224"/>
+      <c r="D11" s="224"/>
+      <c r="E11" s="224"/>
+      <c r="F11" s="224"/>
+      <c r="G11" s="224"/>
+      <c r="H11" s="224"/>
+      <c r="I11" s="224"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="218"/>
-      <c r="B12" s="218"/>
-      <c r="C12" s="218"/>
-      <c r="D12" s="218"/>
-      <c r="E12" s="218"/>
-      <c r="F12" s="218"/>
-      <c r="G12" s="218"/>
-      <c r="H12" s="218"/>
-      <c r="I12" s="218"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="218"/>
-      <c r="B13" s="218"/>
-      <c r="C13" s="218"/>
-      <c r="D13" s="218"/>
-      <c r="E13" s="218"/>
-      <c r="F13" s="218"/>
-      <c r="G13" s="218"/>
-      <c r="H13" s="218"/>
-      <c r="I13" s="218"/>
+      <c r="A12" s="224"/>
+      <c r="B12" s="224"/>
+      <c r="C12" s="224"/>
+      <c r="D12" s="224"/>
+      <c r="E12" s="224"/>
+      <c r="F12" s="224"/>
+      <c r="G12" s="224"/>
+      <c r="H12" s="224"/>
+      <c r="I12" s="224"/>
+    </row>
+    <row r="13" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="224"/>
+      <c r="B13" s="224"/>
+      <c r="C13" s="224"/>
+      <c r="D13" s="224"/>
+      <c r="E13" s="224"/>
+      <c r="F13" s="224"/>
+      <c r="G13" s="224"/>
+      <c r="H13" s="224"/>
+      <c r="I13" s="224"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="218" t="s">
-        <v>168</v>
-      </c>
-      <c r="B14" s="218"/>
-      <c r="C14" s="218"/>
-      <c r="D14" s="218"/>
-      <c r="E14" s="218"/>
-      <c r="F14" s="218"/>
-      <c r="G14" s="218"/>
-      <c r="H14" s="218"/>
-      <c r="I14" s="218"/>
+      <c r="A14" s="224" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="224"/>
+      <c r="C14" s="224"/>
+      <c r="D14" s="224"/>
+      <c r="E14" s="224"/>
+      <c r="F14" s="224"/>
+      <c r="G14" s="224"/>
+      <c r="H14" s="224"/>
+      <c r="I14" s="224"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="218"/>
-      <c r="B15" s="218"/>
-      <c r="C15" s="218"/>
-      <c r="D15" s="218"/>
-      <c r="E15" s="218"/>
-      <c r="F15" s="218"/>
-      <c r="G15" s="218"/>
-      <c r="H15" s="218"/>
-      <c r="I15" s="218"/>
+      <c r="A15" s="224"/>
+      <c r="B15" s="224"/>
+      <c r="C15" s="224"/>
+      <c r="D15" s="224"/>
+      <c r="E15" s="224"/>
+      <c r="F15" s="224"/>
+      <c r="G15" s="224"/>
+      <c r="H15" s="224"/>
+      <c r="I15" s="224"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="218"/>
-      <c r="B16" s="218"/>
-      <c r="C16" s="218"/>
-      <c r="D16" s="218"/>
-      <c r="E16" s="218"/>
-      <c r="F16" s="218"/>
-      <c r="G16" s="218"/>
-      <c r="H16" s="218"/>
-      <c r="I16" s="218"/>
+      <c r="A16" s="224"/>
+      <c r="B16" s="224"/>
+      <c r="C16" s="224"/>
+      <c r="D16" s="224"/>
+      <c r="E16" s="224"/>
+      <c r="F16" s="224"/>
+      <c r="G16" s="224"/>
+      <c r="H16" s="224"/>
+      <c r="I16" s="224"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3060,6 +3184,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3069,11 +3194,11 @@
   <dimension ref="B1:AB79"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="A6" sqref="A6"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3092,57 +3217,57 @@
     <row r="1" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G2"/>
     </row>
     <row r="3" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G3"/>
-      <c r="O3" s="219" t="s">
-        <v>163</v>
-      </c>
-      <c r="P3" s="219"/>
-      <c r="Q3" s="219"/>
-      <c r="R3" s="219"/>
-      <c r="S3" s="219"/>
-      <c r="T3" s="219"/>
-      <c r="U3" s="219"/>
-      <c r="V3" s="219"/>
-      <c r="W3" s="219"/>
-      <c r="X3" s="219"/>
-      <c r="Y3" s="219"/>
-      <c r="Z3" s="219"/>
-      <c r="AA3" s="219"/>
+      <c r="O3" s="225" t="s">
+        <v>161</v>
+      </c>
+      <c r="P3" s="225"/>
+      <c r="Q3" s="225"/>
+      <c r="R3" s="225"/>
+      <c r="S3" s="225"/>
+      <c r="T3" s="225"/>
+      <c r="U3" s="225"/>
+      <c r="V3" s="225"/>
+      <c r="W3" s="225"/>
+      <c r="X3" s="225"/>
+      <c r="Y3" s="225"/>
+      <c r="Z3" s="225"/>
+      <c r="AA3" s="225"/>
     </row>
     <row r="4" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O4" s="220"/>
-      <c r="P4" s="220"/>
-      <c r="Q4" s="220"/>
-      <c r="R4" s="220"/>
-      <c r="S4" s="220"/>
-      <c r="T4" s="220"/>
-      <c r="U4" s="220"/>
-      <c r="V4" s="220"/>
-      <c r="W4" s="220"/>
-      <c r="X4" s="220"/>
-      <c r="Y4" s="220"/>
-      <c r="Z4" s="220"/>
-      <c r="AA4" s="220"/>
+      <c r="O4" s="226"/>
+      <c r="P4" s="226"/>
+      <c r="Q4" s="226"/>
+      <c r="R4" s="226"/>
+      <c r="S4" s="226"/>
+      <c r="T4" s="226"/>
+      <c r="U4" s="226"/>
+      <c r="V4" s="226"/>
+      <c r="W4" s="226"/>
+      <c r="X4" s="226"/>
+      <c r="Y4" s="226"/>
+      <c r="Z4" s="226"/>
+      <c r="AA4" s="226"/>
     </row>
     <row r="5" spans="2:28" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="134" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -3155,28 +3280,28 @@
         <v>3</v>
       </c>
       <c r="G5" s="84" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H5" s="107" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5" s="113" t="s">
+        <v>163</v>
+      </c>
+      <c r="J5" s="107" t="s">
         <v>164</v>
-      </c>
-      <c r="I5" s="113" t="s">
-        <v>165</v>
-      </c>
-      <c r="J5" s="107" t="s">
-        <v>166</v>
       </c>
       <c r="K5" s="113" t="s">
         <v>4</v>
       </c>
       <c r="L5" s="107" t="s">
-        <v>161</v>
-      </c>
-      <c r="M5" s="137" t="s">
-        <v>169</v>
+        <v>159</v>
+      </c>
+      <c r="M5" s="135" t="s">
+        <v>166</v>
       </c>
       <c r="N5" s="106" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>113</v>
@@ -3253,7 +3378,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="111" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N6" s="23">
         <v>3</v>
@@ -3294,7 +3419,7 @@
       <c r="Z6" s="23">
         <v>0</v>
       </c>
-      <c r="AA6" s="201">
+      <c r="AA6" s="196">
         <f>O6+Q6/6+(U6+V6+Z6)/5+W6/15</f>
         <v>0.20166666666666666</v>
       </c>
@@ -3332,7 +3457,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="112" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N7" s="14">
         <v>3</v>
@@ -3373,7 +3498,7 @@
       <c r="Z7" s="14">
         <v>0</v>
       </c>
-      <c r="AA7" s="202">
+      <c r="AA7" s="197">
         <f t="shared" ref="AA7:AA11" si="1">O7+Q7/6+(U7+V7+Z7)/5+W7/15</f>
         <v>0</v>
       </c>
@@ -3411,7 +3536,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="111" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N8" s="23">
         <v>3</v>
@@ -3452,7 +3577,7 @@
       <c r="Z8" s="23">
         <v>0</v>
       </c>
-      <c r="AA8" s="201">
+      <c r="AA8" s="196">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3490,7 +3615,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="112" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N9" s="14">
         <v>3</v>
@@ -3531,7 +3656,7 @@
       <c r="Z9" s="14">
         <v>0</v>
       </c>
-      <c r="AA9" s="202">
+      <c r="AA9" s="197">
         <f t="shared" si="1"/>
         <v>0.23333333333333334</v>
       </c>
@@ -3569,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N10" s="23">
         <v>2</v>
@@ -3610,7 +3735,7 @@
       <c r="Z10" s="23">
         <v>0</v>
       </c>
-      <c r="AA10" s="203">
+      <c r="AA10" s="198">
         <f t="shared" si="1"/>
         <v>0.17499999999999999</v>
       </c>
@@ -3648,7 +3773,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N11" s="14">
         <v>2</v>
@@ -3689,7 +3814,7 @@
       <c r="Z11" s="14">
         <v>0</v>
       </c>
-      <c r="AA11" s="202">
+      <c r="AA11" s="197">
         <f t="shared" si="1"/>
         <v>0.24166666666666667</v>
       </c>
@@ -3727,7 +3852,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N12" s="23">
         <v>2</v>
@@ -3768,7 +3893,7 @@
       <c r="Z12" s="23">
         <v>0</v>
       </c>
-      <c r="AA12" s="201">
+      <c r="AA12" s="196">
         <f t="shared" ref="AA12:AA78" si="2">O12+Q12/6+(U12+V12+Z12)/5+W12/15</f>
         <v>0.27500000000000002</v>
       </c>
@@ -3847,7 +3972,7 @@
       <c r="Z13" s="14">
         <v>0</v>
       </c>
-      <c r="AA13" s="202">
+      <c r="AA13" s="197">
         <f t="shared" si="2"/>
         <v>0.52666666666666662</v>
       </c>
@@ -3926,7 +4051,7 @@
       <c r="Z14" s="23">
         <v>0</v>
       </c>
-      <c r="AA14" s="201">
+      <c r="AA14" s="196">
         <f t="shared" si="2"/>
         <v>0.57666666666666677</v>
       </c>
@@ -4005,7 +4130,7 @@
       <c r="Z15" s="14">
         <v>0</v>
       </c>
-      <c r="AA15" s="202">
+      <c r="AA15" s="197">
         <f t="shared" si="2"/>
         <v>0.63166666666666671</v>
       </c>
@@ -4084,7 +4209,7 @@
       <c r="Z16" s="23">
         <v>0</v>
       </c>
-      <c r="AA16" s="201">
+      <c r="AA16" s="196">
         <f t="shared" si="2"/>
         <v>0.69833333333333336</v>
       </c>
@@ -4163,7 +4288,7 @@
       <c r="Z17" s="19">
         <v>0</v>
       </c>
-      <c r="AA17" s="204">
+      <c r="AA17" s="199">
         <f t="shared" si="2"/>
         <v>0.79833333333333334</v>
       </c>
@@ -4203,7 +4328,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N18" s="28">
         <v>2</v>
@@ -4244,7 +4369,7 @@
       <c r="Z18" s="28">
         <v>0</v>
       </c>
-      <c r="AA18" s="205">
+      <c r="AA18" s="200">
         <f t="shared" si="2"/>
         <v>0.25333333333333335</v>
       </c>
@@ -4282,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N19" s="42">
         <v>2</v>
@@ -4323,7 +4448,7 @@
       <c r="Z19" s="42">
         <v>0</v>
       </c>
-      <c r="AA19" s="206">
+      <c r="AA19" s="201">
         <f t="shared" si="2"/>
         <v>0.25333333333333335</v>
       </c>
@@ -4361,7 +4486,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N20" s="29">
         <v>2</v>
@@ -4402,7 +4527,7 @@
       <c r="Z20" s="29">
         <v>0</v>
       </c>
-      <c r="AA20" s="207">
+      <c r="AA20" s="202">
         <f t="shared" si="2"/>
         <v>0.27833333333333332</v>
       </c>
@@ -4440,7 +4565,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N21" s="42">
         <v>2</v>
@@ -4481,7 +4606,7 @@
       <c r="Z21" s="42">
         <v>0</v>
       </c>
-      <c r="AA21" s="206">
+      <c r="AA21" s="201">
         <f t="shared" si="2"/>
         <v>0.27833333333333332</v>
       </c>
@@ -4560,7 +4685,7 @@
       <c r="Z22" s="29">
         <v>0</v>
       </c>
-      <c r="AA22" s="207">
+      <c r="AA22" s="202">
         <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
@@ -4639,7 +4764,7 @@
       <c r="Z23" s="42">
         <v>0</v>
       </c>
-      <c r="AA23" s="206">
+      <c r="AA23" s="201">
         <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
@@ -4718,7 +4843,7 @@
       <c r="Z24" s="29">
         <v>0</v>
       </c>
-      <c r="AA24" s="207">
+      <c r="AA24" s="202">
         <f t="shared" si="2"/>
         <v>0.33333333333333337</v>
       </c>
@@ -4797,7 +4922,7 @@
       <c r="Z25" s="42">
         <v>0</v>
       </c>
-      <c r="AA25" s="206">
+      <c r="AA25" s="201">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
@@ -4876,7 +5001,7 @@
       <c r="Z26" s="29">
         <v>0</v>
       </c>
-      <c r="AA26" s="207">
+      <c r="AA26" s="202">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
@@ -4955,7 +5080,7 @@
       <c r="Z27" s="42">
         <v>0</v>
       </c>
-      <c r="AA27" s="206">
+      <c r="AA27" s="201">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
@@ -5036,7 +5161,7 @@
       <c r="Z28" s="29">
         <v>0</v>
       </c>
-      <c r="AA28" s="207">
+      <c r="AA28" s="202">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
@@ -5115,7 +5240,7 @@
       <c r="Z29" s="42">
         <v>0</v>
       </c>
-      <c r="AA29" s="206">
+      <c r="AA29" s="201">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
@@ -5194,7 +5319,7 @@
       <c r="Z30" s="29">
         <v>0</v>
       </c>
-      <c r="AA30" s="207">
+      <c r="AA30" s="202">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
@@ -5275,7 +5400,7 @@
       <c r="Z31" s="42">
         <v>0</v>
       </c>
-      <c r="AA31" s="206">
+      <c r="AA31" s="201">
         <f t="shared" si="2"/>
         <v>0.69</v>
       </c>
@@ -5311,7 +5436,7 @@
         <v>3</v>
       </c>
       <c r="M32" s="29" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N32" s="29">
         <v>0</v>
@@ -5352,7 +5477,7 @@
       <c r="Z32" s="29">
         <v>0</v>
       </c>
-      <c r="AA32" s="207">
+      <c r="AA32" s="202">
         <f t="shared" si="2"/>
         <v>0.72933333333333328</v>
       </c>
@@ -5388,7 +5513,7 @@
         <v>3</v>
       </c>
       <c r="M33" s="42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N33" s="42">
         <v>0</v>
@@ -5429,7 +5554,7 @@
       <c r="Z33" s="42">
         <v>0</v>
       </c>
-      <c r="AA33" s="206">
+      <c r="AA33" s="201">
         <f t="shared" si="2"/>
         <v>0.71866666666666668</v>
       </c>
@@ -5465,7 +5590,7 @@
         <v>3</v>
       </c>
       <c r="M34" s="29" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N34" s="29">
         <v>0</v>
@@ -5506,7 +5631,7 @@
       <c r="Z34" s="29">
         <v>0</v>
       </c>
-      <c r="AA34" s="207">
+      <c r="AA34" s="202">
         <f t="shared" si="2"/>
         <v>0.74629999999999996</v>
       </c>
@@ -5542,7 +5667,7 @@
         <v>3</v>
       </c>
       <c r="M35" s="42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N35" s="42">
         <v>0</v>
@@ -5583,7 +5708,7 @@
       <c r="Z35" s="42">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="AA35" s="206">
+      <c r="AA35" s="201">
         <f t="shared" si="2"/>
         <v>0.75250000000000006</v>
       </c>
@@ -5662,7 +5787,7 @@
       <c r="Z36" s="29">
         <v>0</v>
       </c>
-      <c r="AA36" s="207">
+      <c r="AA36" s="202">
         <f t="shared" si="2"/>
         <v>0.69</v>
       </c>
@@ -5741,7 +5866,7 @@
       <c r="Z37" s="42">
         <v>0</v>
       </c>
-      <c r="AA37" s="206">
+      <c r="AA37" s="201">
         <f t="shared" si="2"/>
         <v>0.61</v>
       </c>
@@ -5820,7 +5945,7 @@
       <c r="Z38" s="38">
         <v>0</v>
       </c>
-      <c r="AA38" s="208">
+      <c r="AA38" s="203">
         <f t="shared" si="2"/>
         <v>0.61</v>
       </c>
@@ -5901,7 +6026,7 @@
       <c r="Z39" s="49">
         <v>0</v>
       </c>
-      <c r="AA39" s="209">
+      <c r="AA39" s="204">
         <f t="shared" si="2"/>
         <v>0.17499999999999999</v>
       </c>
@@ -5939,7 +6064,7 @@
         <v>1</v>
       </c>
       <c r="M40" s="62" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N40" s="62">
         <v>1</v>
@@ -5980,7 +6105,7 @@
       <c r="Z40" s="62">
         <v>0</v>
       </c>
-      <c r="AA40" s="210">
+      <c r="AA40" s="205">
         <f t="shared" si="2"/>
         <v>0.22499999999999998</v>
       </c>
@@ -6018,7 +6143,7 @@
         <v>1</v>
       </c>
       <c r="M41" s="50" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N41" s="50">
         <v>1</v>
@@ -6059,7 +6184,7 @@
       <c r="Z41" s="50">
         <v>0</v>
       </c>
-      <c r="AA41" s="211">
+      <c r="AA41" s="206">
         <f t="shared" si="2"/>
         <v>0.27500000000000002</v>
       </c>
@@ -6138,7 +6263,7 @@
       <c r="Z42" s="62">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA42" s="210">
+      <c r="AA42" s="205">
         <f t="shared" si="2"/>
         <v>0.57466666666666666</v>
       </c>
@@ -6176,7 +6301,7 @@
         <v>2</v>
       </c>
       <c r="M43" s="50" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N43" s="50">
         <v>1</v>
@@ -6217,7 +6342,7 @@
       <c r="Z43" s="50">
         <v>0</v>
       </c>
-      <c r="AA43" s="211">
+      <c r="AA43" s="206">
         <f t="shared" si="2"/>
         <v>0.54666666666666663</v>
       </c>
@@ -6257,7 +6382,7 @@
         <v>2</v>
       </c>
       <c r="M44" s="62" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N44" s="62">
         <v>1</v>
@@ -6298,7 +6423,7 @@
       <c r="Z44" s="62">
         <v>0</v>
       </c>
-      <c r="AA44" s="210">
+      <c r="AA44" s="205">
         <f t="shared" si="2"/>
         <v>0.54666666666666663</v>
       </c>
@@ -6336,7 +6461,7 @@
         <v>2</v>
       </c>
       <c r="M45" s="50" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N45" s="50">
         <v>1</v>
@@ -6377,7 +6502,7 @@
       <c r="Z45" s="50">
         <v>0</v>
       </c>
-      <c r="AA45" s="211">
+      <c r="AA45" s="206">
         <f t="shared" si="2"/>
         <v>0.6333333333333333</v>
       </c>
@@ -6415,7 +6540,7 @@
         <v>2</v>
       </c>
       <c r="M46" s="62" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N46" s="62">
         <v>1</v>
@@ -6456,7 +6581,7 @@
       <c r="Z46" s="62">
         <v>0</v>
       </c>
-      <c r="AA46" s="210">
+      <c r="AA46" s="205">
         <f t="shared" si="2"/>
         <v>0.52500000000000002</v>
       </c>
@@ -6494,7 +6619,7 @@
         <v>2</v>
       </c>
       <c r="M47" s="50" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N47" s="50">
         <v>1</v>
@@ -6535,7 +6660,7 @@
       <c r="Z47" s="50">
         <v>0</v>
       </c>
-      <c r="AA47" s="211">
+      <c r="AA47" s="206">
         <f t="shared" si="2"/>
         <v>0.62833333333333341</v>
       </c>
@@ -6573,7 +6698,7 @@
         <v>2</v>
       </c>
       <c r="M48" s="62" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N48" s="62">
         <v>1</v>
@@ -6614,7 +6739,7 @@
       <c r="Z48" s="62">
         <v>0</v>
       </c>
-      <c r="AA48" s="210">
+      <c r="AA48" s="205">
         <f t="shared" si="2"/>
         <v>0.505</v>
       </c>
@@ -6652,7 +6777,7 @@
         <v>2</v>
       </c>
       <c r="M49" s="58" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N49" s="58">
         <v>1</v>
@@ -6693,7 +6818,7 @@
       <c r="Z49" s="58">
         <v>0</v>
       </c>
-      <c r="AA49" s="212">
+      <c r="AA49" s="207">
         <f t="shared" si="2"/>
         <v>0.58166666666666667</v>
       </c>
@@ -6774,7 +6899,7 @@
       <c r="Z50" s="68">
         <v>0</v>
       </c>
-      <c r="AA50" s="213">
+      <c r="AA50" s="208">
         <f t="shared" si="2"/>
         <v>0.52666666666666662</v>
       </c>
@@ -6853,7 +6978,7 @@
       <c r="Z51" s="77">
         <v>0</v>
       </c>
-      <c r="AA51" s="214">
+      <c r="AA51" s="209">
         <f t="shared" si="2"/>
         <v>0.52666666666666662</v>
       </c>
@@ -6932,7 +7057,7 @@
       <c r="Z52" s="69">
         <v>0</v>
       </c>
-      <c r="AA52" s="215">
+      <c r="AA52" s="210">
         <f t="shared" si="2"/>
         <v>0.57666666666666677</v>
       </c>
@@ -7011,7 +7136,7 @@
       <c r="Z53" s="77">
         <v>0</v>
       </c>
-      <c r="AA53" s="214">
+      <c r="AA53" s="209">
         <f t="shared" si="2"/>
         <v>0.57666666666666677</v>
       </c>
@@ -7090,7 +7215,7 @@
       <c r="Z54" s="69">
         <v>0</v>
       </c>
-      <c r="AA54" s="215">
+      <c r="AA54" s="210">
         <f t="shared" si="2"/>
         <v>0.63166666666666671</v>
       </c>
@@ -7169,7 +7294,7 @@
       <c r="Z55" s="77">
         <v>0</v>
       </c>
-      <c r="AA55" s="214">
+      <c r="AA55" s="209">
         <f t="shared" si="2"/>
         <v>0.63166666666666671</v>
       </c>
@@ -7248,7 +7373,7 @@
       <c r="Z56" s="69">
         <v>0</v>
       </c>
-      <c r="AA56" s="215">
+      <c r="AA56" s="210">
         <f t="shared" si="2"/>
         <v>0.69833333333333336</v>
       </c>
@@ -7327,7 +7452,7 @@
       <c r="Z57" s="77">
         <v>0</v>
       </c>
-      <c r="AA57" s="214">
+      <c r="AA57" s="209">
         <f t="shared" si="2"/>
         <v>0.69833333333333336</v>
       </c>
@@ -7406,7 +7531,7 @@
       <c r="Z58" s="69">
         <v>0</v>
       </c>
-      <c r="AA58" s="215">
+      <c r="AA58" s="210">
         <f t="shared" si="2"/>
         <v>0.79833333333333334</v>
       </c>
@@ -7485,7 +7610,7 @@
       <c r="Z59" s="77">
         <v>0</v>
       </c>
-      <c r="AA59" s="214">
+      <c r="AA59" s="209">
         <f t="shared" si="2"/>
         <v>0.79833333333333334</v>
       </c>
@@ -7564,7 +7689,7 @@
       <c r="Z60" s="69">
         <v>0</v>
       </c>
-      <c r="AA60" s="215">
+      <c r="AA60" s="210">
         <f t="shared" si="2"/>
         <v>1.3008999999999999</v>
       </c>
@@ -7643,7 +7768,7 @@
       <c r="Z61" s="77">
         <v>0</v>
       </c>
-      <c r="AA61" s="214">
+      <c r="AA61" s="209">
         <f t="shared" ref="AA61" si="3">O61+Q61/6+(U61+V61+Z61)/5+W61/15</f>
         <v>0.67</v>
       </c>
@@ -7681,7 +7806,7 @@
         <v>2</v>
       </c>
       <c r="M62" s="69" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N62" s="69">
         <v>0</v>
@@ -7722,7 +7847,7 @@
       <c r="Z62" s="69">
         <v>0</v>
       </c>
-      <c r="AA62" s="215">
+      <c r="AA62" s="210">
         <f t="shared" si="2"/>
         <v>0.67</v>
       </c>
@@ -7801,7 +7926,7 @@
       <c r="Z63" s="77">
         <v>0</v>
       </c>
-      <c r="AA63" s="214">
+      <c r="AA63" s="209">
         <f t="shared" si="2"/>
         <v>0.69166666666666665</v>
       </c>
@@ -7837,7 +7962,7 @@
         <v>3</v>
       </c>
       <c r="M64" s="69" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N64" s="69">
         <v>0</v>
@@ -7878,7 +8003,7 @@
       <c r="Z64" s="69">
         <v>0</v>
       </c>
-      <c r="AA64" s="215">
+      <c r="AA64" s="210">
         <f t="shared" si="2"/>
         <v>0.71876666666666655</v>
       </c>
@@ -7957,7 +8082,7 @@
       <c r="Z65" s="77">
         <v>0</v>
       </c>
-      <c r="AA65" s="214">
+      <c r="AA65" s="209">
         <f t="shared" ref="AA65" si="4">O65+Q65/6+(U65+V65+Z65)/5+W65/15</f>
         <v>0.75</v>
       </c>
@@ -7995,7 +8120,7 @@
         <v>3</v>
       </c>
       <c r="M66" s="69" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N66" s="69">
         <v>0</v>
@@ -8036,7 +8161,7 @@
       <c r="Z66" s="69">
         <v>0</v>
       </c>
-      <c r="AA66" s="215">
+      <c r="AA66" s="210">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
@@ -8115,7 +8240,7 @@
       <c r="Z67" s="77">
         <v>0</v>
       </c>
-      <c r="AA67" s="214">
+      <c r="AA67" s="209">
         <f t="shared" ref="AA67" si="5">O67+Q67/6+(U67+V67+Z67)/5+W67/15</f>
         <v>0.75</v>
       </c>
@@ -8153,7 +8278,7 @@
         <v>3</v>
       </c>
       <c r="M68" s="69" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N68" s="69">
         <v>0</v>
@@ -8194,7 +8319,7 @@
       <c r="Z68" s="69">
         <v>0</v>
       </c>
-      <c r="AA68" s="215">
+      <c r="AA68" s="210">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
@@ -8273,7 +8398,7 @@
       <c r="Z69" s="77">
         <v>0</v>
       </c>
-      <c r="AA69" s="214">
+      <c r="AA69" s="209">
         <f t="shared" si="2"/>
         <v>0.5403</v>
       </c>
@@ -8352,7 +8477,7 @@
       <c r="Z70" s="69">
         <v>0</v>
       </c>
-      <c r="AA70" s="215">
+      <c r="AA70" s="210">
         <f t="shared" ref="AA70" si="6">O70+Q70/6+(U70+V70+Z70)/5+W70/15</f>
         <v>0.63500000000000001</v>
       </c>
@@ -8390,7 +8515,7 @@
         <v>2</v>
       </c>
       <c r="M71" s="77" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N71" s="77">
         <v>0</v>
@@ -8431,7 +8556,7 @@
       <c r="Z71" s="77">
         <v>0</v>
       </c>
-      <c r="AA71" s="214">
+      <c r="AA71" s="209">
         <f t="shared" si="2"/>
         <v>0.63500000000000001</v>
       </c>
@@ -8510,7 +8635,7 @@
       <c r="Z72" s="69">
         <v>0</v>
       </c>
-      <c r="AA72" s="215">
+      <c r="AA72" s="210">
         <f t="shared" si="2"/>
         <v>0.71500000000000008</v>
       </c>
@@ -8548,7 +8673,7 @@
         <v>3</v>
       </c>
       <c r="M73" s="77" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N73" s="77">
         <v>0</v>
@@ -8589,7 +8714,7 @@
       <c r="Z73" s="77">
         <v>0</v>
       </c>
-      <c r="AA73" s="214">
+      <c r="AA73" s="209">
         <f t="shared" si="2"/>
         <v>0.82106666666666661</v>
       </c>
@@ -8668,7 +8793,7 @@
       <c r="Z74" s="69">
         <v>0</v>
       </c>
-      <c r="AA74" s="215">
+      <c r="AA74" s="210">
         <f t="shared" ref="AA74" si="8">O74+Q74/6+(U74+V74+Z74)/5+W74/15</f>
         <v>0.79500000000000004</v>
       </c>
@@ -8706,7 +8831,7 @@
         <v>3</v>
       </c>
       <c r="M75" s="77" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N75" s="77">
         <v>0</v>
@@ -8747,7 +8872,7 @@
       <c r="Z75" s="77">
         <v>0</v>
       </c>
-      <c r="AA75" s="214">
+      <c r="AA75" s="209">
         <f t="shared" si="2"/>
         <v>0.79500000000000004</v>
       </c>
@@ -8756,7 +8881,7 @@
     <row r="76" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B76" s="8"/>
       <c r="C76" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D76" s="65" t="s">
         <v>111</v>
@@ -8785,7 +8910,7 @@
         <v>3</v>
       </c>
       <c r="M76" s="69" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N76" s="69">
         <v>0</v>
@@ -8826,7 +8951,7 @@
       <c r="Z76" s="69">
         <v>0</v>
       </c>
-      <c r="AA76" s="215">
+      <c r="AA76" s="210">
         <f t="shared" si="2"/>
         <v>0.89333333333333342</v>
       </c>
@@ -8835,7 +8960,7 @@
     <row r="77" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B77" s="8"/>
       <c r="C77" s="75" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D77" s="76"/>
       <c r="E77" s="75"/>
@@ -8903,7 +9028,7 @@
       <c r="Z77" s="77">
         <v>0.121</v>
       </c>
-      <c r="AA77" s="214">
+      <c r="AA77" s="209">
         <f t="shared" si="2"/>
         <v>0.86853333333333338</v>
       </c>
@@ -8921,7 +9046,7 @@
       <c r="F78" s="70">
         <v>35</v>
       </c>
-      <c r="G78" s="142">
+      <c r="G78" s="140">
         <v>0.12</v>
       </c>
       <c r="H78" s="101">
@@ -8941,7 +9066,7 @@
         <v>3</v>
       </c>
       <c r="M78" s="69" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N78" s="69">
         <v>0</v>
@@ -8982,7 +9107,7 @@
       <c r="Z78" s="69">
         <v>0.17499999999999999</v>
       </c>
-      <c r="AA78" s="215">
+      <c r="AA78" s="210">
         <f t="shared" si="2"/>
         <v>0.90800000000000003</v>
       </c>
@@ -9009,11 +9134,11 @@
   <dimension ref="B1:AC71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="A6" sqref="A6"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomRight" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9024,542 +9149,529 @@
     <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="83"/>
     <col min="11" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="14.375" style="130" customWidth="1"/>
+    <col min="13" max="13" width="14.375" style="128" customWidth="1"/>
     <col min="14" max="14" width="20.625" customWidth="1"/>
-    <col min="15" max="15" width="20.625" style="130" customWidth="1"/>
+    <col min="15" max="15" width="20.625" style="128" customWidth="1"/>
     <col min="16" max="16" width="20.625" customWidth="1"/>
     <col min="17" max="28" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="138" t="s">
-        <v>171</v>
+    <row r="1" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="136" t="s">
+        <v>168</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="D2" s="3"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="138" t="s">
-        <v>173</v>
+    <row r="3" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="136" t="s">
+        <v>170</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D3" s="3"/>
       <c r="H3"/>
-      <c r="Q3" s="221" t="s">
+      <c r="P3" s="227" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q3" s="228"/>
+      <c r="R3" s="228"/>
+      <c r="S3" s="228"/>
+      <c r="T3" s="228"/>
+      <c r="U3" s="228"/>
+      <c r="V3" s="228"/>
+      <c r="W3" s="228"/>
+      <c r="X3" s="228"/>
+      <c r="Y3" s="228"/>
+      <c r="Z3" s="228"/>
+      <c r="AA3" s="229"/>
+      <c r="AB3" s="233"/>
+    </row>
+    <row r="4" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P4" s="230"/>
+      <c r="Q4" s="226"/>
+      <c r="R4" s="226"/>
+      <c r="S4" s="226"/>
+      <c r="T4" s="226"/>
+      <c r="U4" s="226"/>
+      <c r="V4" s="226"/>
+      <c r="W4" s="226"/>
+      <c r="X4" s="226"/>
+      <c r="Y4" s="226"/>
+      <c r="Z4" s="226"/>
+      <c r="AA4" s="231"/>
+      <c r="AB4" s="233"/>
+    </row>
+    <row r="5" spans="2:28" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="150" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="152" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="153" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="153" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="154" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" s="155" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5" s="156" t="s">
         <v>163</v>
       </c>
-      <c r="R3" s="222"/>
-      <c r="S3" s="222"/>
-      <c r="T3" s="222"/>
-      <c r="U3" s="222"/>
-      <c r="V3" s="222"/>
-      <c r="W3" s="222"/>
-      <c r="X3" s="222"/>
-      <c r="Y3" s="222"/>
-      <c r="Z3" s="222"/>
-      <c r="AA3" s="222"/>
-      <c r="AB3" s="223"/>
-    </row>
-    <row r="4" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q4" s="224"/>
-      <c r="R4" s="220"/>
-      <c r="S4" s="220"/>
-      <c r="T4" s="220"/>
-      <c r="U4" s="220"/>
-      <c r="V4" s="220"/>
-      <c r="W4" s="220"/>
-      <c r="X4" s="220"/>
-      <c r="Y4" s="220"/>
-      <c r="Z4" s="220"/>
-      <c r="AA4" s="220"/>
-      <c r="AB4" s="225"/>
-    </row>
-    <row r="5" spans="2:29" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="155" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="153" t="s">
-        <v>223</v>
-      </c>
-      <c r="D5" s="154" t="s">
+      <c r="J5" s="155" t="s">
+        <v>164</v>
+      </c>
+      <c r="K5" s="156" t="s">
+        <v>175</v>
+      </c>
+      <c r="L5" s="155" t="s">
+        <v>159</v>
+      </c>
+      <c r="M5" s="151" t="s">
+        <v>166</v>
+      </c>
+      <c r="N5" s="157" t="s">
+        <v>160</v>
+      </c>
+      <c r="O5" s="157" t="s">
         <v>177</v>
       </c>
-      <c r="E5" s="155" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="156" t="s">
+      <c r="P5" s="150" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q5" s="151" t="s">
+        <v>114</v>
+      </c>
+      <c r="R5" s="151" t="s">
+        <v>115</v>
+      </c>
+      <c r="S5" s="151" t="s">
+        <v>116</v>
+      </c>
+      <c r="T5" s="151" t="s">
+        <v>117</v>
+      </c>
+      <c r="U5" s="151" t="s">
+        <v>121</v>
+      </c>
+      <c r="V5" s="151" t="s">
+        <v>118</v>
+      </c>
+      <c r="W5" s="151" t="s">
+        <v>119</v>
+      </c>
+      <c r="X5" s="151" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y5" s="151" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z5" s="151" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA5" s="151" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB5" s="3"/>
+    </row>
+    <row r="6" spans="2:28" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="192" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="147" t="s">
+        <v>215</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="124">
+        <v>30</v>
+      </c>
+      <c r="G6" s="81">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="14">
+        <v>230</v>
+      </c>
+      <c r="I6" s="14">
+        <v>625</v>
+      </c>
+      <c r="J6" s="14">
+        <v>195</v>
+      </c>
+      <c r="K6" s="14">
+        <v>40</v>
+      </c>
+      <c r="L6" s="112">
+        <f>IF(P6&lt;0.05,1,2)</f>
         <v>2</v>
       </c>
-      <c r="G5" s="156" t="s">
+      <c r="M6" s="112" t="s">
+        <v>155</v>
+      </c>
+      <c r="N6" s="112">
         <v>3</v>
       </c>
-      <c r="H5" s="157" t="s">
-        <v>156</v>
-      </c>
-      <c r="I5" s="158" t="s">
-        <v>164</v>
-      </c>
-      <c r="J5" s="159" t="s">
-        <v>165</v>
-      </c>
-      <c r="K5" s="158" t="s">
-        <v>166</v>
-      </c>
-      <c r="L5" s="159" t="s">
-        <v>204</v>
-      </c>
-      <c r="M5" s="158" t="s">
-        <v>161</v>
-      </c>
-      <c r="N5" s="154" t="s">
-        <v>169</v>
-      </c>
-      <c r="O5" s="160" t="s">
-        <v>162</v>
-      </c>
-      <c r="P5" s="160" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q5" s="153" t="s">
-        <v>113</v>
-      </c>
-      <c r="R5" s="154" t="s">
-        <v>114</v>
-      </c>
-      <c r="S5" s="154" t="s">
-        <v>115</v>
-      </c>
-      <c r="T5" s="154" t="s">
-        <v>116</v>
-      </c>
-      <c r="U5" s="154" t="s">
-        <v>117</v>
-      </c>
-      <c r="V5" s="154" t="s">
-        <v>121</v>
-      </c>
-      <c r="W5" s="154" t="s">
-        <v>118</v>
-      </c>
-      <c r="X5" s="154" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y5" s="154" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z5" s="154" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA5" s="154" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB5" s="154" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC5" s="3"/>
-    </row>
-    <row r="6" spans="2:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="197" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="D6" s="112">
-        <v>301</v>
-      </c>
-      <c r="E6" s="149">
-        <v>1.431</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="126">
-        <v>30</v>
-      </c>
-      <c r="H6" s="81">
+      <c r="O6" s="13">
+        <v>3</v>
+      </c>
+      <c r="P6" s="11">
         <v>0.1</v>
       </c>
-      <c r="I6" s="14">
+      <c r="Q6" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="R6" s="14">
+        <v>1</v>
+      </c>
+      <c r="S6" s="14">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="T6" s="14">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="U6" s="14">
+        <v>5.5E-2</v>
+      </c>
+      <c r="V6" s="14">
+        <v>17.5</v>
+      </c>
+      <c r="W6" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="X6" s="14">
+        <v>7.75</v>
+      </c>
+      <c r="Y6" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="10"/>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B7" s="193" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="148">
+        <v>25</v>
+      </c>
+      <c r="G7" s="82">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="23">
+        <v>215</v>
+      </c>
+      <c r="I7" s="23">
+        <v>566</v>
+      </c>
+      <c r="J7" s="23">
+        <v>257.5</v>
+      </c>
+      <c r="K7" s="23">
+        <v>35</v>
+      </c>
+      <c r="L7" s="111">
+        <f>IF(P7&lt;0.05,1,2)</f>
+        <v>2</v>
+      </c>
+      <c r="M7" s="111" t="s">
+        <v>155</v>
+      </c>
+      <c r="N7" s="111">
+        <v>3</v>
+      </c>
+      <c r="O7" s="22">
+        <v>2</v>
+      </c>
+      <c r="P7" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="Q7" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="R7" s="23">
+        <v>1</v>
+      </c>
+      <c r="S7" s="23">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="T7" s="23">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="U7" s="23">
+        <v>0</v>
+      </c>
+      <c r="V7" s="23">
+        <v>17</v>
+      </c>
+      <c r="W7" s="23">
+        <v>0</v>
+      </c>
+      <c r="X7" s="23">
+        <v>7.5</v>
+      </c>
+      <c r="Y7" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="10"/>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B8" s="167"/>
+      <c r="C8" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="141">
+        <v>65</v>
+      </c>
+      <c r="G8" s="81">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="14">
         <v>230</v>
       </c>
-      <c r="J6" s="14">
+      <c r="I8" s="14">
         <v>625</v>
       </c>
-      <c r="K6" s="14">
-        <v>195</v>
-      </c>
-      <c r="L6" s="14">
+      <c r="J8" s="14">
+        <v>190</v>
+      </c>
+      <c r="K8" s="14">
+        <v>35</v>
+      </c>
+      <c r="L8" s="112">
+        <v>3</v>
+      </c>
+      <c r="M8" s="112" t="s">
+        <v>155</v>
+      </c>
+      <c r="N8" s="112">
+        <v>3</v>
+      </c>
+      <c r="O8" s="13">
+        <v>3</v>
+      </c>
+      <c r="P8" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="R8" s="14">
+        <v>1</v>
+      </c>
+      <c r="S8" s="14">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="T8" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="U8" s="14">
+        <v>5.5E-2</v>
+      </c>
+      <c r="V8" s="14">
+        <v>18</v>
+      </c>
+      <c r="W8" s="14">
+        <v>0</v>
+      </c>
+      <c r="X8" s="14">
+        <v>9</v>
+      </c>
+      <c r="Y8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="10"/>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B9" s="117"/>
+      <c r="C9" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="115">
         <v>40</v>
       </c>
-      <c r="M6" s="112">
-        <f>IF(Q6&lt;0.05,1,2)</f>
+      <c r="G9" s="82">
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="23">
+        <v>215</v>
+      </c>
+      <c r="I9" s="23">
+        <v>600</v>
+      </c>
+      <c r="J9" s="23">
+        <v>190</v>
+      </c>
+      <c r="K9" s="23">
+        <v>45</v>
+      </c>
+      <c r="L9" s="111">
+        <f t="shared" ref="L9:L14" si="0">IF(P9&lt;0.05,1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="111" t="s">
+        <v>155</v>
+      </c>
+      <c r="N9" s="111">
+        <v>3</v>
+      </c>
+      <c r="O9" s="22">
         <v>2</v>
       </c>
-      <c r="N6" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="O6" s="112">
-        <v>3</v>
-      </c>
-      <c r="P6" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="11">
+      <c r="P9" s="20">
+        <v>0.03</v>
+      </c>
+      <c r="Q9" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="R9" s="23">
+        <v>1</v>
+      </c>
+      <c r="S9" s="23">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="T9" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="U9" s="23">
+        <v>5.5E-2</v>
+      </c>
+      <c r="V9" s="23">
+        <v>18.25</v>
+      </c>
+      <c r="W9" s="23">
+        <v>0</v>
+      </c>
+      <c r="X9" s="23">
+        <v>9.25</v>
+      </c>
+      <c r="Y9" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="10"/>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B10" s="167"/>
+      <c r="C10" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="141">
+        <v>45</v>
+      </c>
+      <c r="G10" s="81">
         <v>0.1</v>
       </c>
-      <c r="R6" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="S6" s="14">
-        <v>1</v>
-      </c>
-      <c r="T6" s="14">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="U6" s="14">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="V6" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="W6" s="14">
-        <v>17.5</v>
-      </c>
-      <c r="X6" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="Y6" s="14">
-        <v>7.75</v>
-      </c>
-      <c r="Z6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="10"/>
-    </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B7" s="198" t="s">
-        <v>202</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="D7" s="111">
-        <v>302</v>
-      </c>
-      <c r="E7" s="21">
-        <v>1.4319</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="150">
-        <v>25</v>
-      </c>
-      <c r="H7" s="82">
-        <v>0.1</v>
-      </c>
-      <c r="I7" s="23">
+      <c r="H10" s="14">
         <v>215</v>
       </c>
-      <c r="J7" s="23">
-        <v>566</v>
-      </c>
-      <c r="K7" s="23">
-        <v>257.5</v>
-      </c>
-      <c r="L7" s="23">
-        <v>35</v>
-      </c>
-      <c r="M7" s="111">
-        <f>IF(Q7&lt;0.05,1,2)</f>
-        <v>2</v>
-      </c>
-      <c r="N7" s="111" t="s">
-        <v>157</v>
-      </c>
-      <c r="O7" s="111">
-        <v>3</v>
-      </c>
-      <c r="P7" s="22">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="20">
-        <v>0.05</v>
-      </c>
-      <c r="R7" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="S7" s="23">
-        <v>1</v>
-      </c>
-      <c r="T7" s="23">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="U7" s="23">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="V7" s="23">
-        <v>0</v>
-      </c>
-      <c r="W7" s="23">
-        <v>17</v>
-      </c>
-      <c r="X7" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="23">
-        <v>7.5</v>
-      </c>
-      <c r="Z7" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="10"/>
-    </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B8" s="170"/>
-      <c r="C8" s="11" t="s">
+      <c r="I10" s="14">
+        <v>570</v>
+      </c>
+      <c r="J10" s="14">
         <v>180</v>
       </c>
-      <c r="D8" s="112">
-        <v>303</v>
-      </c>
-      <c r="E8" s="12">
-        <v>1.4305000000000001</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="143">
-        <v>65</v>
-      </c>
-      <c r="H8" s="81">
-        <v>0.1</v>
-      </c>
-      <c r="I8" s="14">
-        <v>230</v>
-      </c>
-      <c r="J8" s="14">
-        <v>625</v>
-      </c>
-      <c r="K8" s="14">
-        <v>190</v>
-      </c>
-      <c r="L8" s="14">
-        <v>35</v>
-      </c>
-      <c r="M8" s="112">
-        <v>3</v>
-      </c>
-      <c r="N8" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="O8" s="112">
-        <v>3</v>
-      </c>
-      <c r="P8" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="R8" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="S8" s="14">
-        <v>1</v>
-      </c>
-      <c r="T8" s="14">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="U8" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="V8" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="W8" s="14">
-        <v>18</v>
-      </c>
-      <c r="X8" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="14">
-        <v>9</v>
-      </c>
-      <c r="Z8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="10"/>
-    </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B9" s="119"/>
-      <c r="C9" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="D9" s="111">
-        <v>304</v>
-      </c>
-      <c r="E9" s="21">
-        <v>1.4300999999999999</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="117">
-        <v>40</v>
-      </c>
-      <c r="H9" s="82">
-        <v>0.1</v>
-      </c>
-      <c r="I9" s="23">
-        <v>215</v>
-      </c>
-      <c r="J9" s="23">
-        <v>600</v>
-      </c>
-      <c r="K9" s="23">
-        <v>190</v>
-      </c>
-      <c r="L9" s="23">
+      <c r="K10" s="14">
         <v>45</v>
       </c>
-      <c r="M9" s="111">
-        <f t="shared" ref="M9:M14" si="0">IF(Q9&lt;0.05,1,2)</f>
-        <v>1</v>
-      </c>
-      <c r="N9" s="111" t="s">
-        <v>157</v>
-      </c>
-      <c r="O9" s="111">
-        <v>3</v>
-      </c>
-      <c r="P9" s="22">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="20">
-        <v>0.03</v>
-      </c>
-      <c r="R9" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="S9" s="23">
-        <v>1</v>
-      </c>
-      <c r="T9" s="23">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="U9" s="23">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="V9" s="23">
-        <v>5.5E-2</v>
-      </c>
-      <c r="W9" s="23">
-        <v>18.25</v>
-      </c>
-      <c r="X9" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="23">
-        <v>9.25</v>
-      </c>
-      <c r="Z9" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="10"/>
-    </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B10" s="170"/>
-      <c r="C10" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D10" s="112" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" s="12">
-        <v>1.4306000000000001</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="143">
-        <v>45</v>
-      </c>
-      <c r="H10" s="81">
-        <v>0.1</v>
-      </c>
-      <c r="I10" s="14">
-        <v>215</v>
-      </c>
-      <c r="J10" s="14">
-        <v>570</v>
-      </c>
-      <c r="K10" s="14">
-        <v>180</v>
-      </c>
-      <c r="L10" s="14">
-        <v>45</v>
-      </c>
-      <c r="M10" s="112">
+      <c r="L10" s="112">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N10" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="O10" s="112">
+      <c r="M10" s="112" t="s">
+        <v>155</v>
+      </c>
+      <c r="N10" s="112">
         <v>3</v>
       </c>
-      <c r="P10" s="13">
+      <c r="O10" s="13">
         <v>2</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="P10" s="11">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="Q10" s="14">
+        <v>0.5</v>
+      </c>
       <c r="R10" s="14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S10" s="14">
-        <v>1</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="T10" s="14">
-        <v>2.2499999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="U10" s="14">
-        <v>1.4999999999999999E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="V10" s="14">
-        <v>5.5E-2</v>
+        <v>19</v>
       </c>
       <c r="W10" s="14">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="X10" s="14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y10" s="14">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="14">
         <v>0</v>
@@ -9567,80 +9679,77 @@
       <c r="AA10" s="14">
         <v>0</v>
       </c>
-      <c r="AB10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="10"/>
-    </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B11" s="119"/>
+      <c r="AB10" s="10"/>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B11" s="117"/>
       <c r="C11" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="D11" s="111" t="s">
-        <v>183</v>
-      </c>
-      <c r="E11" s="21">
-        <v>1.4307000000000001</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="140">
+        <v>194</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="138">
         <v>45</v>
       </c>
-      <c r="H11" s="82">
+      <c r="G11" s="82">
         <v>0.1</v>
       </c>
+      <c r="H11" s="23">
+        <v>215</v>
+      </c>
       <c r="I11" s="23">
-        <v>215</v>
+        <v>565</v>
       </c>
       <c r="J11" s="23">
-        <v>565</v>
+        <v>175</v>
       </c>
       <c r="K11" s="23">
-        <v>175</v>
-      </c>
-      <c r="L11" s="23">
         <v>45</v>
       </c>
-      <c r="M11" s="111">
+      <c r="L11" s="111">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N11" s="111" t="s">
-        <v>157</v>
-      </c>
-      <c r="O11" s="111">
+      <c r="M11" s="111" t="s">
+        <v>155</v>
+      </c>
+      <c r="N11" s="111">
         <v>3</v>
       </c>
-      <c r="P11" s="22">
+      <c r="O11" s="22">
         <v>2</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="P11" s="20">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="Q11" s="23">
+        <v>0.5</v>
+      </c>
       <c r="R11" s="23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S11" s="23">
-        <v>1</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="T11" s="23">
-        <v>2.2499999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="U11" s="23">
-        <v>1.4999999999999999E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="V11" s="23">
-        <v>5.5E-2</v>
+        <v>18.5</v>
       </c>
       <c r="W11" s="23">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="X11" s="23">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y11" s="23">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="23">
         <v>0</v>
@@ -9648,80 +9757,77 @@
       <c r="AA11" s="23">
         <v>0</v>
       </c>
-      <c r="AB11" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="10"/>
-    </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B12" s="170"/>
+      <c r="AB11" s="10"/>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B12" s="167"/>
       <c r="C12" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="D12" s="112">
-        <v>316</v>
-      </c>
-      <c r="E12" s="12">
-        <v>1.4400999999999999</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="126">
+        <v>195</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="124">
         <v>40</v>
       </c>
-      <c r="H12" s="81">
+      <c r="G12" s="81">
         <v>0.1</v>
       </c>
+      <c r="H12" s="14">
+        <v>215</v>
+      </c>
       <c r="I12" s="14">
-        <v>215</v>
+        <v>600</v>
       </c>
       <c r="J12" s="14">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K12" s="14">
-        <v>200</v>
-      </c>
-      <c r="L12" s="14">
         <v>40</v>
       </c>
-      <c r="M12" s="112">
+      <c r="L12" s="112">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N12" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="O12" s="112">
+      <c r="M12" s="112" t="s">
+        <v>155</v>
+      </c>
+      <c r="N12" s="112">
         <v>3</v>
       </c>
-      <c r="P12" s="13">
+      <c r="O12" s="13">
         <v>1</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="P12" s="11">
         <v>3.5000000000000003E-2</v>
       </c>
+      <c r="Q12" s="14">
+        <v>0.5</v>
+      </c>
       <c r="R12" s="14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S12" s="14">
-        <v>1</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="T12" s="14">
-        <v>2.2499999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="U12" s="14">
-        <v>1.4999999999999999E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="V12" s="14">
-        <v>5.5E-2</v>
+        <v>17.5</v>
       </c>
       <c r="W12" s="14">
-        <v>17.5</v>
+        <v>2.25</v>
       </c>
       <c r="X12" s="14">
-        <v>2.25</v>
+        <v>11.5</v>
       </c>
       <c r="Y12" s="14">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="14">
         <v>0</v>
@@ -9729,80 +9835,77 @@
       <c r="AA12" s="14">
         <v>0</v>
       </c>
-      <c r="AB12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="10"/>
-    </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B13" s="119"/>
+      <c r="AB12" s="10"/>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B13" s="117"/>
       <c r="C13" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="D13" s="111" t="s">
-        <v>187</v>
-      </c>
-      <c r="E13" s="21">
-        <v>1.4403999999999999</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="116">
+        <v>196</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="114">
         <v>40</v>
       </c>
-      <c r="H13" s="82">
+      <c r="G13" s="82">
         <v>0.1</v>
       </c>
+      <c r="H13" s="23">
+        <v>215</v>
+      </c>
       <c r="I13" s="23">
-        <v>215</v>
+        <v>600</v>
       </c>
       <c r="J13" s="23">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K13" s="23">
-        <v>200</v>
-      </c>
-      <c r="L13" s="23">
         <v>40</v>
       </c>
-      <c r="M13" s="111">
+      <c r="L13" s="111">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N13" s="111" t="s">
-        <v>157</v>
-      </c>
-      <c r="O13" s="111">
+      <c r="M13" s="111" t="s">
+        <v>155</v>
+      </c>
+      <c r="N13" s="111">
         <v>3</v>
       </c>
-      <c r="P13" s="22">
+      <c r="O13" s="22">
         <v>1</v>
       </c>
-      <c r="Q13" s="20">
+      <c r="P13" s="20">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="Q13" s="23">
+        <v>0.5</v>
+      </c>
       <c r="R13" s="23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S13" s="23">
-        <v>1</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="T13" s="23">
-        <v>2.2499999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="U13" s="23">
-        <v>1.4999999999999999E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="V13" s="23">
-        <v>5.5E-2</v>
+        <v>17.5</v>
       </c>
       <c r="W13" s="23">
-        <v>17.5</v>
+        <v>2.25</v>
       </c>
       <c r="X13" s="23">
-        <v>2.25</v>
+        <v>11.5</v>
       </c>
       <c r="Y13" s="23">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="23">
         <v>0</v>
@@ -9810,1697 +9913,1637 @@
       <c r="AA13" s="23">
         <v>0</v>
       </c>
-      <c r="AB13" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="10"/>
-    </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B14" s="170" t="s">
-        <v>189</v>
+      <c r="AB13" s="10"/>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B14" s="167" t="s">
+        <v>173</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="D14" s="112" t="s">
-        <v>187</v>
-      </c>
-      <c r="E14" s="12">
-        <v>1.4435</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="129">
+        <v>197</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="127">
         <v>40</v>
       </c>
-      <c r="H14" s="81">
+      <c r="G14" s="81">
         <v>0.1</v>
       </c>
+      <c r="H14" s="14">
+        <v>215</v>
+      </c>
       <c r="I14" s="14">
-        <v>215</v>
+        <v>600</v>
       </c>
       <c r="J14" s="14">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K14" s="14">
-        <v>200</v>
-      </c>
-      <c r="L14" s="14">
         <v>40</v>
       </c>
-      <c r="M14" s="112">
+      <c r="L14" s="112">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N14" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="O14" s="112">
+      <c r="M14" s="112" t="s">
+        <v>155</v>
+      </c>
+      <c r="N14" s="112">
         <v>3</v>
       </c>
-      <c r="P14" s="13">
+      <c r="O14" s="13">
         <v>1</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="P14" s="11">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="Q14" s="14">
+        <v>0.5</v>
+      </c>
       <c r="R14" s="14">
+        <v>1</v>
+      </c>
+      <c r="S14" s="14">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="T14" s="14">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="U14" s="14">
+        <v>5.5E-2</v>
+      </c>
+      <c r="V14" s="14">
+        <v>18</v>
+      </c>
+      <c r="W14" s="14">
+        <v>2.75</v>
+      </c>
+      <c r="X14" s="14">
+        <v>13.75</v>
+      </c>
+      <c r="Y14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="10"/>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B15" s="117"/>
+      <c r="C15" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="122">
+        <v>35</v>
+      </c>
+      <c r="G15" s="82">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="23">
+        <v>215</v>
+      </c>
+      <c r="I15" s="23">
+        <v>600</v>
+      </c>
+      <c r="J15" s="23">
+        <v>200</v>
+      </c>
+      <c r="K15" s="23">
+        <v>40</v>
+      </c>
+      <c r="L15" s="111">
+        <v>1</v>
+      </c>
+      <c r="M15" s="111" t="s">
+        <v>155</v>
+      </c>
+      <c r="N15" s="111">
+        <v>3</v>
+      </c>
+      <c r="O15" s="22">
+        <v>1</v>
+      </c>
+      <c r="P15" s="20">
+        <v>0.06</v>
+      </c>
+      <c r="Q15" s="23">
         <v>0.5</v>
       </c>
-      <c r="S14" s="14">
+      <c r="R15" s="23">
         <v>1</v>
       </c>
-      <c r="T14" s="14">
+      <c r="S15" s="23">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="U14" s="14">
+      <c r="T15" s="23">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V14" s="14">
+      <c r="U15" s="23">
+        <v>0</v>
+      </c>
+      <c r="V15" s="23">
+        <v>17.5</v>
+      </c>
+      <c r="W15" s="23">
+        <v>2.25</v>
+      </c>
+      <c r="X15" s="23">
+        <v>12</v>
+      </c>
+      <c r="Y15" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="10"/>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B16" s="167"/>
+      <c r="C16" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="121">
+        <v>35</v>
+      </c>
+      <c r="G16" s="81">
+        <v>0.1</v>
+      </c>
+      <c r="H16" s="14">
+        <v>215</v>
+      </c>
+      <c r="I16" s="14">
+        <v>600</v>
+      </c>
+      <c r="J16" s="14">
+        <v>200</v>
+      </c>
+      <c r="K16" s="14">
+        <v>40</v>
+      </c>
+      <c r="L16" s="112">
+        <f>IF(P16&lt;0.05,1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="M16" s="112" t="s">
+        <v>155</v>
+      </c>
+      <c r="N16" s="112">
+        <v>3</v>
+      </c>
+      <c r="O16" s="13">
+        <v>1</v>
+      </c>
+      <c r="P16" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="R16" s="14">
+        <v>1</v>
+      </c>
+      <c r="S16" s="14">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="T16" s="14">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="U16" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="W14" s="14">
+      <c r="V16" s="14">
+        <v>17.5</v>
+      </c>
+      <c r="W16" s="14">
+        <v>2.75</v>
+      </c>
+      <c r="X16" s="14">
+        <v>12.25</v>
+      </c>
+      <c r="Y16" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="10"/>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B17" s="117"/>
+      <c r="C17" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="115">
+        <v>45</v>
+      </c>
+      <c r="G17" s="82">
+        <v>0.1</v>
+      </c>
+      <c r="H17" s="23">
+        <v>215</v>
+      </c>
+      <c r="I17" s="23">
+        <v>600</v>
+      </c>
+      <c r="J17" s="23">
+        <v>190</v>
+      </c>
+      <c r="K17" s="23">
+        <v>40</v>
+      </c>
+      <c r="L17" s="111">
+        <f>IF(P17&lt;0.05,1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="M17" s="111" t="s">
+        <v>155</v>
+      </c>
+      <c r="N17" s="111">
+        <v>3</v>
+      </c>
+      <c r="O17" s="23">
+        <v>1</v>
+      </c>
+      <c r="P17" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="Q17" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="R17" s="23">
+        <v>1</v>
+      </c>
+      <c r="S17" s="23">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="T17" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="U17" s="23">
+        <v>0</v>
+      </c>
+      <c r="V17" s="23">
         <v>18</v>
       </c>
-      <c r="X14" s="14">
-        <v>2.75</v>
-      </c>
-      <c r="Y14" s="14">
-        <v>13.75</v>
-      </c>
-      <c r="Z14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="10"/>
-    </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B15" s="119"/>
-      <c r="C15" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="D15" s="111" t="s">
+      <c r="W17" s="23">
+        <v>0</v>
+      </c>
+      <c r="X17" s="23">
+        <v>10.5</v>
+      </c>
+      <c r="Y17" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="10"/>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B18" s="167"/>
+      <c r="C18" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E18" s="149"/>
+      <c r="F18" s="166">
+        <v>65</v>
+      </c>
+      <c r="G18" s="81">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="14">
+        <v>215</v>
+      </c>
+      <c r="I18" s="14">
+        <v>550</v>
+      </c>
+      <c r="J18" s="14">
+        <v>175</v>
+      </c>
+      <c r="K18" s="14">
+        <v>45</v>
+      </c>
+      <c r="L18" s="112">
+        <f>IF(P18&lt;0.05,1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="M18" s="112" t="s">
+        <v>155</v>
+      </c>
+      <c r="N18" s="112">
+        <v>3</v>
+      </c>
+      <c r="O18" s="14">
+        <v>1</v>
+      </c>
+      <c r="P18" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>5</v>
+      </c>
+      <c r="R18" s="14">
+        <v>1</v>
+      </c>
+      <c r="S18" s="14">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="T18" s="14">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="U18" s="14">
+        <v>5.5E-2</v>
+      </c>
+      <c r="V18" s="14">
+        <v>18</v>
+      </c>
+      <c r="W18" s="14">
+        <v>0</v>
+      </c>
+      <c r="X18" s="14">
+        <v>9.5</v>
+      </c>
+      <c r="Y18" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="10"/>
+    </row>
+    <row r="19" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="117"/>
+      <c r="C19" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="114">
+        <v>20</v>
+      </c>
+      <c r="G19" s="82">
+        <v>0.1</v>
+      </c>
+      <c r="H19" s="23">
+        <v>230</v>
+      </c>
+      <c r="I19" s="23">
+        <v>630</v>
+      </c>
+      <c r="J19" s="23">
+        <v>230</v>
+      </c>
+      <c r="K19" s="23">
+        <v>35</v>
+      </c>
+      <c r="L19" s="111">
+        <v>2</v>
+      </c>
+      <c r="M19" s="111" t="s">
+        <v>155</v>
+      </c>
+      <c r="N19" s="111">
+        <v>3</v>
+      </c>
+      <c r="O19" s="22">
+        <v>1</v>
+      </c>
+      <c r="P19" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="Q19" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="R19" s="23">
+        <v>1</v>
+      </c>
+      <c r="S19" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="T19" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="U19" s="23">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="V19" s="23">
+        <v>20</v>
+      </c>
+      <c r="W19" s="23">
+        <v>4.5</v>
+      </c>
+      <c r="X19" s="23">
+        <v>25</v>
+      </c>
+      <c r="Y19" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="2:28" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="194" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="123">
+        <v>90</v>
+      </c>
+      <c r="G20" s="85">
+        <v>0.1</v>
+      </c>
+      <c r="H20" s="28">
         <v>220</v>
       </c>
-      <c r="E15" s="21">
-        <v>1.4571000000000001</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="124">
+      <c r="I20" s="28">
+        <v>730</v>
+      </c>
+      <c r="J20" s="28">
+        <v>430</v>
+      </c>
+      <c r="K20" s="28">
+        <v>11.5</v>
+      </c>
+      <c r="L20" s="137">
+        <v>3</v>
+      </c>
+      <c r="M20" s="129" t="s">
+        <v>178</v>
+      </c>
+      <c r="N20" s="129">
+        <v>1</v>
+      </c>
+      <c r="O20" s="27">
+        <v>3</v>
+      </c>
+      <c r="P20" s="25">
+        <v>0.115</v>
+      </c>
+      <c r="Q20" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="R20" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="S20" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="T20" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="U20" s="28">
+        <v>0</v>
+      </c>
+      <c r="V20" s="28">
+        <v>13</v>
+      </c>
+      <c r="W20" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="X20" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3"/>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B21" s="195"/>
+      <c r="C21" s="170" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" s="171" t="s">
+        <v>230</v>
+      </c>
+      <c r="E21" s="170"/>
+      <c r="F21" s="179">
+        <v>45</v>
+      </c>
+      <c r="G21" s="173">
+        <v>0.1</v>
+      </c>
+      <c r="H21" s="174">
+        <v>230</v>
+      </c>
+      <c r="I21" s="174">
+        <v>760</v>
+      </c>
+      <c r="J21" s="174">
+        <v>490</v>
+      </c>
+      <c r="K21" s="174">
+        <v>12.5</v>
+      </c>
+      <c r="L21" s="175">
+        <v>3</v>
+      </c>
+      <c r="M21" s="176" t="s">
+        <v>178</v>
+      </c>
+      <c r="N21" s="176">
+        <v>1</v>
+      </c>
+      <c r="O21" s="177">
+        <v>3</v>
+      </c>
+      <c r="P21" s="170">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="Q21" s="174">
+        <v>0.5</v>
+      </c>
+      <c r="R21" s="174">
+        <v>0.75</v>
+      </c>
+      <c r="S21" s="174">
+        <v>0.02</v>
+      </c>
+      <c r="T21" s="174">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="U21" s="174">
+        <v>0</v>
+      </c>
+      <c r="V21" s="174">
+        <v>13</v>
+      </c>
+      <c r="W21" s="174">
+        <v>0</v>
+      </c>
+      <c r="X21" s="174">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="174">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="174">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="174">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3"/>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B22" s="118"/>
+      <c r="C22" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="116">
         <v>35</v>
       </c>
-      <c r="H15" s="82">
+      <c r="G22" s="87">
         <v>0.1</v>
       </c>
-      <c r="I15" s="23">
-        <v>215</v>
-      </c>
-      <c r="J15" s="23">
+      <c r="H22" s="29">
+        <v>254</v>
+      </c>
+      <c r="I22" s="29">
+        <v>800</v>
+      </c>
+      <c r="J22" s="29">
+        <v>533</v>
+      </c>
+      <c r="K22" s="29">
+        <v>8.5</v>
+      </c>
+      <c r="L22" s="131">
+        <v>3</v>
+      </c>
+      <c r="M22" s="125" t="s">
+        <v>178</v>
+      </c>
+      <c r="N22" s="125">
+        <v>1</v>
+      </c>
+      <c r="O22" s="32">
+        <v>3</v>
+      </c>
+      <c r="P22" s="30">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="Q22" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="R22" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="S22" s="29">
+        <v>0.02</v>
+      </c>
+      <c r="T22" s="29">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="U22" s="29">
+        <v>0</v>
+      </c>
+      <c r="V22" s="29">
+        <v>13</v>
+      </c>
+      <c r="W22" s="29">
+        <v>0</v>
+      </c>
+      <c r="X22" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3"/>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B23" s="178"/>
+      <c r="C23" s="170" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23" s="171" t="s">
+        <v>232</v>
+      </c>
+      <c r="E23" s="170"/>
+      <c r="F23" s="172">
+        <v>50</v>
+      </c>
+      <c r="G23" s="173">
+        <v>0.1</v>
+      </c>
+      <c r="H23" s="174">
+        <v>245</v>
+      </c>
+      <c r="I23" s="174">
+        <v>800</v>
+      </c>
+      <c r="J23" s="174">
         <v>600</v>
       </c>
-      <c r="K15" s="23">
-        <v>200</v>
-      </c>
-      <c r="L15" s="23">
-        <v>40</v>
-      </c>
-      <c r="M15" s="111">
+      <c r="K23" s="174">
+        <v>11</v>
+      </c>
+      <c r="L23" s="175">
+        <v>3</v>
+      </c>
+      <c r="M23" s="176" t="s">
+        <v>178</v>
+      </c>
+      <c r="N23" s="176">
         <v>1</v>
       </c>
-      <c r="N15" s="111" t="s">
-        <v>157</v>
-      </c>
-      <c r="O15" s="111">
+      <c r="O23" s="177">
         <v>3</v>
       </c>
-      <c r="P15" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="20">
-        <v>0.06</v>
-      </c>
-      <c r="R15" s="23">
+      <c r="P23" s="170">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="Q23" s="174">
         <v>0.5</v>
       </c>
-      <c r="S15" s="23">
-        <v>1</v>
-      </c>
-      <c r="T15" s="23">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="U15" s="23">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="V15" s="23">
-        <v>0</v>
-      </c>
-      <c r="W15" s="23">
-        <v>17.5</v>
-      </c>
-      <c r="X15" s="23">
-        <v>2.25</v>
-      </c>
-      <c r="Y15" s="23">
-        <v>12</v>
-      </c>
-      <c r="Z15" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="10"/>
-    </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B16" s="170"/>
-      <c r="C16" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="D16" s="112" t="s">
-        <v>221</v>
-      </c>
-      <c r="E16" s="12">
-        <v>1.4436</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="123">
-        <v>35</v>
-      </c>
-      <c r="H16" s="81">
+      <c r="R23" s="174">
+        <v>0.75</v>
+      </c>
+      <c r="S23" s="174">
+        <v>0.02</v>
+      </c>
+      <c r="T23" s="174">
+        <v>0.2</v>
+      </c>
+      <c r="U23" s="174">
+        <v>0</v>
+      </c>
+      <c r="V23" s="174">
+        <v>12.75</v>
+      </c>
+      <c r="W23" s="174">
+        <v>0.3</v>
+      </c>
+      <c r="X23" s="174">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="174">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="174">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="174">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3"/>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B24" s="118"/>
+      <c r="C24" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="116">
+        <v>45</v>
+      </c>
+      <c r="G24" s="87">
         <v>0.1</v>
       </c>
-      <c r="I16" s="14">
-        <v>215</v>
-      </c>
-      <c r="J16" s="14">
-        <v>600</v>
-      </c>
-      <c r="K16" s="14">
-        <v>200</v>
-      </c>
-      <c r="L16" s="14">
-        <v>40</v>
-      </c>
-      <c r="M16" s="112">
-        <f>IF(Q16&lt;0.05,1,2)</f>
-        <v>1</v>
-      </c>
-      <c r="N16" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="O16" s="112">
+      <c r="H24" s="29">
+        <v>254</v>
+      </c>
+      <c r="I24" s="29">
+        <v>800</v>
+      </c>
+      <c r="J24" s="29">
+        <v>651</v>
+      </c>
+      <c r="K24" s="29">
+        <v>14.5</v>
+      </c>
+      <c r="L24" s="131">
         <v>3</v>
       </c>
-      <c r="P16" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="11">
-        <v>0.03</v>
-      </c>
-      <c r="R16" s="14">
+      <c r="M24" s="125" t="s">
+        <v>178</v>
+      </c>
+      <c r="N24" s="125">
+        <v>2</v>
+      </c>
+      <c r="O24" s="32">
+        <v>3</v>
+      </c>
+      <c r="P24" s="30">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="Q24" s="29">
         <v>0.5</v>
-      </c>
-      <c r="S16" s="14">
-        <v>1</v>
-      </c>
-      <c r="T16" s="14">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="U16" s="14">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="V16" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="W16" s="14">
-        <v>17.5</v>
-      </c>
-      <c r="X16" s="14">
-        <v>2.75</v>
-      </c>
-      <c r="Y16" s="14">
-        <v>12.25</v>
-      </c>
-      <c r="Z16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="10"/>
-    </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B17" s="119"/>
-      <c r="C17" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="D17" s="111">
-        <v>321</v>
-      </c>
-      <c r="E17" s="21">
-        <v>1.4540999999999999</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="117">
-        <v>45</v>
-      </c>
-      <c r="H17" s="82">
-        <v>0.1</v>
-      </c>
-      <c r="I17" s="23">
-        <v>215</v>
-      </c>
-      <c r="J17" s="23">
-        <v>600</v>
-      </c>
-      <c r="K17" s="23">
-        <v>190</v>
-      </c>
-      <c r="L17" s="23">
-        <v>40</v>
-      </c>
-      <c r="M17" s="111">
-        <f>IF(Q17&lt;0.05,1,2)</f>
-        <v>1</v>
-      </c>
-      <c r="N17" s="111" t="s">
-        <v>157</v>
-      </c>
-      <c r="O17" s="111">
-        <v>3</v>
-      </c>
-      <c r="P17" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="20">
-        <v>0.04</v>
-      </c>
-      <c r="R17" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="S17" s="23">
-        <v>1</v>
-      </c>
-      <c r="T17" s="23">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="U17" s="23">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="V17" s="23">
-        <v>0</v>
-      </c>
-      <c r="W17" s="23">
-        <v>18</v>
-      </c>
-      <c r="X17" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="23">
-        <v>10.5</v>
-      </c>
-      <c r="Z17" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="10"/>
-    </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B18" s="170"/>
-      <c r="C18" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="D18" s="151" t="s">
-        <v>222</v>
-      </c>
-      <c r="E18" s="12">
-        <v>1.4567000000000001</v>
-      </c>
-      <c r="F18" s="152"/>
-      <c r="G18" s="169">
-        <v>65</v>
-      </c>
-      <c r="H18" s="81">
-        <v>0.1</v>
-      </c>
-      <c r="I18" s="14">
-        <v>215</v>
-      </c>
-      <c r="J18" s="14">
-        <v>550</v>
-      </c>
-      <c r="K18" s="14">
-        <v>175</v>
-      </c>
-      <c r="L18" s="14">
-        <v>45</v>
-      </c>
-      <c r="M18" s="112">
-        <f>IF(Q18&lt;0.05,1,2)</f>
-        <v>1</v>
-      </c>
-      <c r="N18" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="O18" s="112">
-        <v>3</v>
-      </c>
-      <c r="P18" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="11">
-        <v>0.03</v>
-      </c>
-      <c r="R18" s="14">
-        <v>5</v>
-      </c>
-      <c r="S18" s="14">
-        <v>1</v>
-      </c>
-      <c r="T18" s="14">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="U18" s="14">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="V18" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="W18" s="14">
-        <v>18</v>
-      </c>
-      <c r="X18" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="14">
-        <v>9.5</v>
-      </c>
-      <c r="Z18" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="10"/>
-    </row>
-    <row r="19" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="119"/>
-      <c r="C19" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="D19" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="E19" s="21">
-        <v>1.4539</v>
-      </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="116">
-        <v>20</v>
-      </c>
-      <c r="H19" s="82">
-        <v>0.1</v>
-      </c>
-      <c r="I19" s="23">
-        <v>230</v>
-      </c>
-      <c r="J19" s="23">
-        <v>630</v>
-      </c>
-      <c r="K19" s="23">
-        <v>230</v>
-      </c>
-      <c r="L19" s="23">
-        <v>35</v>
-      </c>
-      <c r="M19" s="111">
-        <v>2</v>
-      </c>
-      <c r="N19" s="111" t="s">
-        <v>157</v>
-      </c>
-      <c r="O19" s="111">
-        <v>3</v>
-      </c>
-      <c r="P19" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="R19" s="23">
-        <v>0.35</v>
-      </c>
-      <c r="S19" s="23">
-        <v>1</v>
-      </c>
-      <c r="T19" s="23">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="U19" s="23">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="V19" s="23">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="W19" s="23">
-        <v>20</v>
-      </c>
-      <c r="X19" s="23">
-        <v>4.5</v>
-      </c>
-      <c r="Y19" s="23">
-        <v>25</v>
-      </c>
-      <c r="Z19" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="2:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="199" t="s">
-        <v>205</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D20" s="114">
-        <v>416</v>
-      </c>
-      <c r="E20" s="26">
-        <v>1.4005000000000001</v>
-      </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="125">
-        <v>90</v>
-      </c>
-      <c r="H20" s="85">
-        <v>0.1</v>
-      </c>
-      <c r="I20" s="28">
-        <v>220</v>
-      </c>
-      <c r="J20" s="28">
-        <v>730</v>
-      </c>
-      <c r="K20" s="28">
-        <v>430</v>
-      </c>
-      <c r="L20" s="28">
-        <v>11.5</v>
-      </c>
-      <c r="M20" s="139">
-        <v>3</v>
-      </c>
-      <c r="N20" s="131" t="s">
-        <v>209</v>
-      </c>
-      <c r="O20" s="131">
-        <v>1</v>
-      </c>
-      <c r="P20" s="27">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="25">
-        <v>0.115</v>
-      </c>
-      <c r="R20" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="S20" s="28">
-        <v>0.75</v>
-      </c>
-      <c r="T20" s="28">
-        <v>0.02</v>
-      </c>
-      <c r="U20" s="28">
-        <v>0.25</v>
-      </c>
-      <c r="V20" s="28">
-        <v>0</v>
-      </c>
-      <c r="W20" s="28">
-        <v>13</v>
-      </c>
-      <c r="X20" s="28">
-        <v>0.3</v>
-      </c>
-      <c r="Y20" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="28">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="28">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="3"/>
-    </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B21" s="200"/>
-      <c r="C21" s="173" t="s">
-        <v>193</v>
-      </c>
-      <c r="D21" s="174">
-        <v>420</v>
-      </c>
-      <c r="E21" s="175">
-        <v>1.4020999999999999</v>
-      </c>
-      <c r="F21" s="173"/>
-      <c r="G21" s="183">
-        <v>45</v>
-      </c>
-      <c r="H21" s="177">
-        <v>0.1</v>
-      </c>
-      <c r="I21" s="178">
-        <v>230</v>
-      </c>
-      <c r="J21" s="178">
-        <v>760</v>
-      </c>
-      <c r="K21" s="178">
-        <v>490</v>
-      </c>
-      <c r="L21" s="178">
-        <v>12.5</v>
-      </c>
-      <c r="M21" s="179">
-        <v>3</v>
-      </c>
-      <c r="N21" s="180" t="s">
-        <v>209</v>
-      </c>
-      <c r="O21" s="180">
-        <v>1</v>
-      </c>
-      <c r="P21" s="181">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="173">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="R21" s="178">
-        <v>0.5</v>
-      </c>
-      <c r="S21" s="178">
-        <v>0.75</v>
-      </c>
-      <c r="T21" s="178">
-        <v>0.02</v>
-      </c>
-      <c r="U21" s="178">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="V21" s="178">
-        <v>0</v>
-      </c>
-      <c r="W21" s="178">
-        <v>13</v>
-      </c>
-      <c r="X21" s="178">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="178">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="178">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="178">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="178">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="3"/>
-    </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B22" s="120"/>
-      <c r="C22" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="D22" s="115">
-        <v>420</v>
-      </c>
-      <c r="E22" s="31">
-        <v>1.4028</v>
-      </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="118">
-        <v>35</v>
-      </c>
-      <c r="H22" s="87">
-        <v>0.1</v>
-      </c>
-      <c r="I22" s="29">
-        <v>254</v>
-      </c>
-      <c r="J22" s="29">
-        <v>800</v>
-      </c>
-      <c r="K22" s="29">
-        <v>533</v>
-      </c>
-      <c r="L22" s="29">
-        <v>8.5</v>
-      </c>
-      <c r="M22" s="133">
-        <v>3</v>
-      </c>
-      <c r="N22" s="127" t="s">
-        <v>209</v>
-      </c>
-      <c r="O22" s="127">
-        <v>1</v>
-      </c>
-      <c r="P22" s="32">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="30">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="R22" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="S22" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="T22" s="29">
-        <v>0.02</v>
-      </c>
-      <c r="U22" s="29">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="V22" s="29">
-        <v>0</v>
-      </c>
-      <c r="W22" s="29">
-        <v>13</v>
-      </c>
-      <c r="X22" s="29">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="29">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="29">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="3"/>
-    </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B23" s="182"/>
-      <c r="C23" s="173" t="s">
-        <v>212</v>
-      </c>
-      <c r="D23" s="174" t="s">
-        <v>219</v>
-      </c>
-      <c r="E23" s="175">
-        <v>1.4029</v>
-      </c>
-      <c r="F23" s="173"/>
-      <c r="G23" s="176">
-        <v>50</v>
-      </c>
-      <c r="H23" s="177">
-        <v>0.1</v>
-      </c>
-      <c r="I23" s="178">
-        <v>245</v>
-      </c>
-      <c r="J23" s="178">
-        <v>800</v>
-      </c>
-      <c r="K23" s="178">
-        <v>600</v>
-      </c>
-      <c r="L23" s="178">
-        <v>11</v>
-      </c>
-      <c r="M23" s="179">
-        <v>3</v>
-      </c>
-      <c r="N23" s="180" t="s">
-        <v>209</v>
-      </c>
-      <c r="O23" s="180">
-        <v>1</v>
-      </c>
-      <c r="P23" s="181">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="173">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="R23" s="178">
-        <v>0.5</v>
-      </c>
-      <c r="S23" s="178">
-        <v>0.75</v>
-      </c>
-      <c r="T23" s="178">
-        <v>0.02</v>
-      </c>
-      <c r="U23" s="178">
-        <v>0.2</v>
-      </c>
-      <c r="V23" s="178">
-        <v>0</v>
-      </c>
-      <c r="W23" s="178">
-        <v>12.75</v>
-      </c>
-      <c r="X23" s="178">
-        <v>0.3</v>
-      </c>
-      <c r="Y23" s="178">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="178">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="178">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="178">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="3"/>
-    </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B24" s="120"/>
-      <c r="C24" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="D24" s="115">
-        <v>420</v>
-      </c>
-      <c r="E24" s="31">
-        <v>1.4034</v>
-      </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="118">
-        <v>45</v>
-      </c>
-      <c r="H24" s="87">
-        <v>0.1</v>
-      </c>
-      <c r="I24" s="29">
-        <v>254</v>
-      </c>
-      <c r="J24" s="29">
-        <v>800</v>
-      </c>
-      <c r="K24" s="29">
-        <v>651</v>
-      </c>
-      <c r="L24" s="29">
-        <v>14.5</v>
-      </c>
-      <c r="M24" s="133">
-        <v>3</v>
-      </c>
-      <c r="N24" s="127" t="s">
-        <v>209</v>
-      </c>
-      <c r="O24" s="127">
-        <v>2</v>
-      </c>
-      <c r="P24" s="32">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="30">
-        <v>0.46500000000000002</v>
       </c>
       <c r="R24" s="29">
         <v>0.5</v>
       </c>
       <c r="S24" s="29">
+        <v>0.02</v>
+      </c>
+      <c r="T24" s="29">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="U24" s="29">
+        <v>0</v>
+      </c>
+      <c r="V24" s="29">
+        <v>13.5</v>
+      </c>
+      <c r="W24" s="29">
+        <v>0</v>
+      </c>
+      <c r="X24" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3"/>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B25" s="178"/>
+      <c r="C25" s="170" t="s">
+        <v>208</v>
+      </c>
+      <c r="D25" s="171" t="s">
+        <v>234</v>
+      </c>
+      <c r="E25" s="170"/>
+      <c r="F25" s="180">
+        <v>55</v>
+      </c>
+      <c r="G25" s="173">
+        <v>0.1</v>
+      </c>
+      <c r="H25" s="174">
+        <v>209</v>
+      </c>
+      <c r="I25" s="174">
+        <v>727</v>
+      </c>
+      <c r="J25" s="174">
+        <v>666</v>
+      </c>
+      <c r="K25" s="174">
+        <v>20</v>
+      </c>
+      <c r="L25" s="175">
+        <v>3</v>
+      </c>
+      <c r="M25" s="176" t="s">
+        <v>178</v>
+      </c>
+      <c r="N25" s="176">
+        <v>1</v>
+      </c>
+      <c r="O25" s="177">
+        <v>3</v>
+      </c>
+      <c r="P25" s="170">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="Q25" s="174">
+        <v>0.65</v>
+      </c>
+      <c r="R25" s="174">
+        <v>1</v>
+      </c>
+      <c r="S25" s="174">
+        <v>0.02</v>
+      </c>
+      <c r="T25" s="174">
+        <v>0.125</v>
+      </c>
+      <c r="U25" s="174">
+        <v>0.3</v>
+      </c>
+      <c r="V25" s="174">
+        <v>12.4</v>
+      </c>
+      <c r="W25" s="174">
+        <v>0.125</v>
+      </c>
+      <c r="X25" s="174">
+        <v>0.25</v>
+      </c>
+      <c r="Y25" s="174">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="174">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="174">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3"/>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B26" s="29"/>
+      <c r="C26" s="142" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="143" t="s">
+        <v>235</v>
+      </c>
+      <c r="E26" s="142"/>
+      <c r="F26" s="168">
+        <v>35</v>
+      </c>
+      <c r="G26" s="144">
+        <v>0.12</v>
+      </c>
+      <c r="H26" s="145">
+        <v>320</v>
+      </c>
+      <c r="I26" s="145">
+        <v>860</v>
+      </c>
+      <c r="J26" s="145">
+        <v>550</v>
+      </c>
+      <c r="K26" s="145">
+        <v>16</v>
+      </c>
+      <c r="L26" s="131">
+        <v>1</v>
+      </c>
+      <c r="M26" s="131" t="s">
+        <v>178</v>
+      </c>
+      <c r="N26" s="131">
+        <v>1</v>
+      </c>
+      <c r="O26" s="146">
+        <v>2</v>
+      </c>
+      <c r="P26" s="142">
+        <v>0.03</v>
+      </c>
+      <c r="Q26" s="145">
+        <v>0.3</v>
+      </c>
+      <c r="R26" s="145">
+        <v>1</v>
+      </c>
+      <c r="S26" s="145">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="T26" s="145">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="U26" s="145">
+        <v>0</v>
+      </c>
+      <c r="V26" s="145">
+        <v>15.5</v>
+      </c>
+      <c r="W26" s="145">
+        <v>0.95</v>
+      </c>
+      <c r="X26" s="145">
+        <v>4.5</v>
+      </c>
+      <c r="Y26" s="145">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="145">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="145">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3"/>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B27" s="174"/>
+      <c r="C27" s="181" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="182" t="s">
+        <v>236</v>
+      </c>
+      <c r="E27" s="181"/>
+      <c r="F27" s="183">
+        <v>42</v>
+      </c>
+      <c r="G27" s="184">
+        <v>0.1</v>
+      </c>
+      <c r="H27" s="185">
+        <v>280</v>
+      </c>
+      <c r="I27" s="185">
+        <v>900</v>
+      </c>
+      <c r="J27" s="185">
+        <v>530</v>
+      </c>
+      <c r="K27" s="185">
+        <v>12</v>
+      </c>
+      <c r="L27" s="175">
+        <v>3</v>
+      </c>
+      <c r="M27" s="175" t="s">
+        <v>178</v>
+      </c>
+      <c r="N27" s="175">
+        <v>1</v>
+      </c>
+      <c r="O27" s="186">
+        <v>2</v>
+      </c>
+      <c r="P27" s="181">
+        <v>0.39</v>
+      </c>
+      <c r="Q27" s="185">
         <v>0.5</v>
       </c>
-      <c r="T24" s="29">
+      <c r="R27" s="185">
+        <v>0.75</v>
+      </c>
+      <c r="S27" s="185">
         <v>0.02</v>
       </c>
-      <c r="U24" s="29">
+      <c r="T27" s="185">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V24" s="29">
-        <v>0</v>
-      </c>
-      <c r="W24" s="29">
+      <c r="U27" s="185">
+        <v>0</v>
+      </c>
+      <c r="V27" s="185">
+        <v>16.5</v>
+      </c>
+      <c r="W27" s="185">
+        <v>1.05</v>
+      </c>
+      <c r="X27" s="185">
+        <v>0.5</v>
+      </c>
+      <c r="Y27" s="185">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="185">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="185">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3"/>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B28" s="29"/>
+      <c r="C28" s="142" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" s="143" t="s">
+        <v>237</v>
+      </c>
+      <c r="E28" s="142"/>
+      <c r="F28" s="168">
+        <v>47</v>
+      </c>
+      <c r="G28" s="144">
+        <v>0.1</v>
+      </c>
+      <c r="H28" s="145">
+        <v>245</v>
+      </c>
+      <c r="I28" s="145">
+        <v>800</v>
+      </c>
+      <c r="J28" s="169" t="s">
+        <v>155</v>
+      </c>
+      <c r="K28" s="145">
+        <v>10</v>
+      </c>
+      <c r="L28" s="131">
+        <v>3</v>
+      </c>
+      <c r="M28" s="131" t="s">
+        <v>178</v>
+      </c>
+      <c r="N28" s="131">
+        <v>1</v>
+      </c>
+      <c r="O28" s="145">
+        <v>3</v>
+      </c>
+      <c r="P28" s="142">
+        <v>0.39</v>
+      </c>
+      <c r="Q28" s="145">
+        <v>0.5</v>
+      </c>
+      <c r="R28" s="145">
+        <v>0.5</v>
+      </c>
+      <c r="S28" s="145">
+        <v>0.02</v>
+      </c>
+      <c r="T28" s="145">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="U28" s="145">
+        <v>0</v>
+      </c>
+      <c r="V28" s="145">
         <v>13.5</v>
       </c>
-      <c r="X24" s="29">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="29">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="29">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="3"/>
-    </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B25" s="182"/>
-      <c r="C25" s="173" t="s">
-        <v>196</v>
-      </c>
-      <c r="D25" s="174" t="s">
-        <v>197</v>
-      </c>
-      <c r="E25" s="175">
-        <v>1.4035</v>
-      </c>
-      <c r="F25" s="173"/>
-      <c r="G25" s="184">
+      <c r="W28" s="145">
+        <v>0</v>
+      </c>
+      <c r="X28" s="145">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="145">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="145">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="145">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3"/>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B29" s="178"/>
+      <c r="C29" s="170" t="s">
+        <v>210</v>
+      </c>
+      <c r="D29" s="171" t="s">
+        <v>238</v>
+      </c>
+      <c r="E29" s="170"/>
+      <c r="F29" s="179">
+        <v>45</v>
+      </c>
+      <c r="G29" s="173">
+        <v>0.1</v>
+      </c>
+      <c r="H29" s="174">
+        <v>295</v>
+      </c>
+      <c r="I29" s="174">
+        <v>850</v>
+      </c>
+      <c r="J29" s="174">
+        <v>582</v>
+      </c>
+      <c r="K29" s="174">
+        <v>13.5</v>
+      </c>
+      <c r="L29" s="175">
+        <f>IF(P29&lt;0.05,1,2)</f>
+        <v>2</v>
+      </c>
+      <c r="M29" s="176" t="s">
+        <v>178</v>
+      </c>
+      <c r="N29" s="176">
+        <v>1</v>
+      </c>
+      <c r="O29" s="177">
+        <v>2</v>
+      </c>
+      <c r="P29" s="170">
+        <v>0.17</v>
+      </c>
+      <c r="Q29" s="174">
+        <v>0.5</v>
+      </c>
+      <c r="R29" s="174">
+        <v>0.75</v>
+      </c>
+      <c r="S29" s="174">
+        <v>0.02</v>
+      </c>
+      <c r="T29" s="174">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="U29" s="174">
+        <v>0</v>
+      </c>
+      <c r="V29" s="174">
+        <v>16</v>
+      </c>
+      <c r="W29" s="174">
+        <v>0</v>
+      </c>
+      <c r="X29" s="174">
+        <v>2</v>
+      </c>
+      <c r="Y29" s="174">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="174">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="174">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3"/>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B30" s="118"/>
+      <c r="C30" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="E30" s="30"/>
+      <c r="F30" s="139">
+        <v>30</v>
+      </c>
+      <c r="G30" s="87">
+        <v>0.12</v>
+      </c>
+      <c r="H30" s="29">
+        <v>360</v>
+      </c>
+      <c r="I30" s="29">
+        <v>1015</v>
+      </c>
+      <c r="J30" s="29">
+        <v>720</v>
+      </c>
+      <c r="K30" s="29">
+        <v>16</v>
+      </c>
+      <c r="L30" s="131">
+        <v>1</v>
+      </c>
+      <c r="M30" s="125" t="s">
+        <v>178</v>
+      </c>
+      <c r="N30" s="125">
+        <v>1</v>
+      </c>
+      <c r="O30" s="32">
+        <v>1</v>
+      </c>
+      <c r="P30" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="Q30" s="29">
+        <v>0.35</v>
+      </c>
+      <c r="R30" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="S30" s="29">
+        <v>0.02</v>
+      </c>
+      <c r="T30" s="29">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="U30" s="29">
+        <v>0</v>
+      </c>
+      <c r="V30" s="29">
+        <v>16</v>
+      </c>
+      <c r="W30" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="X30" s="29">
+        <v>4</v>
+      </c>
+      <c r="Y30" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3"/>
+    </row>
+    <row r="31" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="178"/>
+      <c r="C31" s="170" t="s">
+        <v>211</v>
+      </c>
+      <c r="D31" s="171" t="s">
+        <v>240</v>
+      </c>
+      <c r="E31" s="170"/>
+      <c r="F31" s="179">
         <v>55</v>
       </c>
-      <c r="H25" s="177">
+      <c r="G31" s="187">
         <v>0.1</v>
       </c>
-      <c r="I25" s="178">
-        <v>209</v>
-      </c>
-      <c r="J25" s="178">
-        <v>727</v>
-      </c>
-      <c r="K25" s="178">
-        <v>666</v>
-      </c>
-      <c r="L25" s="178">
+      <c r="H31" s="174">
+        <v>220</v>
+      </c>
+      <c r="I31" s="174">
+        <v>730</v>
+      </c>
+      <c r="J31" s="174">
+        <v>450</v>
+      </c>
+      <c r="K31" s="174">
+        <v>15</v>
+      </c>
+      <c r="L31" s="175">
+        <f>IF(P31&lt;0.05,1,2)</f>
+        <v>2</v>
+      </c>
+      <c r="M31" s="176" t="s">
+        <v>178</v>
+      </c>
+      <c r="N31" s="176">
+        <v>1</v>
+      </c>
+      <c r="O31" s="177">
+        <v>3</v>
+      </c>
+      <c r="P31" s="170">
+        <v>0.115</v>
+      </c>
+      <c r="Q31" s="174">
+        <v>0.5</v>
+      </c>
+      <c r="R31" s="174">
+        <v>0.7</v>
+      </c>
+      <c r="S31" s="174">
+        <v>0.02</v>
+      </c>
+      <c r="T31" s="174">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="U31" s="174">
+        <v>0</v>
+      </c>
+      <c r="V31" s="174">
+        <v>12.5</v>
+      </c>
+      <c r="W31" s="174">
+        <v>0</v>
+      </c>
+      <c r="X31" s="174">
+        <v>0.375</v>
+      </c>
+      <c r="Y31" s="174">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="174">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="174">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3"/>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B32" s="211" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="E32" s="46"/>
+      <c r="F32" s="212">
+        <v>55</v>
+      </c>
+      <c r="G32" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="H32" s="49">
+        <v>200</v>
+      </c>
+      <c r="I32" s="49">
+        <v>515</v>
+      </c>
+      <c r="J32" s="49">
+        <v>240</v>
+      </c>
+      <c r="K32" s="49">
         <v>20</v>
       </c>
-      <c r="M25" s="179">
+      <c r="L32" s="132">
+        <v>2</v>
+      </c>
+      <c r="M32" s="126" t="s">
+        <v>155</v>
+      </c>
+      <c r="N32" s="126">
         <v>3</v>
       </c>
-      <c r="N25" s="180" t="s">
-        <v>209</v>
-      </c>
-      <c r="O25" s="180">
-        <v>1</v>
-      </c>
-      <c r="P25" s="181">
+      <c r="O32" s="49">
         <v>3</v>
       </c>
-      <c r="Q25" s="173">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="R25" s="178">
-        <v>0.65</v>
-      </c>
-      <c r="S25" s="178">
-        <v>1</v>
-      </c>
-      <c r="T25" s="178">
-        <v>0.02</v>
-      </c>
-      <c r="U25" s="178">
-        <v>0.125</v>
-      </c>
-      <c r="V25" s="178">
-        <v>0.3</v>
-      </c>
-      <c r="W25" s="178">
-        <v>12.4</v>
-      </c>
-      <c r="X25" s="178">
-        <v>0.125</v>
-      </c>
-      <c r="Y25" s="178">
-        <v>0.25</v>
-      </c>
-      <c r="Z25" s="178">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="178">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="178">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="3"/>
-    </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B26" s="29"/>
-      <c r="C26" s="144" t="s">
-        <v>210</v>
-      </c>
-      <c r="D26" s="133"/>
-      <c r="E26" s="145">
-        <v>1.4418</v>
-      </c>
-      <c r="F26" s="144"/>
-      <c r="G26" s="171">
-        <v>35</v>
-      </c>
-      <c r="H26" s="146">
-        <v>0.12</v>
-      </c>
-      <c r="I26" s="147">
-        <v>320</v>
-      </c>
-      <c r="J26" s="147">
-        <v>860</v>
-      </c>
-      <c r="K26" s="147">
-        <v>550</v>
-      </c>
-      <c r="L26" s="147">
-        <v>16</v>
-      </c>
-      <c r="M26" s="133">
-        <v>1</v>
-      </c>
-      <c r="N26" s="133" t="s">
-        <v>209</v>
-      </c>
-      <c r="O26" s="133">
-        <v>1</v>
-      </c>
-      <c r="P26" s="148">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="144">
-        <v>0.03</v>
-      </c>
-      <c r="R26" s="147">
-        <v>0.3</v>
-      </c>
-      <c r="S26" s="147">
-        <v>1</v>
-      </c>
-      <c r="T26" s="147">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="U26" s="147">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="V26" s="147">
-        <v>0</v>
-      </c>
-      <c r="W26" s="147">
-        <v>15.5</v>
-      </c>
-      <c r="X26" s="147">
-        <v>0.95</v>
-      </c>
-      <c r="Y26" s="147">
-        <v>4.5</v>
-      </c>
-      <c r="Z26" s="147">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="147">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="147">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="3"/>
-    </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B27" s="178"/>
-      <c r="C27" s="185" t="s">
-        <v>213</v>
-      </c>
-      <c r="D27" s="179"/>
-      <c r="E27" s="186">
-        <v>1.4121999999999999</v>
-      </c>
-      <c r="F27" s="185"/>
-      <c r="G27" s="187">
-        <v>42</v>
-      </c>
-      <c r="H27" s="188">
-        <v>0.1</v>
-      </c>
-      <c r="I27" s="189">
-        <v>280</v>
-      </c>
-      <c r="J27" s="189">
-        <v>900</v>
-      </c>
-      <c r="K27" s="189">
-        <v>530</v>
-      </c>
-      <c r="L27" s="189">
-        <v>12</v>
-      </c>
-      <c r="M27" s="179">
-        <v>3</v>
-      </c>
-      <c r="N27" s="179" t="s">
-        <v>209</v>
-      </c>
-      <c r="O27" s="179">
-        <v>1</v>
-      </c>
-      <c r="P27" s="190">
-        <v>2</v>
-      </c>
-      <c r="Q27" s="185">
-        <v>0.39</v>
-      </c>
-      <c r="R27" s="189">
+      <c r="P32" s="46">
+        <v>0.04</v>
+      </c>
+      <c r="Q32" s="49">
         <v>0.5</v>
-      </c>
-      <c r="S27" s="189">
-        <v>0.75</v>
-      </c>
-      <c r="T27" s="189">
-        <v>0.02</v>
-      </c>
-      <c r="U27" s="189">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="V27" s="189">
-        <v>0</v>
-      </c>
-      <c r="W27" s="189">
-        <v>16.5</v>
-      </c>
-      <c r="X27" s="189">
-        <v>1.05</v>
-      </c>
-      <c r="Y27" s="189">
-        <v>0.5</v>
-      </c>
-      <c r="Z27" s="189">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="189">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="189">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="3"/>
-    </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B28" s="29"/>
-      <c r="C28" s="144" t="s">
-        <v>211</v>
-      </c>
-      <c r="D28" s="133">
-        <v>420</v>
-      </c>
-      <c r="E28" s="145">
-        <v>1.4031</v>
-      </c>
-      <c r="F28" s="144"/>
-      <c r="G28" s="171">
-        <v>47</v>
-      </c>
-      <c r="H28" s="146">
-        <v>0.1</v>
-      </c>
-      <c r="I28" s="147">
-        <v>245</v>
-      </c>
-      <c r="J28" s="147">
-        <v>800</v>
-      </c>
-      <c r="K28" s="172" t="s">
-        <v>157</v>
-      </c>
-      <c r="L28" s="147">
-        <v>10</v>
-      </c>
-      <c r="M28" s="133">
-        <v>3</v>
-      </c>
-      <c r="N28" s="133" t="s">
-        <v>209</v>
-      </c>
-      <c r="O28" s="133">
-        <v>1</v>
-      </c>
-      <c r="P28" s="147">
-        <v>3</v>
-      </c>
-      <c r="Q28" s="144">
-        <v>0.39</v>
-      </c>
-      <c r="R28" s="147">
-        <v>0.5</v>
-      </c>
-      <c r="S28" s="147">
-        <v>0.5</v>
-      </c>
-      <c r="T28" s="147">
-        <v>0.02</v>
-      </c>
-      <c r="U28" s="147">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="V28" s="147">
-        <v>0</v>
-      </c>
-      <c r="W28" s="147">
-        <v>13.5</v>
-      </c>
-      <c r="X28" s="147">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="147">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="147">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="147">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="147">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="3"/>
-    </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B29" s="182"/>
-      <c r="C29" s="173" t="s">
-        <v>201</v>
-      </c>
-      <c r="D29" s="174">
-        <v>431</v>
-      </c>
-      <c r="E29" s="175">
-        <v>1.4056999999999999</v>
-      </c>
-      <c r="F29" s="173"/>
-      <c r="G29" s="183">
-        <v>45</v>
-      </c>
-      <c r="H29" s="177">
-        <v>0.1</v>
-      </c>
-      <c r="I29" s="178">
-        <v>295</v>
-      </c>
-      <c r="J29" s="178">
-        <v>850</v>
-      </c>
-      <c r="K29" s="178">
-        <v>582</v>
-      </c>
-      <c r="L29" s="178">
-        <v>13.5</v>
-      </c>
-      <c r="M29" s="179">
-        <f>IF(Q29&lt;0.05,1,2)</f>
-        <v>2</v>
-      </c>
-      <c r="N29" s="180" t="s">
-        <v>209</v>
-      </c>
-      <c r="O29" s="180">
-        <v>1</v>
-      </c>
-      <c r="P29" s="181">
-        <v>2</v>
-      </c>
-      <c r="Q29" s="173">
-        <v>0.17</v>
-      </c>
-      <c r="R29" s="178">
-        <v>0.5</v>
-      </c>
-      <c r="S29" s="178">
-        <v>0.75</v>
-      </c>
-      <c r="T29" s="178">
-        <v>0.02</v>
-      </c>
-      <c r="U29" s="178">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="V29" s="178">
-        <v>0</v>
-      </c>
-      <c r="W29" s="178">
-        <v>16</v>
-      </c>
-      <c r="X29" s="178">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="178">
-        <v>2</v>
-      </c>
-      <c r="Z29" s="178">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="178">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="178">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="3"/>
-    </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B30" s="120"/>
-      <c r="C30" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="D30" s="115"/>
-      <c r="E30" s="31">
-        <v>1.4541999999999999</v>
-      </c>
-      <c r="F30" s="30"/>
-      <c r="G30" s="141">
-        <v>30</v>
-      </c>
-      <c r="H30" s="87">
-        <v>0.12</v>
-      </c>
-      <c r="I30" s="29">
-        <v>360</v>
-      </c>
-      <c r="J30" s="29">
-        <v>1015</v>
-      </c>
-      <c r="K30" s="29">
-        <v>720</v>
-      </c>
-      <c r="L30" s="29">
-        <v>16</v>
-      </c>
-      <c r="M30" s="133">
-        <v>1</v>
-      </c>
-      <c r="N30" s="127" t="s">
-        <v>209</v>
-      </c>
-      <c r="O30" s="127">
-        <v>1</v>
-      </c>
-      <c r="P30" s="32">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="30">
-        <v>0.05</v>
-      </c>
-      <c r="R30" s="29">
-        <v>0.35</v>
-      </c>
-      <c r="S30" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="T30" s="29">
-        <v>0.02</v>
-      </c>
-      <c r="U30" s="29">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="V30" s="29">
-        <v>0</v>
-      </c>
-      <c r="W30" s="29">
-        <v>16</v>
-      </c>
-      <c r="X30" s="29">
-        <v>0.3</v>
-      </c>
-      <c r="Y30" s="29">
-        <v>4</v>
-      </c>
-      <c r="Z30" s="29">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="29">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="3"/>
-    </row>
-    <row r="31" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="182"/>
-      <c r="C31" s="173" t="s">
-        <v>207</v>
-      </c>
-      <c r="D31" s="180">
-        <v>410</v>
-      </c>
-      <c r="E31" s="175">
-        <v>1.4006000000000001</v>
-      </c>
-      <c r="F31" s="173"/>
-      <c r="G31" s="183">
-        <v>55</v>
-      </c>
-      <c r="H31" s="191">
-        <v>0.1</v>
-      </c>
-      <c r="I31" s="178">
-        <v>220</v>
-      </c>
-      <c r="J31" s="178">
-        <v>730</v>
-      </c>
-      <c r="K31" s="178">
-        <v>450</v>
-      </c>
-      <c r="L31" s="178">
-        <v>15</v>
-      </c>
-      <c r="M31" s="179">
-        <f>IF(Q31&lt;0.05,1,2)</f>
-        <v>2</v>
-      </c>
-      <c r="N31" s="180" t="s">
-        <v>209</v>
-      </c>
-      <c r="O31" s="180">
-        <v>1</v>
-      </c>
-      <c r="P31" s="181">
-        <v>3</v>
-      </c>
-      <c r="Q31" s="173">
-        <v>0.115</v>
-      </c>
-      <c r="R31" s="178">
-        <v>0.5</v>
-      </c>
-      <c r="S31" s="178">
-        <v>0.7</v>
-      </c>
-      <c r="T31" s="178">
-        <v>0.02</v>
-      </c>
-      <c r="U31" s="178">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="V31" s="178">
-        <v>0</v>
-      </c>
-      <c r="W31" s="178">
-        <v>12.5</v>
-      </c>
-      <c r="X31" s="178">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="178">
-        <v>0.375</v>
-      </c>
-      <c r="Z31" s="178">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="178">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="178">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="3"/>
-    </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B32" s="226" t="s">
-        <v>206</v>
-      </c>
-      <c r="C32" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="D32" s="227">
-        <v>430</v>
-      </c>
-      <c r="E32" s="47">
-        <v>1.4016</v>
-      </c>
-      <c r="F32" s="46"/>
-      <c r="G32" s="228">
-        <v>55</v>
-      </c>
-      <c r="H32" s="96">
-        <v>0.1</v>
-      </c>
-      <c r="I32" s="49">
-        <v>200</v>
-      </c>
-      <c r="J32" s="49">
-        <v>515</v>
-      </c>
-      <c r="K32" s="49">
-        <v>240</v>
-      </c>
-      <c r="L32" s="49">
-        <v>20</v>
-      </c>
-      <c r="M32" s="134">
-        <v>2</v>
-      </c>
-      <c r="N32" s="128" t="s">
-        <v>157</v>
-      </c>
-      <c r="O32" s="128">
-        <v>3</v>
-      </c>
-      <c r="P32" s="49">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="46">
-        <v>0.04</v>
       </c>
       <c r="R32" s="49">
         <v>0.5</v>
       </c>
       <c r="S32" s="49">
+        <v>0.02</v>
+      </c>
+      <c r="T32" s="49">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="U32" s="49">
+        <v>0</v>
+      </c>
+      <c r="V32" s="49">
+        <v>17</v>
+      </c>
+      <c r="W32" s="49">
+        <v>0</v>
+      </c>
+      <c r="X32" s="49">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="49">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="119">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3"/>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B33" s="213"/>
+      <c r="C33" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="D33" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="E33" s="59"/>
+      <c r="F33" s="188">
+        <v>75</v>
+      </c>
+      <c r="G33" s="90">
+        <v>0.1</v>
+      </c>
+      <c r="H33" s="62">
+        <v>220</v>
+      </c>
+      <c r="I33" s="62">
+        <v>730</v>
+      </c>
+      <c r="J33" s="62">
+        <v>486</v>
+      </c>
+      <c r="K33" s="62">
+        <v>11.5</v>
+      </c>
+      <c r="L33" s="133">
+        <f>IF(P33&lt;0.05,1,2)</f>
+        <v>2</v>
+      </c>
+      <c r="M33" s="130" t="s">
+        <v>178</v>
+      </c>
+      <c r="N33" s="130">
+        <v>2</v>
+      </c>
+      <c r="O33" s="62">
+        <v>3</v>
+      </c>
+      <c r="P33" s="59">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="Q33" s="62">
         <v>0.5</v>
       </c>
-      <c r="T32" s="49">
+      <c r="R33" s="62">
+        <v>0.75</v>
+      </c>
+      <c r="S33" s="62">
         <v>0.02</v>
       </c>
-      <c r="U32" s="49">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="V32" s="49">
-        <v>0</v>
-      </c>
-      <c r="W32" s="49">
+      <c r="T33" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="U33" s="62">
+        <v>0</v>
+      </c>
+      <c r="V33" s="62">
+        <v>16.5</v>
+      </c>
+      <c r="W33" s="62">
+        <v>0.4</v>
+      </c>
+      <c r="X33" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="62">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="120">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3"/>
+    </row>
+    <row r="34" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="214"/>
+      <c r="C34" s="215" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34" s="217" t="s">
+        <v>243</v>
+      </c>
+      <c r="E34" s="215"/>
+      <c r="F34" s="218">
+        <v>75</v>
+      </c>
+      <c r="G34" s="219">
+        <v>0.1</v>
+      </c>
+      <c r="H34" s="220">
+        <v>200</v>
+      </c>
+      <c r="I34" s="220">
+        <v>530</v>
+      </c>
+      <c r="J34" s="220">
+        <v>250</v>
+      </c>
+      <c r="K34" s="220">
+        <v>20</v>
+      </c>
+      <c r="L34" s="221">
+        <v>3</v>
+      </c>
+      <c r="M34" s="216" t="s">
+        <v>155</v>
+      </c>
+      <c r="N34" s="216">
+        <v>3</v>
+      </c>
+      <c r="O34" s="220">
+        <v>3</v>
+      </c>
+      <c r="P34" s="215">
+        <v>0.06</v>
+      </c>
+      <c r="Q34" s="220">
+        <v>0.75</v>
+      </c>
+      <c r="R34" s="220">
+        <v>0.75</v>
+      </c>
+      <c r="S34" s="220">
+        <v>0.02</v>
+      </c>
+      <c r="T34" s="220">
+        <v>0.25</v>
+      </c>
+      <c r="U34" s="220">
+        <v>0</v>
+      </c>
+      <c r="V34" s="220">
         <v>17</v>
       </c>
-      <c r="X32" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="49">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="49">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="49">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="121">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="3"/>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B33" s="229"/>
-      <c r="C33" s="59" t="s">
-        <v>200</v>
-      </c>
-      <c r="D33" s="192" t="s">
-        <v>199</v>
-      </c>
-      <c r="E33" s="60">
-        <v>1.4104000000000001</v>
-      </c>
-      <c r="F33" s="59"/>
-      <c r="G33" s="193">
-        <v>75</v>
-      </c>
-      <c r="H33" s="90">
-        <v>0.1</v>
-      </c>
-      <c r="I33" s="62">
-        <v>220</v>
-      </c>
-      <c r="J33" s="62">
-        <v>730</v>
-      </c>
-      <c r="K33" s="62">
-        <v>486</v>
-      </c>
-      <c r="L33" s="62">
-        <v>11.5</v>
-      </c>
-      <c r="M33" s="135">
-        <f>IF(Q33&lt;0.05,1,2)</f>
-        <v>2</v>
-      </c>
-      <c r="N33" s="132" t="s">
-        <v>209</v>
-      </c>
-      <c r="O33" s="132">
-        <v>2</v>
-      </c>
-      <c r="P33" s="62">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="59">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="R33" s="62">
-        <v>0.5</v>
-      </c>
-      <c r="S33" s="62">
-        <v>0.75</v>
-      </c>
-      <c r="T33" s="62">
-        <v>0.02</v>
-      </c>
-      <c r="U33" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="V33" s="62">
-        <v>0</v>
-      </c>
-      <c r="W33" s="62">
-        <v>16.5</v>
-      </c>
-      <c r="X33" s="62">
+      <c r="W34" s="220">
         <v>0.4</v>
       </c>
-      <c r="Y33" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="62">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="62">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="122">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="3"/>
-    </row>
-    <row r="34" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="230"/>
-      <c r="C34" s="231" t="s">
-        <v>218</v>
-      </c>
-      <c r="D34" s="232" t="s">
-        <v>219</v>
-      </c>
-      <c r="E34" s="233">
-        <v>1.4105000000000001</v>
-      </c>
-      <c r="F34" s="231"/>
-      <c r="G34" s="234">
-        <v>75</v>
-      </c>
-      <c r="H34" s="235">
-        <v>0.1</v>
-      </c>
-      <c r="I34" s="236">
-        <v>200</v>
-      </c>
-      <c r="J34" s="236">
-        <v>530</v>
-      </c>
-      <c r="K34" s="236">
-        <v>250</v>
-      </c>
-      <c r="L34" s="236">
-        <v>20</v>
-      </c>
-      <c r="M34" s="237">
-        <v>3</v>
-      </c>
-      <c r="N34" s="232" t="s">
-        <v>157</v>
-      </c>
-      <c r="O34" s="232">
-        <v>3</v>
-      </c>
-      <c r="P34" s="236">
-        <v>3</v>
-      </c>
-      <c r="Q34" s="231">
-        <v>0.06</v>
-      </c>
-      <c r="R34" s="236">
-        <v>0.75</v>
-      </c>
-      <c r="S34" s="236">
-        <v>0.75</v>
-      </c>
-      <c r="T34" s="236">
-        <v>0.02</v>
-      </c>
-      <c r="U34" s="236">
-        <v>0.25</v>
-      </c>
-      <c r="V34" s="236">
-        <v>0</v>
-      </c>
-      <c r="W34" s="236">
-        <v>17</v>
-      </c>
-      <c r="X34" s="236">
-        <v>0.4</v>
-      </c>
-      <c r="Y34" s="236">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="236">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="236">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="238">
-        <v>0</v>
-      </c>
-      <c r="AC34" t="s">
+      <c r="X34" s="220">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="220">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="220">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="222">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="s">
         <v>126</v>
       </c>
     </row>
@@ -11508,17 +11551,17 @@
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
-      <c r="E35" s="195"/>
+      <c r="E35" s="190"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="167"/>
-      <c r="H35" s="164"/>
+      <c r="G35" s="164"/>
+      <c r="H35" s="161"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
-      <c r="M35" s="161"/>
+      <c r="M35" s="158"/>
       <c r="N35" s="10"/>
-      <c r="O35" s="165"/>
+      <c r="O35" s="162"/>
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
@@ -11538,17 +11581,17 @@
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
-      <c r="E36" s="195"/>
+      <c r="E36" s="190"/>
       <c r="F36" s="10"/>
-      <c r="G36" s="166"/>
-      <c r="H36" s="164"/>
+      <c r="G36" s="163"/>
+      <c r="H36" s="161"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
-      <c r="M36" s="161"/>
+      <c r="M36" s="158"/>
       <c r="N36" s="10"/>
-      <c r="O36" s="165"/>
+      <c r="O36" s="162"/>
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
@@ -11568,17 +11611,17 @@
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
-      <c r="E37" s="195"/>
+      <c r="E37" s="190"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="168"/>
-      <c r="H37" s="164"/>
+      <c r="G37" s="165"/>
+      <c r="H37" s="161"/>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
-      <c r="M37" s="161"/>
+      <c r="M37" s="158"/>
       <c r="N37" s="10"/>
-      <c r="O37" s="165"/>
+      <c r="O37" s="162"/>
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
@@ -11598,17 +11641,17 @@
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
-      <c r="E38" s="195"/>
+      <c r="E38" s="190"/>
       <c r="F38" s="10"/>
-      <c r="G38" s="168"/>
-      <c r="H38" s="164"/>
+      <c r="G38" s="165"/>
+      <c r="H38" s="161"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
-      <c r="M38" s="161"/>
+      <c r="M38" s="158"/>
       <c r="N38" s="10"/>
-      <c r="O38" s="165"/>
+      <c r="O38" s="162"/>
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
@@ -11628,17 +11671,17 @@
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
-      <c r="E39" s="195"/>
+      <c r="E39" s="190"/>
       <c r="F39" s="10"/>
-      <c r="G39" s="166"/>
-      <c r="H39" s="164"/>
+      <c r="G39" s="163"/>
+      <c r="H39" s="161"/>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
-      <c r="M39" s="161"/>
+      <c r="M39" s="158"/>
       <c r="N39" s="10"/>
-      <c r="O39" s="165"/>
+      <c r="O39" s="162"/>
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
@@ -11658,17 +11701,17 @@
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
-      <c r="E40" s="195"/>
+      <c r="E40" s="190"/>
       <c r="F40" s="10"/>
-      <c r="G40" s="168"/>
-      <c r="H40" s="164"/>
+      <c r="G40" s="165"/>
+      <c r="H40" s="161"/>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
-      <c r="M40" s="161"/>
+      <c r="M40" s="158"/>
       <c r="N40" s="10"/>
-      <c r="O40" s="165"/>
+      <c r="O40" s="162"/>
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
@@ -11688,17 +11731,17 @@
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
-      <c r="E41" s="195"/>
+      <c r="E41" s="190"/>
       <c r="F41" s="10"/>
-      <c r="G41" s="168"/>
-      <c r="H41" s="164"/>
+      <c r="G41" s="165"/>
+      <c r="H41" s="161"/>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
-      <c r="M41" s="161"/>
+      <c r="M41" s="158"/>
       <c r="N41" s="10"/>
-      <c r="O41" s="165"/>
+      <c r="O41" s="162"/>
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
@@ -11718,17 +11761,17 @@
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
-      <c r="E42" s="195"/>
+      <c r="E42" s="190"/>
       <c r="F42" s="10"/>
-      <c r="G42" s="168"/>
-      <c r="H42" s="164"/>
+      <c r="G42" s="165"/>
+      <c r="H42" s="161"/>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
-      <c r="M42" s="161"/>
+      <c r="M42" s="158"/>
       <c r="N42" s="10"/>
-      <c r="O42" s="165"/>
+      <c r="O42" s="162"/>
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
@@ -11748,17 +11791,17 @@
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
-      <c r="E43" s="195"/>
+      <c r="E43" s="190"/>
       <c r="F43" s="10"/>
-      <c r="G43" s="166"/>
-      <c r="H43" s="164"/>
+      <c r="G43" s="163"/>
+      <c r="H43" s="161"/>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
-      <c r="M43" s="161"/>
+      <c r="M43" s="158"/>
       <c r="N43" s="10"/>
-      <c r="O43" s="165"/>
+      <c r="O43" s="162"/>
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
@@ -11778,17 +11821,17 @@
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
-      <c r="E44" s="195"/>
+      <c r="E44" s="190"/>
       <c r="F44" s="10"/>
-      <c r="G44" s="168"/>
-      <c r="H44" s="164"/>
+      <c r="G44" s="165"/>
+      <c r="H44" s="161"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
-      <c r="M44" s="161"/>
+      <c r="M44" s="158"/>
       <c r="N44" s="10"/>
-      <c r="O44" s="165"/>
+      <c r="O44" s="162"/>
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
@@ -11808,17 +11851,17 @@
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
-      <c r="E45" s="195"/>
+      <c r="E45" s="190"/>
       <c r="F45" s="10"/>
-      <c r="G45" s="168"/>
-      <c r="H45" s="164"/>
+      <c r="G45" s="165"/>
+      <c r="H45" s="161"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
-      <c r="M45" s="161"/>
+      <c r="M45" s="158"/>
       <c r="N45" s="10"/>
-      <c r="O45" s="165"/>
+      <c r="O45" s="162"/>
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
@@ -11838,17 +11881,17 @@
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
-      <c r="E46" s="195"/>
+      <c r="E46" s="190"/>
       <c r="F46" s="10"/>
-      <c r="G46" s="168"/>
-      <c r="H46" s="164"/>
+      <c r="G46" s="165"/>
+      <c r="H46" s="161"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
-      <c r="M46" s="161"/>
+      <c r="M46" s="158"/>
       <c r="N46" s="10"/>
-      <c r="O46" s="165"/>
+      <c r="O46" s="162"/>
       <c r="P46" s="10"/>
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
@@ -11868,17 +11911,17 @@
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
-      <c r="E47" s="195"/>
+      <c r="E47" s="190"/>
       <c r="F47" s="10"/>
-      <c r="G47" s="166"/>
-      <c r="H47" s="164"/>
+      <c r="G47" s="163"/>
+      <c r="H47" s="161"/>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
-      <c r="M47" s="161"/>
+      <c r="M47" s="158"/>
       <c r="N47" s="10"/>
-      <c r="O47" s="165"/>
+      <c r="O47" s="162"/>
       <c r="P47" s="10"/>
       <c r="Q47" s="10"/>
       <c r="R47" s="10"/>
@@ -11898,17 +11941,17 @@
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
-      <c r="E48" s="195"/>
+      <c r="E48" s="190"/>
       <c r="F48" s="10"/>
-      <c r="G48" s="168"/>
-      <c r="H48" s="164"/>
+      <c r="G48" s="165"/>
+      <c r="H48" s="161"/>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
-      <c r="M48" s="161"/>
+      <c r="M48" s="158"/>
       <c r="N48" s="10"/>
-      <c r="O48" s="165"/>
+      <c r="O48" s="162"/>
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
@@ -11928,17 +11971,17 @@
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
-      <c r="E49" s="195"/>
-      <c r="F49" s="168"/>
-      <c r="G49" s="166"/>
-      <c r="H49" s="164"/>
+      <c r="E49" s="190"/>
+      <c r="F49" s="165"/>
+      <c r="G49" s="163"/>
+      <c r="H49" s="161"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
-      <c r="K49" s="168"/>
-      <c r="L49" s="168"/>
-      <c r="M49" s="161"/>
+      <c r="K49" s="165"/>
+      <c r="L49" s="165"/>
+      <c r="M49" s="158"/>
       <c r="N49" s="10"/>
-      <c r="O49" s="165"/>
+      <c r="O49" s="162"/>
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
@@ -11958,17 +12001,17 @@
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
-      <c r="E50" s="195"/>
+      <c r="E50" s="190"/>
       <c r="F50" s="10"/>
-      <c r="G50" s="168"/>
-      <c r="H50" s="164"/>
+      <c r="G50" s="165"/>
+      <c r="H50" s="161"/>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
-      <c r="K50" s="168"/>
-      <c r="L50" s="168"/>
-      <c r="M50" s="161"/>
+      <c r="K50" s="165"/>
+      <c r="L50" s="165"/>
+      <c r="M50" s="158"/>
       <c r="N50" s="10"/>
-      <c r="O50" s="165"/>
+      <c r="O50" s="162"/>
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
@@ -11988,17 +12031,17 @@
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
-      <c r="E51" s="195"/>
+      <c r="E51" s="190"/>
       <c r="F51" s="10"/>
-      <c r="G51" s="168"/>
-      <c r="H51" s="164"/>
+      <c r="G51" s="165"/>
+      <c r="H51" s="161"/>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
-      <c r="M51" s="161"/>
+      <c r="M51" s="158"/>
       <c r="N51" s="10"/>
-      <c r="O51" s="165"/>
+      <c r="O51" s="162"/>
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
@@ -12018,17 +12061,17 @@
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
-      <c r="E52" s="195"/>
+      <c r="E52" s="190"/>
       <c r="F52" s="10"/>
-      <c r="G52" s="166"/>
-      <c r="H52" s="164"/>
+      <c r="G52" s="163"/>
+      <c r="H52" s="161"/>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
-      <c r="M52" s="161"/>
+      <c r="M52" s="158"/>
       <c r="N52" s="10"/>
-      <c r="O52" s="165"/>
+      <c r="O52" s="162"/>
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
@@ -12048,17 +12091,17 @@
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
-      <c r="E53" s="195"/>
-      <c r="F53" s="168"/>
-      <c r="G53" s="168"/>
-      <c r="H53" s="164"/>
+      <c r="E53" s="190"/>
+      <c r="F53" s="165"/>
+      <c r="G53" s="165"/>
+      <c r="H53" s="161"/>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
-      <c r="M53" s="161"/>
+      <c r="M53" s="158"/>
       <c r="N53" s="10"/>
-      <c r="O53" s="165"/>
+      <c r="O53" s="162"/>
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
@@ -12078,17 +12121,17 @@
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
-      <c r="E54" s="195"/>
+      <c r="E54" s="190"/>
       <c r="F54" s="10"/>
-      <c r="G54" s="168"/>
-      <c r="H54" s="164"/>
+      <c r="G54" s="165"/>
+      <c r="H54" s="161"/>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
-      <c r="K54" s="168"/>
-      <c r="L54" s="168"/>
-      <c r="M54" s="161"/>
+      <c r="K54" s="165"/>
+      <c r="L54" s="165"/>
+      <c r="M54" s="158"/>
       <c r="N54" s="10"/>
-      <c r="O54" s="165"/>
+      <c r="O54" s="162"/>
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
       <c r="R54" s="10"/>
@@ -12108,17 +12151,17 @@
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
-      <c r="E55" s="195"/>
+      <c r="E55" s="190"/>
       <c r="F55" s="10"/>
-      <c r="G55" s="168"/>
-      <c r="H55" s="164"/>
+      <c r="G55" s="165"/>
+      <c r="H55" s="161"/>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
-      <c r="M55" s="161"/>
+      <c r="M55" s="158"/>
       <c r="N55" s="10"/>
-      <c r="O55" s="165"/>
+      <c r="O55" s="162"/>
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
       <c r="R55" s="10"/>
@@ -12138,17 +12181,17 @@
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
-      <c r="E56" s="195"/>
+      <c r="E56" s="190"/>
       <c r="F56" s="10"/>
-      <c r="G56" s="166"/>
-      <c r="H56" s="164"/>
+      <c r="G56" s="163"/>
+      <c r="H56" s="161"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
-      <c r="K56" s="168"/>
-      <c r="L56" s="168"/>
-      <c r="M56" s="161"/>
+      <c r="K56" s="165"/>
+      <c r="L56" s="165"/>
+      <c r="M56" s="158"/>
       <c r="N56" s="10"/>
-      <c r="O56" s="165"/>
+      <c r="O56" s="162"/>
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
       <c r="R56" s="10"/>
@@ -12168,17 +12211,17 @@
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
-      <c r="E57" s="195"/>
+      <c r="E57" s="190"/>
       <c r="F57" s="10"/>
-      <c r="G57" s="168"/>
-      <c r="H57" s="164"/>
+      <c r="G57" s="165"/>
+      <c r="H57" s="161"/>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
-      <c r="M57" s="161"/>
+      <c r="M57" s="158"/>
       <c r="N57" s="10"/>
-      <c r="O57" s="165"/>
+      <c r="O57" s="162"/>
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
       <c r="R57" s="10"/>
@@ -12198,17 +12241,17 @@
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
-      <c r="E58" s="195"/>
-      <c r="F58" s="168"/>
-      <c r="G58" s="168"/>
-      <c r="H58" s="164"/>
+      <c r="E58" s="190"/>
+      <c r="F58" s="165"/>
+      <c r="G58" s="165"/>
+      <c r="H58" s="161"/>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
       <c r="L58" s="10"/>
-      <c r="M58" s="161"/>
+      <c r="M58" s="158"/>
       <c r="N58" s="10"/>
-      <c r="O58" s="165"/>
+      <c r="O58" s="162"/>
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
       <c r="R58" s="10"/>
@@ -12228,17 +12271,17 @@
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
-      <c r="E59" s="195"/>
+      <c r="E59" s="190"/>
       <c r="F59" s="10"/>
-      <c r="G59" s="168"/>
-      <c r="H59" s="164"/>
+      <c r="G59" s="165"/>
+      <c r="H59" s="161"/>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
-      <c r="K59" s="168"/>
-      <c r="L59" s="168"/>
-      <c r="M59" s="161"/>
+      <c r="K59" s="165"/>
+      <c r="L59" s="165"/>
+      <c r="M59" s="158"/>
       <c r="N59" s="10"/>
-      <c r="O59" s="165"/>
+      <c r="O59" s="162"/>
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
       <c r="R59" s="10"/>
@@ -12258,17 +12301,17 @@
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
-      <c r="E60" s="195"/>
+      <c r="E60" s="190"/>
       <c r="F60" s="10"/>
-      <c r="G60" s="168"/>
-      <c r="H60" s="164"/>
+      <c r="G60" s="165"/>
+      <c r="H60" s="161"/>
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
-      <c r="M60" s="161"/>
+      <c r="M60" s="158"/>
       <c r="N60" s="10"/>
-      <c r="O60" s="165"/>
+      <c r="O60" s="162"/>
       <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
       <c r="R60" s="10"/>
@@ -12288,17 +12331,17 @@
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
-      <c r="E61" s="196"/>
-      <c r="F61" s="168"/>
-      <c r="G61" s="168"/>
-      <c r="H61" s="164"/>
+      <c r="E61" s="191"/>
+      <c r="F61" s="165"/>
+      <c r="G61" s="165"/>
+      <c r="H61" s="161"/>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
       <c r="L61" s="10"/>
-      <c r="M61" s="161"/>
+      <c r="M61" s="158"/>
       <c r="N61" s="10"/>
-      <c r="O61" s="165"/>
+      <c r="O61" s="162"/>
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
       <c r="R61" s="10"/>
@@ -12318,17 +12361,17 @@
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
-      <c r="E62" s="195"/>
+      <c r="E62" s="190"/>
       <c r="F62" s="10"/>
-      <c r="G62" s="168"/>
-      <c r="H62" s="164"/>
+      <c r="G62" s="165"/>
+      <c r="H62" s="161"/>
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
-      <c r="M62" s="161"/>
+      <c r="M62" s="158"/>
       <c r="N62" s="10"/>
-      <c r="O62" s="165"/>
+      <c r="O62" s="162"/>
       <c r="P62" s="10"/>
       <c r="Q62" s="10"/>
       <c r="R62" s="10"/>
@@ -12348,17 +12391,17 @@
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
-      <c r="E63" s="195"/>
+      <c r="E63" s="190"/>
       <c r="F63" s="10"/>
-      <c r="G63" s="166"/>
-      <c r="H63" s="164"/>
+      <c r="G63" s="163"/>
+      <c r="H63" s="161"/>
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
-      <c r="K63" s="168"/>
-      <c r="L63" s="168"/>
-      <c r="M63" s="161"/>
+      <c r="K63" s="165"/>
+      <c r="L63" s="165"/>
+      <c r="M63" s="158"/>
       <c r="N63" s="10"/>
-      <c r="O63" s="165"/>
+      <c r="O63" s="162"/>
       <c r="P63" s="10"/>
       <c r="Q63" s="10"/>
       <c r="R63" s="10"/>
@@ -12378,17 +12421,17 @@
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
-      <c r="E64" s="195"/>
+      <c r="E64" s="190"/>
       <c r="F64" s="10"/>
-      <c r="G64" s="168"/>
-      <c r="H64" s="164"/>
+      <c r="G64" s="165"/>
+      <c r="H64" s="161"/>
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
-      <c r="M64" s="161"/>
+      <c r="M64" s="158"/>
       <c r="N64" s="10"/>
-      <c r="O64" s="165"/>
+      <c r="O64" s="162"/>
       <c r="P64" s="10"/>
       <c r="Q64" s="10"/>
       <c r="R64" s="10"/>
@@ -12408,17 +12451,17 @@
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
-      <c r="E65" s="195"/>
+      <c r="E65" s="190"/>
       <c r="F65" s="10"/>
-      <c r="G65" s="168"/>
-      <c r="H65" s="164"/>
+      <c r="G65" s="165"/>
+      <c r="H65" s="161"/>
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
       <c r="L65" s="10"/>
-      <c r="M65" s="161"/>
+      <c r="M65" s="158"/>
       <c r="N65" s="10"/>
-      <c r="O65" s="165"/>
+      <c r="O65" s="162"/>
       <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
       <c r="R65" s="10"/>
@@ -12438,17 +12481,17 @@
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
-      <c r="E66" s="195"/>
+      <c r="E66" s="190"/>
       <c r="F66" s="10"/>
-      <c r="G66" s="166"/>
-      <c r="H66" s="162"/>
-      <c r="I66" s="163"/>
-      <c r="J66" s="163"/>
-      <c r="K66" s="168"/>
-      <c r="L66" s="168"/>
-      <c r="M66" s="161"/>
+      <c r="G66" s="163"/>
+      <c r="H66" s="159"/>
+      <c r="I66" s="160"/>
+      <c r="J66" s="160"/>
+      <c r="K66" s="165"/>
+      <c r="L66" s="165"/>
+      <c r="M66" s="158"/>
       <c r="N66" s="10"/>
-      <c r="O66" s="165"/>
+      <c r="O66" s="162"/>
       <c r="P66" s="10"/>
       <c r="Q66" s="10"/>
       <c r="R66" s="10"/>
@@ -12468,17 +12511,17 @@
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
-      <c r="E67" s="195"/>
+      <c r="E67" s="190"/>
       <c r="F67" s="10"/>
-      <c r="G67" s="168"/>
-      <c r="H67" s="162"/>
-      <c r="I67" s="163"/>
-      <c r="J67" s="163"/>
+      <c r="G67" s="165"/>
+      <c r="H67" s="159"/>
+      <c r="I67" s="160"/>
+      <c r="J67" s="160"/>
       <c r="K67" s="10"/>
       <c r="L67" s="10"/>
-      <c r="M67" s="161"/>
+      <c r="M67" s="158"/>
       <c r="N67" s="10"/>
-      <c r="O67" s="165"/>
+      <c r="O67" s="162"/>
       <c r="P67" s="10"/>
       <c r="Q67" s="10"/>
       <c r="R67" s="10"/>
@@ -12501,14 +12544,14 @@
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
-      <c r="H68" s="194"/>
+      <c r="H68" s="189"/>
       <c r="I68" s="10"/>
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
-      <c r="M68" s="165"/>
+      <c r="M68" s="162"/>
       <c r="N68" s="10"/>
-      <c r="O68" s="165"/>
+      <c r="O68" s="162"/>
       <c r="P68" s="10"/>
       <c r="Q68" s="10"/>
       <c r="R68" s="10"/>
@@ -12531,14 +12574,14 @@
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
-      <c r="H69" s="194"/>
+      <c r="H69" s="189"/>
       <c r="I69" s="10"/>
       <c r="J69" s="10"/>
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
-      <c r="M69" s="165"/>
+      <c r="M69" s="162"/>
       <c r="N69" s="10"/>
-      <c r="O69" s="165"/>
+      <c r="O69" s="162"/>
       <c r="P69" s="10"/>
       <c r="Q69" s="10"/>
       <c r="R69" s="10"/>
@@ -12562,7 +12605,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="Q3:AB4"/>
+    <mergeCell ref="P3:AA4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/base_de_donnees_materiaux/bdd_materiaux_v3.0 - sans prix -.xlsx
+++ b/docs/base_de_donnees_materiaux/bdd_materiaux_v3.0 - sans prix -.xlsx
@@ -130,8 +130,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Les valeurs en gras ont été trouvé dans le "critère d'usinabilité" , les valeurs en italiques ont été déduite des valeurs en gras. 
-La référence est le 9S30, numéro 1,0711
+          <t xml:space="preserve">Les valeurs en gras ont été trouvées dans le "critère d'usinabilité" , les valeurs en italiques ont été déduites des valeurs en gras. 
+La référence est le 9S30, numéro 1,0711.
 </t>
         </r>
       </text>
@@ -214,8 +214,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Les valeurs en gras ont été trouvé dans le "critère d'usinabilité" , les valeurs en italiques ont été déduite des valeurs en gras. 
-La référence est le 9S30, numéro 1,0711
+          <t xml:space="preserve">Les valeurs en gras ont été trouvées dans le "critère d'usinabilité" , les valeurs en italiques ont été déduites des valeurs en gras. 
+La référence est le 9S30, numéro 1,0711.
 </t>
         </r>
       </text>
@@ -273,7 +273,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="243">
   <si>
     <t>Famille</t>
   </si>
@@ -674,9 +674,6 @@
     <t>34CrMo4</t>
   </si>
   <si>
-    <t>equivaut à 35MnS6Pb</t>
-  </si>
-  <si>
     <t>51CrV4 QT</t>
   </si>
   <si>
@@ -707,9 +704,6 @@
     <t>42CrMo4 QT</t>
   </si>
   <si>
-    <t>Distinguer ETG, VITAC…</t>
-  </si>
-  <si>
     <t>42CrMoS4 QT</t>
   </si>
   <si>
@@ -803,12 +797,6 @@
     <t xml:space="preserve">A% </t>
   </si>
   <si>
-    <t xml:space="preserve">Acier inoxydables martensitique </t>
-  </si>
-  <si>
-    <t>resistance à la corrosion</t>
-  </si>
-  <si>
     <t>trempe+revenu</t>
   </si>
   <si>
@@ -816,32 +804,6 @@
   </si>
   <si>
     <t>NF 10088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de donnée Matériaux de l'IPOC AT-OMC v2.0 </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Précisions:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Les éléments de l'usinabilité en gras sont des valeurs conformes trouvées dans le livre du CTDEC, en revanche les valeurs en italiques sont des valeurs déterminées avec l'aide des valeurs connues d'autre materiaux et de la composition chimique.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -867,6 +829,195 @@
     </r>
   </si>
   <si>
+    <t>X4CrNiMo16-5-1 (QT 760)</t>
+  </si>
+  <si>
+    <t>X39CrMo17-1</t>
+  </si>
+  <si>
+    <t>X5CrNiCuNb16-4 (QT930)</t>
+  </si>
+  <si>
+    <t>X10CrNi18-8 (301)</t>
+  </si>
+  <si>
+    <t>X5CrNiN17-8 (302)</t>
+  </si>
+  <si>
+    <t>X8CrNiS18-9 (303)</t>
+  </si>
+  <si>
+    <t>X5CrNi18-10 (304)</t>
+  </si>
+  <si>
+    <t>X2CrNi19-11 (304L)</t>
+  </si>
+  <si>
+    <t>X2CrNi18-9 (304L)</t>
+  </si>
+  <si>
+    <t>X5CrNiMo17-12-2 (316)</t>
+  </si>
+  <si>
+    <t>X2CrNiMo17-12-2 (316L)</t>
+  </si>
+  <si>
+    <t>X2CrNiMo18-14-3 (316L)</t>
+  </si>
+  <si>
+    <t>X6CrNiMoTi17-12-2 (316Ti)</t>
+  </si>
+  <si>
+    <t>X3CrNiMo17-13-3 (316M)</t>
+  </si>
+  <si>
+    <t>X6CrNiTi18-10 (321)</t>
+  </si>
+  <si>
+    <t>X3CrNiCu18-4 (304Cu)</t>
+  </si>
+  <si>
+    <t>X1NiCrMoCu25-20-5 (904L)</t>
+  </si>
+  <si>
+    <t>X12CrS13 (416)</t>
+  </si>
+  <si>
+    <t>X20Cr13 (420)</t>
+  </si>
+  <si>
+    <t>X30Cr13 (420)</t>
+  </si>
+  <si>
+    <t>X29CrS13 (420F)</t>
+  </si>
+  <si>
+    <t>X46Cr13 (420)</t>
+  </si>
+  <si>
+    <t>X45CrS13 (420F)</t>
+  </si>
+  <si>
+    <t>X39Cr13 (420)</t>
+  </si>
+  <si>
+    <t>X17CrNi-16-2 (431)</t>
+  </si>
+  <si>
+    <t>X12Cr13 (410)</t>
+  </si>
+  <si>
+    <t>X6Cr17 (430)</t>
+  </si>
+  <si>
+    <t>X14CrMoS17 (430F)</t>
+  </si>
+  <si>
+    <t>X6CrMoS17 (420F)</t>
+  </si>
+  <si>
+    <t>1.431</t>
+  </si>
+  <si>
+    <t>1.4319</t>
+  </si>
+  <si>
+    <t>1.4305</t>
+  </si>
+  <si>
+    <t>1.4301</t>
+  </si>
+  <si>
+    <t>1.4306</t>
+  </si>
+  <si>
+    <t>1.4307</t>
+  </si>
+  <si>
+    <t>1.4401</t>
+  </si>
+  <si>
+    <t>1.4404</t>
+  </si>
+  <si>
+    <t>1.4435</t>
+  </si>
+  <si>
+    <t>1.4571</t>
+  </si>
+  <si>
+    <t>1.4436</t>
+  </si>
+  <si>
+    <t>1.4541</t>
+  </si>
+  <si>
+    <t>1.4567</t>
+  </si>
+  <si>
+    <t>1.4539</t>
+  </si>
+  <si>
+    <t>1.4005</t>
+  </si>
+  <si>
+    <t>1.4021</t>
+  </si>
+  <si>
+    <t>1.4028</t>
+  </si>
+  <si>
+    <t>1.4029</t>
+  </si>
+  <si>
+    <t>1.4034</t>
+  </si>
+  <si>
+    <t>1.4035</t>
+  </si>
+  <si>
+    <t>1.4418</t>
+  </si>
+  <si>
+    <t>1.4122</t>
+  </si>
+  <si>
+    <t>1.4031</t>
+  </si>
+  <si>
+    <t>1.4057</t>
+  </si>
+  <si>
+    <t>1.4542</t>
+  </si>
+  <si>
+    <t>1.4006</t>
+  </si>
+  <si>
+    <t>1.4016</t>
+  </si>
+  <si>
+    <t>1.4104</t>
+  </si>
+  <si>
+    <t>1.4105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acier inoxydable martensitique </t>
+  </si>
+  <si>
+    <t>Acier inoxydable ferritique</t>
+  </si>
+  <si>
+    <t>résistance à la corrosion</t>
+  </si>
+  <si>
+    <t>pré-traité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base de données Matériaux de l'IPOC AT-OMC v2.0 </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -876,7 +1027,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Composition de la base de donnée:</t>
+      <t>Composition de la base de données:</t>
     </r>
     <r>
       <rPr>
@@ -886,185 +1037,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Cette base de donnée est composée d'environ 70 aciers classés en 4 grandes familles: les aciers d'usage général, les aciers de décolletage, les acier de cementation et les acier de trempe et revenu, et d'une trentaine d'inox classé en 3 familles: les inox martensitiques, les inox austenitiques, les inox ferritiques. </t>
+      <t xml:space="preserve"> Cette base de données est composée d'environ 70 aciers classés en 4 grandes familles: les aciers d'usage général, les aciers de décolletage, les aciers de cementation et les aciers de trempe et revenu, et d'une trentaine d'inox classés en 3 familles: les inox martensitiques, les inox austenitiques, les inox ferritiques. </t>
     </r>
   </si>
   <si>
-    <t>Acier inoxydable feritique</t>
-  </si>
-  <si>
-    <t>X4CrNiMo16-5-1 (QT 760)</t>
-  </si>
-  <si>
-    <t>X39CrMo17-1</t>
-  </si>
-  <si>
-    <t>X5CrNiCuNb16-4 (QT930)</t>
-  </si>
-  <si>
-    <t>X10CrNi18-8 (301)</t>
-  </si>
-  <si>
-    <t>X5CrNiN17-8 (302)</t>
-  </si>
-  <si>
-    <t>X8CrNiS18-9 (303)</t>
-  </si>
-  <si>
-    <t>X5CrNi18-10 (304)</t>
-  </si>
-  <si>
-    <t>X2CrNi19-11 (304L)</t>
-  </si>
-  <si>
-    <t>X2CrNi18-9 (304L)</t>
-  </si>
-  <si>
-    <t>X5CrNiMo17-12-2 (316)</t>
-  </si>
-  <si>
-    <t>X2CrNiMo17-12-2 (316L)</t>
-  </si>
-  <si>
-    <t>X2CrNiMo18-14-3 (316L)</t>
-  </si>
-  <si>
-    <t>X6CrNiMoTi17-12-2 (316Ti)</t>
-  </si>
-  <si>
-    <t>X3CrNiMo17-13-3 (316M)</t>
-  </si>
-  <si>
-    <t>X6CrNiTi18-10 (321)</t>
-  </si>
-  <si>
-    <t>X3CrNiCu18-4 (304Cu)</t>
-  </si>
-  <si>
-    <t>X1NiCrMoCu25-20-5 (904L)</t>
-  </si>
-  <si>
-    <t>X12CrS13 (416)</t>
-  </si>
-  <si>
-    <t>X20Cr13 (420)</t>
-  </si>
-  <si>
-    <t>X30Cr13 (420)</t>
-  </si>
-  <si>
-    <t>X29CrS13 (420F)</t>
-  </si>
-  <si>
-    <t>X46Cr13 (420)</t>
-  </si>
-  <si>
-    <t>X45CrS13 (420F)</t>
-  </si>
-  <si>
-    <t>X39Cr13 (420)</t>
-  </si>
-  <si>
-    <t>X17CrNi-16-2 (431)</t>
-  </si>
-  <si>
-    <t>X12Cr13 (410)</t>
-  </si>
-  <si>
-    <t>X6Cr17 (430)</t>
-  </si>
-  <si>
-    <t>X14CrMoS17 (430F)</t>
-  </si>
-  <si>
-    <t>X6CrMoS17 (420F)</t>
-  </si>
-  <si>
-    <t>1.431</t>
-  </si>
-  <si>
-    <t>1.4319</t>
-  </si>
-  <si>
-    <t>1.4305</t>
-  </si>
-  <si>
-    <t>1.4301</t>
-  </si>
-  <si>
-    <t>1.4306</t>
-  </si>
-  <si>
-    <t>1.4307</t>
-  </si>
-  <si>
-    <t>1.4401</t>
-  </si>
-  <si>
-    <t>1.4404</t>
-  </si>
-  <si>
-    <t>1.4435</t>
-  </si>
-  <si>
-    <t>1.4571</t>
-  </si>
-  <si>
-    <t>1.4436</t>
-  </si>
-  <si>
-    <t>1.4541</t>
-  </si>
-  <si>
-    <t>1.4567</t>
-  </si>
-  <si>
-    <t>1.4539</t>
-  </si>
-  <si>
-    <t>1.4005</t>
-  </si>
-  <si>
-    <t>1.4021</t>
-  </si>
-  <si>
-    <t>1.4028</t>
-  </si>
-  <si>
-    <t>1.4029</t>
-  </si>
-  <si>
-    <t>1.4034</t>
-  </si>
-  <si>
-    <t>1.4035</t>
-  </si>
-  <si>
-    <t>1.4418</t>
-  </si>
-  <si>
-    <t>1.4122</t>
-  </si>
-  <si>
-    <t>1.4031</t>
-  </si>
-  <si>
-    <t>1.4057</t>
-  </si>
-  <si>
-    <t>1.4542</t>
-  </si>
-  <si>
-    <t>1.4006</t>
-  </si>
-  <si>
-    <t>1.4016</t>
-  </si>
-  <si>
-    <t>1.4104</t>
-  </si>
-  <si>
-    <t>1.4105</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Précisions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Les éléments de l'usinabilité en gras sont des valeurs conformes trouvées dans le pdf "critère d'usinabilité", en revanche les valeurs en italiques sont des valeurs déterminées avec l'aide des valeurs connues d'autres materiaux et de la composition chimique.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1933,6 +1930,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1960,10 +1961,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Heading 2b" xfId="6"/>
@@ -2664,7 +2661,7 @@
     <tableColumn id="12" name="Aptitude à la soudure" dataDxfId="15"/>
     <tableColumn id="13" name="Traitement thermique" dataDxfId="14"/>
     <tableColumn id="14" name="Aptitude au traitement thermique" dataDxfId="13"/>
-    <tableColumn id="15" name="resistance à la corrosion" dataDxfId="12"/>
+    <tableColumn id="15" name="résistance à la corrosion" dataDxfId="12"/>
     <tableColumn id="16" name="C" dataDxfId="11"/>
     <tableColumn id="17" name="Si" dataDxfId="10"/>
     <tableColumn id="18" name="Mn" dataDxfId="9"/>
@@ -2983,7 +2980,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="A14" sqref="A14:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2992,188 +2989,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="232" t="s">
-        <v>181</v>
-      </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
-      <c r="I1" s="232"/>
+      <c r="A1" s="224" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="224"/>
+      <c r="C1" s="224"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="224"/>
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="232"/>
-      <c r="B2" s="232"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="232"/>
-      <c r="H2" s="232"/>
-      <c r="I2" s="232"/>
+      <c r="A2" s="224"/>
+      <c r="B2" s="224"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="232"/>
-      <c r="B3" s="232"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="232"/>
+      <c r="A3" s="224"/>
+      <c r="B3" s="224"/>
+      <c r="C3" s="224"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="224"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="232"/>
-      <c r="B4" s="232"/>
-      <c r="C4" s="232"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="232"/>
-      <c r="F4" s="232"/>
-      <c r="G4" s="232"/>
-      <c r="H4" s="232"/>
-      <c r="I4" s="232"/>
+      <c r="A4" s="224"/>
+      <c r="B4" s="224"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="224"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="224"/>
+      <c r="H4" s="224"/>
+      <c r="I4" s="224"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="232"/>
-      <c r="B5" s="232"/>
-      <c r="C5" s="232"/>
-      <c r="D5" s="232"/>
-      <c r="E5" s="232"/>
-      <c r="F5" s="232"/>
-      <c r="G5" s="232"/>
-      <c r="H5" s="232"/>
-      <c r="I5" s="232"/>
+      <c r="A5" s="224"/>
+      <c r="B5" s="224"/>
+      <c r="C5" s="224"/>
+      <c r="D5" s="224"/>
+      <c r="E5" s="224"/>
+      <c r="F5" s="224"/>
+      <c r="G5" s="224"/>
+      <c r="H5" s="224"/>
+      <c r="I5" s="224"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="232"/>
-      <c r="B6" s="232"/>
-      <c r="C6" s="232"/>
-      <c r="D6" s="232"/>
-      <c r="E6" s="232"/>
-      <c r="F6" s="232"/>
-      <c r="G6" s="232"/>
-      <c r="H6" s="232"/>
-      <c r="I6" s="232"/>
+      <c r="A6" s="224"/>
+      <c r="B6" s="224"/>
+      <c r="C6" s="224"/>
+      <c r="D6" s="224"/>
+      <c r="E6" s="224"/>
+      <c r="F6" s="224"/>
+      <c r="G6" s="224"/>
+      <c r="H6" s="224"/>
+      <c r="I6" s="224"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="232"/>
-      <c r="B7" s="232"/>
-      <c r="C7" s="232"/>
-      <c r="D7" s="232"/>
-      <c r="E7" s="232"/>
-      <c r="F7" s="232"/>
-      <c r="G7" s="232"/>
-      <c r="H7" s="232"/>
-      <c r="I7" s="232"/>
+      <c r="A7" s="224"/>
+      <c r="B7" s="224"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="224"/>
+      <c r="I7" s="224"/>
     </row>
     <row r="8" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="232"/>
-      <c r="B8" s="232"/>
-      <c r="C8" s="232"/>
-      <c r="D8" s="232"/>
-      <c r="E8" s="232"/>
-      <c r="F8" s="232"/>
-      <c r="G8" s="232"/>
-      <c r="H8" s="232"/>
-      <c r="I8" s="232"/>
+      <c r="A8" s="224"/>
+      <c r="B8" s="224"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
+      <c r="F8" s="224"/>
+      <c r="G8" s="224"/>
+      <c r="H8" s="224"/>
+      <c r="I8" s="224"/>
     </row>
     <row r="9" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="223" t="s">
-        <v>184</v>
-      </c>
-      <c r="B9" s="223"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="223"/>
-      <c r="E9" s="223"/>
-      <c r="F9" s="223"/>
-      <c r="G9" s="223"/>
-      <c r="H9" s="223"/>
-      <c r="I9" s="223"/>
+      <c r="A9" s="225" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" s="225"/>
+      <c r="C9" s="225"/>
+      <c r="D9" s="225"/>
+      <c r="E9" s="225"/>
+      <c r="F9" s="225"/>
+      <c r="G9" s="225"/>
+      <c r="H9" s="225"/>
+      <c r="I9" s="225"/>
     </row>
     <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="223"/>
-      <c r="B10" s="223"/>
-      <c r="C10" s="223"/>
-      <c r="D10" s="223"/>
-      <c r="E10" s="223"/>
-      <c r="F10" s="223"/>
-      <c r="G10" s="223"/>
-      <c r="H10" s="223"/>
-      <c r="I10" s="223"/>
+      <c r="A10" s="225"/>
+      <c r="B10" s="225"/>
+      <c r="C10" s="225"/>
+      <c r="D10" s="225"/>
+      <c r="E10" s="225"/>
+      <c r="F10" s="225"/>
+      <c r="G10" s="225"/>
+      <c r="H10" s="225"/>
+      <c r="I10" s="225"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="224" t="s">
-        <v>183</v>
-      </c>
-      <c r="B11" s="224"/>
-      <c r="C11" s="224"/>
-      <c r="D11" s="224"/>
-      <c r="E11" s="224"/>
-      <c r="F11" s="224"/>
-      <c r="G11" s="224"/>
-      <c r="H11" s="224"/>
-      <c r="I11" s="224"/>
+      <c r="A11" s="226" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="226"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="226"/>
+      <c r="I11" s="226"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="224"/>
-      <c r="B12" s="224"/>
-      <c r="C12" s="224"/>
-      <c r="D12" s="224"/>
-      <c r="E12" s="224"/>
-      <c r="F12" s="224"/>
-      <c r="G12" s="224"/>
-      <c r="H12" s="224"/>
-      <c r="I12" s="224"/>
+      <c r="A12" s="226"/>
+      <c r="B12" s="226"/>
+      <c r="C12" s="226"/>
+      <c r="D12" s="226"/>
+      <c r="E12" s="226"/>
+      <c r="F12" s="226"/>
+      <c r="G12" s="226"/>
+      <c r="H12" s="226"/>
+      <c r="I12" s="226"/>
     </row>
     <row r="13" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="224"/>
-      <c r="B13" s="224"/>
-      <c r="C13" s="224"/>
-      <c r="D13" s="224"/>
-      <c r="E13" s="224"/>
-      <c r="F13" s="224"/>
-      <c r="G13" s="224"/>
-      <c r="H13" s="224"/>
-      <c r="I13" s="224"/>
+      <c r="A13" s="226"/>
+      <c r="B13" s="226"/>
+      <c r="C13" s="226"/>
+      <c r="D13" s="226"/>
+      <c r="E13" s="226"/>
+      <c r="F13" s="226"/>
+      <c r="G13" s="226"/>
+      <c r="H13" s="226"/>
+      <c r="I13" s="226"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="224" t="s">
-        <v>182</v>
-      </c>
-      <c r="B14" s="224"/>
-      <c r="C14" s="224"/>
-      <c r="D14" s="224"/>
-      <c r="E14" s="224"/>
-      <c r="F14" s="224"/>
-      <c r="G14" s="224"/>
-      <c r="H14" s="224"/>
-      <c r="I14" s="224"/>
+      <c r="A14" s="226" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="226"/>
+      <c r="C14" s="226"/>
+      <c r="D14" s="226"/>
+      <c r="E14" s="226"/>
+      <c r="F14" s="226"/>
+      <c r="G14" s="226"/>
+      <c r="H14" s="226"/>
+      <c r="I14" s="226"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="224"/>
-      <c r="B15" s="224"/>
-      <c r="C15" s="224"/>
-      <c r="D15" s="224"/>
-      <c r="E15" s="224"/>
-      <c r="F15" s="224"/>
-      <c r="G15" s="224"/>
-      <c r="H15" s="224"/>
-      <c r="I15" s="224"/>
+      <c r="A15" s="226"/>
+      <c r="B15" s="226"/>
+      <c r="C15" s="226"/>
+      <c r="D15" s="226"/>
+      <c r="E15" s="226"/>
+      <c r="F15" s="226"/>
+      <c r="G15" s="226"/>
+      <c r="H15" s="226"/>
+      <c r="I15" s="226"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="224"/>
-      <c r="B16" s="224"/>
-      <c r="C16" s="224"/>
-      <c r="D16" s="224"/>
-      <c r="E16" s="224"/>
-      <c r="F16" s="224"/>
-      <c r="G16" s="224"/>
-      <c r="H16" s="224"/>
-      <c r="I16" s="224"/>
+      <c r="A16" s="226"/>
+      <c r="B16" s="226"/>
+      <c r="C16" s="226"/>
+      <c r="D16" s="226"/>
+      <c r="E16" s="226"/>
+      <c r="F16" s="226"/>
+      <c r="G16" s="226"/>
+      <c r="H16" s="226"/>
+      <c r="I16" s="226"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3194,11 +3191,11 @@
   <dimension ref="B1:AB79"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D39" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="A6" sqref="A6"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C52" sqref="C52"/>
+      <selection pane="bottomRight" activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3216,52 +3213,52 @@
   <sheetData>
     <row r="1" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="136" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>171</v>
-      </c>
       <c r="G3"/>
-      <c r="O3" s="225" t="s">
-        <v>161</v>
-      </c>
-      <c r="P3" s="225"/>
-      <c r="Q3" s="225"/>
-      <c r="R3" s="225"/>
-      <c r="S3" s="225"/>
-      <c r="T3" s="225"/>
-      <c r="U3" s="225"/>
-      <c r="V3" s="225"/>
-      <c r="W3" s="225"/>
-      <c r="X3" s="225"/>
-      <c r="Y3" s="225"/>
-      <c r="Z3" s="225"/>
-      <c r="AA3" s="225"/>
+      <c r="O3" s="227" t="s">
+        <v>159</v>
+      </c>
+      <c r="P3" s="227"/>
+      <c r="Q3" s="227"/>
+      <c r="R3" s="227"/>
+      <c r="S3" s="227"/>
+      <c r="T3" s="227"/>
+      <c r="U3" s="227"/>
+      <c r="V3" s="227"/>
+      <c r="W3" s="227"/>
+      <c r="X3" s="227"/>
+      <c r="Y3" s="227"/>
+      <c r="Z3" s="227"/>
+      <c r="AA3" s="227"/>
     </row>
     <row r="4" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O4" s="226"/>
-      <c r="P4" s="226"/>
-      <c r="Q4" s="226"/>
-      <c r="R4" s="226"/>
-      <c r="S4" s="226"/>
-      <c r="T4" s="226"/>
-      <c r="U4" s="226"/>
-      <c r="V4" s="226"/>
-      <c r="W4" s="226"/>
-      <c r="X4" s="226"/>
-      <c r="Y4" s="226"/>
-      <c r="Z4" s="226"/>
-      <c r="AA4" s="226"/>
+      <c r="O4" s="228"/>
+      <c r="P4" s="228"/>
+      <c r="Q4" s="228"/>
+      <c r="R4" s="228"/>
+      <c r="S4" s="228"/>
+      <c r="T4" s="228"/>
+      <c r="U4" s="228"/>
+      <c r="V4" s="228"/>
+      <c r="W4" s="228"/>
+      <c r="X4" s="228"/>
+      <c r="Y4" s="228"/>
+      <c r="Z4" s="228"/>
+      <c r="AA4" s="228"/>
     </row>
     <row r="5" spans="2:28" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
@@ -3280,28 +3277,28 @@
         <v>3</v>
       </c>
       <c r="G5" s="84" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H5" s="107" t="s">
+        <v>160</v>
+      </c>
+      <c r="I5" s="113" t="s">
+        <v>161</v>
+      </c>
+      <c r="J5" s="107" t="s">
         <v>162</v>
-      </c>
-      <c r="I5" s="113" t="s">
-        <v>163</v>
-      </c>
-      <c r="J5" s="107" t="s">
-        <v>164</v>
       </c>
       <c r="K5" s="113" t="s">
         <v>4</v>
       </c>
       <c r="L5" s="107" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M5" s="135" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N5" s="106" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>113</v>
@@ -3378,7 +3375,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="111" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N6" s="23">
         <v>3</v>
@@ -3457,7 +3454,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="112" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N7" s="14">
         <v>3</v>
@@ -3536,7 +3533,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="111" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N8" s="23">
         <v>3</v>
@@ -3615,7 +3612,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="112" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N9" s="14">
         <v>3</v>
@@ -3694,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N10" s="23">
         <v>2</v>
@@ -3773,7 +3770,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N11" s="14">
         <v>2</v>
@@ -3852,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N12" s="23">
         <v>2</v>
@@ -4328,7 +4325,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N18" s="28">
         <v>2</v>
@@ -4407,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N19" s="42">
         <v>2</v>
@@ -4486,7 +4483,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N20" s="29">
         <v>2</v>
@@ -4565,7 +4562,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N21" s="42">
         <v>2</v>
@@ -5087,9 +5084,7 @@
       <c r="AB27" s="3"/>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
-        <v>133</v>
-      </c>
+      <c r="B28" s="8"/>
       <c r="C28" s="30" t="s">
         <v>124</v>
       </c>
@@ -5326,9 +5321,7 @@
       <c r="AB30" s="3"/>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
-        <v>144</v>
-      </c>
+      <c r="B31" s="8"/>
       <c r="C31" s="39" t="s">
         <v>56</v>
       </c>
@@ -5409,7 +5402,7 @@
     <row r="32" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B32" s="8"/>
       <c r="C32" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D32" s="31"/>
       <c r="E32" s="34"/>
@@ -5436,7 +5429,7 @@
         <v>3</v>
       </c>
       <c r="M32" s="29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N32" s="29">
         <v>0</v>
@@ -5486,7 +5479,7 @@
     <row r="33" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B33" s="45"/>
       <c r="C33" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D33" s="40"/>
       <c r="E33" s="39"/>
@@ -5513,7 +5506,7 @@
         <v>3</v>
       </c>
       <c r="M33" s="42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N33" s="42">
         <v>0</v>
@@ -5563,7 +5556,7 @@
     <row r="34" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B34" s="8"/>
       <c r="C34" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D34" s="31"/>
       <c r="E34" s="30"/>
@@ -5590,7 +5583,7 @@
         <v>3</v>
       </c>
       <c r="M34" s="29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N34" s="29">
         <v>0</v>
@@ -5640,7 +5633,7 @@
     <row r="35" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B35" s="8"/>
       <c r="C35" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D35" s="40"/>
       <c r="E35" s="39"/>
@@ -5667,7 +5660,7 @@
         <v>3</v>
       </c>
       <c r="M35" s="42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N35" s="42">
         <v>0</v>
@@ -6064,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="M40" s="62" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N40" s="62">
         <v>1</v>
@@ -6143,7 +6136,7 @@
         <v>1</v>
       </c>
       <c r="M41" s="50" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N41" s="50">
         <v>1</v>
@@ -6301,7 +6294,7 @@
         <v>2</v>
       </c>
       <c r="M43" s="50" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N43" s="50">
         <v>1</v>
@@ -6382,7 +6375,7 @@
         <v>2</v>
       </c>
       <c r="M44" s="62" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N44" s="62">
         <v>1</v>
@@ -6461,7 +6454,7 @@
         <v>2</v>
       </c>
       <c r="M45" s="50" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N45" s="50">
         <v>1</v>
@@ -6540,7 +6533,7 @@
         <v>2</v>
       </c>
       <c r="M46" s="62" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N46" s="62">
         <v>1</v>
@@ -6619,7 +6612,7 @@
         <v>2</v>
       </c>
       <c r="M47" s="50" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N47" s="50">
         <v>1</v>
@@ -6698,7 +6691,7 @@
         <v>2</v>
       </c>
       <c r="M48" s="62" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N48" s="62">
         <v>1</v>
@@ -6777,7 +6770,7 @@
         <v>2</v>
       </c>
       <c r="M49" s="58" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N49" s="58">
         <v>1</v>
@@ -7619,7 +7612,7 @@
     <row r="60" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B60" s="8"/>
       <c r="C60" s="64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D60" s="65">
         <v>1.3505</v>
@@ -7698,7 +7691,7 @@
     <row r="61" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B61" s="8"/>
       <c r="C61" s="75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D61" s="76">
         <v>1.7037</v>
@@ -7777,7 +7770,7 @@
     <row r="62" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B62" s="8"/>
       <c r="C62" s="64" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D62" s="65" t="s">
         <v>107</v>
@@ -7806,7 +7799,7 @@
         <v>2</v>
       </c>
       <c r="M62" s="69" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N62" s="69">
         <v>0</v>
@@ -7856,7 +7849,7 @@
     <row r="63" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B63" s="8"/>
       <c r="C63" s="75" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D63" s="76">
         <v>1.7021999999999999</v>
@@ -7935,7 +7928,7 @@
     <row r="64" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B64" s="8"/>
       <c r="C64" s="64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D64" s="65"/>
       <c r="E64" s="72"/>
@@ -7962,7 +7955,7 @@
         <v>3</v>
       </c>
       <c r="M64" s="69" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N64" s="69">
         <v>0</v>
@@ -8012,7 +8005,7 @@
     <row r="65" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B65" s="8"/>
       <c r="C65" s="75" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D65" s="76">
         <v>17039</v>
@@ -8091,7 +8084,7 @@
     <row r="66" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B66" s="8"/>
       <c r="C66" s="64" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D66" s="65" t="s">
         <v>108</v>
@@ -8120,7 +8113,7 @@
         <v>3</v>
       </c>
       <c r="M66" s="69" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N66" s="69">
         <v>0</v>
@@ -8170,7 +8163,7 @@
     <row r="67" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B67" s="8"/>
       <c r="C67" s="75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D67" s="76">
         <v>1.7035</v>
@@ -8249,7 +8242,7 @@
     <row r="68" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B68" s="8"/>
       <c r="C68" s="64" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D68" s="65">
         <v>1.7035</v>
@@ -8278,7 +8271,7 @@
         <v>3</v>
       </c>
       <c r="M68" s="69" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N68" s="69">
         <v>0</v>
@@ -8407,7 +8400,7 @@
     <row r="70" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B70" s="8"/>
       <c r="C70" s="64" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D70" s="65">
         <v>1.7213000000000001</v>
@@ -8486,7 +8479,7 @@
     <row r="71" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B71" s="8"/>
       <c r="C71" s="75" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D71" s="76" t="s">
         <v>109</v>
@@ -8515,7 +8508,7 @@
         <v>2</v>
       </c>
       <c r="M71" s="77" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N71" s="77">
         <v>0</v>
@@ -8644,7 +8637,7 @@
     <row r="73" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B73" s="8"/>
       <c r="C73" s="75" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D73" s="76">
         <v>1.7224999999999999</v>
@@ -8673,7 +8666,7 @@
         <v>3</v>
       </c>
       <c r="M73" s="77" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N73" s="77">
         <v>0</v>
@@ -8723,7 +8716,7 @@
     <row r="74" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B74" s="8"/>
       <c r="C74" s="64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D74" s="65">
         <v>1.7224999999999999</v>
@@ -8802,7 +8795,7 @@
     <row r="75" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
       <c r="C75" s="75" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D75" s="76" t="s">
         <v>110</v>
@@ -8831,7 +8824,7 @@
         <v>3</v>
       </c>
       <c r="M75" s="77" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N75" s="77">
         <v>0</v>
@@ -8881,7 +8874,7 @@
     <row r="76" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B76" s="8"/>
       <c r="C76" s="64" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D76" s="65" t="s">
         <v>111</v>
@@ -8910,7 +8903,7 @@
         <v>3</v>
       </c>
       <c r="M76" s="69" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N76" s="69">
         <v>0</v>
@@ -8960,7 +8953,7 @@
     <row r="77" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B77" s="8"/>
       <c r="C77" s="75" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D77" s="76"/>
       <c r="E77" s="75"/>
@@ -9037,7 +9030,7 @@
     <row r="78" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B78" s="8"/>
       <c r="C78" s="64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D78" s="65" t="s">
         <v>112</v>
@@ -9066,7 +9059,7 @@
         <v>3</v>
       </c>
       <c r="M78" s="69" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N78" s="69">
         <v>0</v>
@@ -9134,11 +9127,11 @@
   <dimension ref="B1:AC71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="A6" sqref="A6"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomRight" activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9159,60 +9152,60 @@
     <row r="1" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D2" s="3"/>
       <c r="H2"/>
     </row>
     <row r="3" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="136" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D3" s="3"/>
       <c r="H3"/>
-      <c r="P3" s="227" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q3" s="228"/>
-      <c r="R3" s="228"/>
-      <c r="S3" s="228"/>
-      <c r="T3" s="228"/>
-      <c r="U3" s="228"/>
-      <c r="V3" s="228"/>
-      <c r="W3" s="228"/>
-      <c r="X3" s="228"/>
-      <c r="Y3" s="228"/>
-      <c r="Z3" s="228"/>
-      <c r="AA3" s="229"/>
-      <c r="AB3" s="233"/>
+      <c r="P3" s="229" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q3" s="230"/>
+      <c r="R3" s="230"/>
+      <c r="S3" s="230"/>
+      <c r="T3" s="230"/>
+      <c r="U3" s="230"/>
+      <c r="V3" s="230"/>
+      <c r="W3" s="230"/>
+      <c r="X3" s="230"/>
+      <c r="Y3" s="230"/>
+      <c r="Z3" s="230"/>
+      <c r="AA3" s="231"/>
+      <c r="AB3" s="223"/>
     </row>
     <row r="4" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P4" s="230"/>
-      <c r="Q4" s="226"/>
-      <c r="R4" s="226"/>
-      <c r="S4" s="226"/>
-      <c r="T4" s="226"/>
-      <c r="U4" s="226"/>
-      <c r="V4" s="226"/>
-      <c r="W4" s="226"/>
-      <c r="X4" s="226"/>
-      <c r="Y4" s="226"/>
-      <c r="Z4" s="226"/>
-      <c r="AA4" s="231"/>
-      <c r="AB4" s="233"/>
+      <c r="P4" s="232"/>
+      <c r="Q4" s="228"/>
+      <c r="R4" s="228"/>
+      <c r="S4" s="228"/>
+      <c r="T4" s="228"/>
+      <c r="U4" s="228"/>
+      <c r="V4" s="228"/>
+      <c r="W4" s="228"/>
+      <c r="X4" s="228"/>
+      <c r="Y4" s="228"/>
+      <c r="Z4" s="228"/>
+      <c r="AA4" s="233"/>
+      <c r="AB4" s="223"/>
     </row>
     <row r="5" spans="2:28" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="152" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="150" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D5" s="152" t="s">
         <v>6</v>
@@ -9224,31 +9217,31 @@
         <v>3</v>
       </c>
       <c r="G5" s="154" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H5" s="155" t="s">
+        <v>160</v>
+      </c>
+      <c r="I5" s="156" t="s">
+        <v>161</v>
+      </c>
+      <c r="J5" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="I5" s="156" t="s">
-        <v>163</v>
-      </c>
-      <c r="J5" s="155" t="s">
+      <c r="K5" s="156" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="155" t="s">
+        <v>157</v>
+      </c>
+      <c r="M5" s="151" t="s">
         <v>164</v>
       </c>
-      <c r="K5" s="156" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="155" t="s">
-        <v>159</v>
-      </c>
-      <c r="M5" s="151" t="s">
-        <v>166</v>
-      </c>
       <c r="N5" s="157" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O5" s="157" t="s">
-        <v>177</v>
+        <v>238</v>
       </c>
       <c r="P5" s="150" t="s">
         <v>113</v>
@@ -9290,13 +9283,13 @@
     </row>
     <row r="6" spans="2:28" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B6" s="192" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D6" s="147" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="124">
@@ -9322,7 +9315,7 @@
         <v>2</v>
       </c>
       <c r="M6" s="112" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N6" s="112">
         <v>3</v>
@@ -9370,13 +9363,13 @@
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B7" s="193" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="148">
@@ -9402,7 +9395,7 @@
         <v>2</v>
       </c>
       <c r="M7" s="111" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N7" s="111">
         <v>3</v>
@@ -9451,10 +9444,10 @@
     <row r="8" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B8" s="167"/>
       <c r="C8" s="11" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="141">
@@ -9479,7 +9472,7 @@
         <v>3</v>
       </c>
       <c r="M8" s="112" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N8" s="112">
         <v>3</v>
@@ -9528,10 +9521,10 @@
     <row r="9" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B9" s="117"/>
       <c r="C9" s="20" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="115">
@@ -9557,7 +9550,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="111" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N9" s="111">
         <v>3</v>
@@ -9606,10 +9599,10 @@
     <row r="10" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B10" s="167"/>
       <c r="C10" s="11" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="141">
@@ -9635,7 +9628,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="112" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N10" s="112">
         <v>3</v>
@@ -9684,10 +9677,10 @@
     <row r="11" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B11" s="117"/>
       <c r="C11" s="20" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="138">
@@ -9713,7 +9706,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="111" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N11" s="111">
         <v>3</v>
@@ -9762,10 +9755,10 @@
     <row r="12" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B12" s="167"/>
       <c r="C12" s="11" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="124">
@@ -9791,7 +9784,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="112" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N12" s="112">
         <v>3</v>
@@ -9840,10 +9833,10 @@
     <row r="13" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B13" s="117"/>
       <c r="C13" s="20" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="114">
@@ -9869,7 +9862,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="111" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N13" s="111">
         <v>3</v>
@@ -9917,13 +9910,13 @@
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B14" s="167" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="127">
@@ -9949,7 +9942,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="112" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N14" s="112">
         <v>3</v>
@@ -9998,10 +9991,10 @@
     <row r="15" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B15" s="117"/>
       <c r="C15" s="20" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="122">
@@ -10026,7 +10019,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="111" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N15" s="111">
         <v>3</v>
@@ -10075,10 +10068,10 @@
     <row r="16" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B16" s="167"/>
       <c r="C16" s="11" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="121">
@@ -10104,7 +10097,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="112" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N16" s="112">
         <v>3</v>
@@ -10153,10 +10146,10 @@
     <row r="17" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B17" s="117"/>
       <c r="C17" s="20" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="115">
@@ -10182,7 +10175,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="111" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N17" s="111">
         <v>3</v>
@@ -10231,10 +10224,10 @@
     <row r="18" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B18" s="167"/>
       <c r="C18" s="11" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E18" s="149"/>
       <c r="F18" s="166">
@@ -10260,7 +10253,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="112" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N18" s="112">
         <v>3</v>
@@ -10309,10 +10302,10 @@
     <row r="19" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="117"/>
       <c r="C19" s="20" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="114">
@@ -10337,7 +10330,7 @@
         <v>2</v>
       </c>
       <c r="M19" s="111" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N19" s="111">
         <v>3</v>
@@ -10385,13 +10378,13 @@
     </row>
     <row r="20" spans="2:28" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B20" s="194" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E20" s="25"/>
       <c r="F20" s="123">
@@ -10416,7 +10409,7 @@
         <v>3</v>
       </c>
       <c r="M20" s="129" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N20" s="129">
         <v>1</v>
@@ -10465,10 +10458,10 @@
     <row r="21" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B21" s="195"/>
       <c r="C21" s="170" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D21" s="171" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E21" s="170"/>
       <c r="F21" s="179">
@@ -10493,7 +10486,7 @@
         <v>3</v>
       </c>
       <c r="M21" s="176" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N21" s="176">
         <v>1</v>
@@ -10542,10 +10535,10 @@
     <row r="22" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B22" s="118"/>
       <c r="C22" s="30" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E22" s="30"/>
       <c r="F22" s="116">
@@ -10570,7 +10563,7 @@
         <v>3</v>
       </c>
       <c r="M22" s="125" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N22" s="125">
         <v>1</v>
@@ -10619,10 +10612,10 @@
     <row r="23" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B23" s="178"/>
       <c r="C23" s="170" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D23" s="171" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E23" s="170"/>
       <c r="F23" s="172">
@@ -10647,7 +10640,7 @@
         <v>3</v>
       </c>
       <c r="M23" s="176" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N23" s="176">
         <v>1</v>
@@ -10696,10 +10689,10 @@
     <row r="24" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B24" s="118"/>
       <c r="C24" s="30" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E24" s="30"/>
       <c r="F24" s="116">
@@ -10724,7 +10717,7 @@
         <v>3</v>
       </c>
       <c r="M24" s="125" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N24" s="125">
         <v>2</v>
@@ -10773,10 +10766,10 @@
     <row r="25" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B25" s="178"/>
       <c r="C25" s="170" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D25" s="171" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E25" s="170"/>
       <c r="F25" s="180">
@@ -10801,7 +10794,7 @@
         <v>3</v>
       </c>
       <c r="M25" s="176" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N25" s="176">
         <v>1</v>
@@ -10850,10 +10843,10 @@
     <row r="26" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B26" s="29"/>
       <c r="C26" s="142" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D26" s="143" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E26" s="142"/>
       <c r="F26" s="168">
@@ -10878,10 +10871,10 @@
         <v>1</v>
       </c>
       <c r="M26" s="131" t="s">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="N26" s="131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="146">
         <v>2</v>
@@ -10927,10 +10920,10 @@
     <row r="27" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B27" s="174"/>
       <c r="C27" s="181" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D27" s="182" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E27" s="181"/>
       <c r="F27" s="183">
@@ -10955,7 +10948,7 @@
         <v>3</v>
       </c>
       <c r="M27" s="175" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N27" s="175">
         <v>1</v>
@@ -11004,10 +10997,10 @@
     <row r="28" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B28" s="29"/>
       <c r="C28" s="142" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D28" s="143" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E28" s="142"/>
       <c r="F28" s="168">
@@ -11023,7 +11016,7 @@
         <v>800</v>
       </c>
       <c r="J28" s="169" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K28" s="145">
         <v>10</v>
@@ -11032,7 +11025,7 @@
         <v>3</v>
       </c>
       <c r="M28" s="131" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N28" s="131">
         <v>1</v>
@@ -11081,10 +11074,10 @@
     <row r="29" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B29" s="178"/>
       <c r="C29" s="170" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D29" s="171" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E29" s="170"/>
       <c r="F29" s="179">
@@ -11110,7 +11103,7 @@
         <v>2</v>
       </c>
       <c r="M29" s="176" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N29" s="176">
         <v>1</v>
@@ -11159,10 +11152,10 @@
     <row r="30" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B30" s="118"/>
       <c r="C30" s="30" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E30" s="30"/>
       <c r="F30" s="139">
@@ -11187,10 +11180,10 @@
         <v>1</v>
       </c>
       <c r="M30" s="125" t="s">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="N30" s="125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="32">
         <v>1</v>
@@ -11236,10 +11229,10 @@
     <row r="31" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="178"/>
       <c r="C31" s="170" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D31" s="171" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E31" s="170"/>
       <c r="F31" s="179">
@@ -11265,7 +11258,7 @@
         <v>2</v>
       </c>
       <c r="M31" s="176" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N31" s="176">
         <v>1</v>
@@ -11313,13 +11306,13 @@
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B32" s="211" t="s">
-        <v>185</v>
+        <v>237</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E32" s="46"/>
       <c r="F32" s="212">
@@ -11344,7 +11337,7 @@
         <v>2</v>
       </c>
       <c r="M32" s="126" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N32" s="126">
         <v>3</v>
@@ -11393,10 +11386,10 @@
     <row r="33" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B33" s="213"/>
       <c r="C33" s="59" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D33" s="60" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E33" s="59"/>
       <c r="F33" s="188">
@@ -11422,7 +11415,7 @@
         <v>2</v>
       </c>
       <c r="M33" s="130" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N33" s="130">
         <v>2</v>
@@ -11471,10 +11464,10 @@
     <row r="34" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="214"/>
       <c r="C34" s="215" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D34" s="217" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E34" s="215"/>
       <c r="F34" s="218">
@@ -11499,7 +11492,7 @@
         <v>3</v>
       </c>
       <c r="M34" s="216" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N34" s="216">
         <v>3</v>

--- a/docs/base_de_donnees_materiaux/bdd_materiaux_v3.0 - sans prix -.xlsx
+++ b/docs/base_de_donnees_materiaux/bdd_materiaux_v3.0 - sans prix -.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Présentation" sheetId="4" r:id="rId1"/>
@@ -260,11 +260,26 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>1: très bonne résistance à la corrosion
 2: bonne résistance à la corrosion
 3: moyenne résistance à la corrosion</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Pas dans la norme.
+</t>
         </r>
       </text>
     </comment>
@@ -273,7 +288,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="241">
   <si>
     <t>Famille</t>
   </si>
@@ -786,12 +801,6 @@
   </si>
   <si>
     <t xml:space="preserve">Acier inoxydable austenitique </t>
-  </si>
-  <si>
-    <t>plusieur nuance ??</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pas dans la norme </t>
   </si>
   <si>
     <t xml:space="preserve">A% </t>
@@ -1071,7 +1080,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1214,12 +1223,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="14">
@@ -2990,7 +2993,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="224" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B1" s="224"/>
       <c r="C1" s="224"/>
@@ -3080,7 +3083,7 @@
     </row>
     <row r="9" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="225" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B9" s="225"/>
       <c r="C9" s="225"/>
@@ -3104,7 +3107,7 @@
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="226" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B11" s="226"/>
       <c r="C11" s="226"/>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="226" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B14" s="226"/>
       <c r="C14" s="226"/>
@@ -3190,12 +3193,12 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="B1:AB79"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D39" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D46" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="A6" sqref="A6"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O46" sqref="O46"/>
+      <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9126,12 +9129,12 @@
   <sheetPr codeName="Feuil3"/>
   <dimension ref="B1:AC71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="A6" sqref="A6"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="N31" sqref="N31"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9155,7 +9158,7 @@
         <v>166</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D2" s="3"/>
       <c r="H2"/>
@@ -9205,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="150" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D5" s="152" t="s">
         <v>6</v>
@@ -9229,7 +9232,7 @@
         <v>162</v>
       </c>
       <c r="K5" s="156" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L5" s="155" t="s">
         <v>157</v>
@@ -9241,7 +9244,7 @@
         <v>158</v>
       </c>
       <c r="O5" s="157" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="P5" s="150" t="s">
         <v>113</v>
@@ -9286,10 +9289,10 @@
         <v>170</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D6" s="147" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="124">
@@ -9362,14 +9365,12 @@
       <c r="AB6" s="10"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B7" s="193" t="s">
-        <v>172</v>
-      </c>
+      <c r="B7" s="193"/>
       <c r="C7" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="148">
@@ -9444,10 +9445,10 @@
     <row r="8" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B8" s="167"/>
       <c r="C8" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="141">
@@ -9521,10 +9522,10 @@
     <row r="9" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B9" s="117"/>
       <c r="C9" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="115">
@@ -9599,10 +9600,10 @@
     <row r="10" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B10" s="167"/>
       <c r="C10" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="141">
@@ -9677,10 +9678,10 @@
     <row r="11" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B11" s="117"/>
       <c r="C11" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="138">
@@ -9755,10 +9756,10 @@
     <row r="12" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B12" s="167"/>
       <c r="C12" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="124">
@@ -9833,10 +9834,10 @@
     <row r="13" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B13" s="117"/>
       <c r="C13" s="20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="114">
@@ -9909,14 +9910,12 @@
       <c r="AB13" s="10"/>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B14" s="167" t="s">
-        <v>171</v>
-      </c>
+      <c r="B14" s="167"/>
       <c r="C14" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="127">
@@ -9991,10 +9990,10 @@
     <row r="15" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B15" s="117"/>
       <c r="C15" s="20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="122">
@@ -10068,10 +10067,10 @@
     <row r="16" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B16" s="167"/>
       <c r="C16" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="121">
@@ -10146,10 +10145,10 @@
     <row r="17" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B17" s="117"/>
       <c r="C17" s="20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="115">
@@ -10224,10 +10223,10 @@
     <row r="18" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B18" s="167"/>
       <c r="C18" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E18" s="149"/>
       <c r="F18" s="166">
@@ -10302,10 +10301,10 @@
     <row r="19" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="117"/>
       <c r="C19" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="114">
@@ -10378,13 +10377,13 @@
     </row>
     <row r="20" spans="2:28" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B20" s="194" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E20" s="25"/>
       <c r="F20" s="123">
@@ -10409,7 +10408,7 @@
         <v>3</v>
       </c>
       <c r="M20" s="129" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N20" s="129">
         <v>1</v>
@@ -10458,10 +10457,10 @@
     <row r="21" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B21" s="195"/>
       <c r="C21" s="170" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D21" s="171" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E21" s="170"/>
       <c r="F21" s="179">
@@ -10486,7 +10485,7 @@
         <v>3</v>
       </c>
       <c r="M21" s="176" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N21" s="176">
         <v>1</v>
@@ -10535,10 +10534,10 @@
     <row r="22" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B22" s="118"/>
       <c r="C22" s="30" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E22" s="30"/>
       <c r="F22" s="116">
@@ -10563,7 +10562,7 @@
         <v>3</v>
       </c>
       <c r="M22" s="125" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N22" s="125">
         <v>1</v>
@@ -10612,10 +10611,10 @@
     <row r="23" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B23" s="178"/>
       <c r="C23" s="170" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D23" s="171" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E23" s="170"/>
       <c r="F23" s="172">
@@ -10640,7 +10639,7 @@
         <v>3</v>
       </c>
       <c r="M23" s="176" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N23" s="176">
         <v>1</v>
@@ -10689,10 +10688,10 @@
     <row r="24" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B24" s="118"/>
       <c r="C24" s="30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E24" s="30"/>
       <c r="F24" s="116">
@@ -10717,7 +10716,7 @@
         <v>3</v>
       </c>
       <c r="M24" s="125" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N24" s="125">
         <v>2</v>
@@ -10766,10 +10765,10 @@
     <row r="25" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B25" s="178"/>
       <c r="C25" s="170" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D25" s="171" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E25" s="170"/>
       <c r="F25" s="180">
@@ -10794,7 +10793,7 @@
         <v>3</v>
       </c>
       <c r="M25" s="176" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N25" s="176">
         <v>1</v>
@@ -10843,10 +10842,10 @@
     <row r="26" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B26" s="29"/>
       <c r="C26" s="142" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D26" s="143" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E26" s="142"/>
       <c r="F26" s="168">
@@ -10871,7 +10870,7 @@
         <v>1</v>
       </c>
       <c r="M26" s="131" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="N26" s="131">
         <v>0</v>
@@ -10920,10 +10919,10 @@
     <row r="27" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B27" s="174"/>
       <c r="C27" s="181" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D27" s="182" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E27" s="181"/>
       <c r="F27" s="183">
@@ -10948,7 +10947,7 @@
         <v>3</v>
       </c>
       <c r="M27" s="175" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N27" s="175">
         <v>1</v>
@@ -10997,10 +10996,10 @@
     <row r="28" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B28" s="29"/>
       <c r="C28" s="142" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D28" s="143" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E28" s="142"/>
       <c r="F28" s="168">
@@ -11025,7 +11024,7 @@
         <v>3</v>
       </c>
       <c r="M28" s="131" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N28" s="131">
         <v>1</v>
@@ -11074,10 +11073,10 @@
     <row r="29" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B29" s="178"/>
       <c r="C29" s="170" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D29" s="171" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E29" s="170"/>
       <c r="F29" s="179">
@@ -11103,7 +11102,7 @@
         <v>2</v>
       </c>
       <c r="M29" s="176" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N29" s="176">
         <v>1</v>
@@ -11152,10 +11151,10 @@
     <row r="30" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B30" s="118"/>
       <c r="C30" s="30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E30" s="30"/>
       <c r="F30" s="139">
@@ -11180,7 +11179,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="125" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="N30" s="125">
         <v>0</v>
@@ -11229,10 +11228,10 @@
     <row r="31" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="178"/>
       <c r="C31" s="170" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D31" s="171" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E31" s="170"/>
       <c r="F31" s="179">
@@ -11258,7 +11257,7 @@
         <v>2</v>
       </c>
       <c r="M31" s="176" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N31" s="176">
         <v>1</v>
@@ -11306,13 +11305,13 @@
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B32" s="211" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E32" s="46"/>
       <c r="F32" s="212">
@@ -11386,10 +11385,10 @@
     <row r="33" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B33" s="213"/>
       <c r="C33" s="59" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D33" s="60" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E33" s="59"/>
       <c r="F33" s="188">
@@ -11415,7 +11414,7 @@
         <v>2</v>
       </c>
       <c r="M33" s="130" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N33" s="130">
         <v>2</v>
@@ -11464,10 +11463,10 @@
     <row r="34" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="214"/>
       <c r="C34" s="215" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D34" s="217" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E34" s="215"/>
       <c r="F34" s="218">

--- a/docs/base_de_donnees_materiaux/bdd_materiaux_v3.0 - sans prix -.xlsx
+++ b/docs/base_de_donnees_materiaux/bdd_materiaux_v3.0 - sans prix -.xlsx
@@ -1024,9 +1024,6 @@
     <t>pré-traité</t>
   </si>
   <si>
-    <t xml:space="preserve">Base de données Matériaux de l'IPOC AT-OMC v2.0 </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1071,6 +1068,9 @@
       </rPr>
       <t xml:space="preserve"> Les éléments de l'usinabilité en gras sont des valeurs conformes trouvées dans le pdf "critère d'usinabilité", en revanche les valeurs en italiques sont des valeurs déterminées avec l'aide des valeurs connues d'autres materiaux et de la composition chimique.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Base de données Matériaux de l'IPOC AT-OMC v3.0 </t>
   </si>
 </sst>
 </file>
@@ -2983,7 +2983,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:I16"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2993,7 +2993,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="224" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B1" s="224"/>
       <c r="C1" s="224"/>
@@ -3083,7 +3083,7 @@
     </row>
     <row r="9" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="225" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B9" s="225"/>
       <c r="C9" s="225"/>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="226" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B14" s="226"/>
       <c r="C14" s="226"/>
@@ -3193,12 +3193,12 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="B1:AB79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D46" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="A6" sqref="A6"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3291,7 +3291,7 @@
       <c r="J5" s="107" t="s">
         <v>162</v>
       </c>
-      <c r="K5" s="113" t="s">
+      <c r="K5" s="135" t="s">
         <v>4</v>
       </c>
       <c r="L5" s="107" t="s">
@@ -9129,8 +9129,8 @@
   <sheetPr codeName="Feuil3"/>
   <dimension ref="B1:AC71"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="A6" sqref="A6"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
